--- a/data_xlsx/美元指数.xlsx
+++ b/data_xlsx/美元指数.xlsx
@@ -103,7 +103,7 @@
         <v>40183.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>77.63</v>
+        <v>77.63000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -119,7 +119,7 @@
         <v>40185.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>77.99</v>
+        <v>77.99000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -135,7 +135,7 @@
         <v>40189.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>77.02</v>
+        <v>77.02000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -239,7 +239,7 @@
         <v>40206.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>78.93</v>
+        <v>78.92999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -295,7 +295,7 @@
         <v>40217.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>80.38</v>
+        <v>80.38000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -319,7 +319,7 @@
         <v>40220.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>79.99</v>
+        <v>79.99000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -335,7 +335,7 @@
         <v>40224.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>80.38</v>
+        <v>80.38000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -407,7 +407,7 @@
         <v>40235.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>80.35</v>
+        <v>80.35000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -431,7 +431,7 @@
         <v>40240.0</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>80.01</v>
+        <v>80.00999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -479,7 +479,7 @@
         <v>40248.0</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>80.26</v>
+        <v>80.25999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -567,7 +567,7 @@
         <v>40263.0</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>81.62</v>
+        <v>81.61999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -575,7 +575,7 @@
         <v>40266.0</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>81.29</v>
+        <v>81.28999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -591,7 +591,7 @@
         <v>40268.0</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>81.07</v>
+        <v>81.07000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -751,7 +751,7 @@
         <v>40296.0</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>82.29</v>
+        <v>82.28999999999999</v>
       </c>
     </row>
     <row r="85">
@@ -759,7 +759,7 @@
         <v>40297.0</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>82.01</v>
+        <v>82.00999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -775,7 +775,7 @@
         <v>40301.0</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>82.38</v>
+        <v>82.38000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -847,7 +847,7 @@
         <v>40312.0</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>86.29</v>
+        <v>86.28999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -919,7 +919,7 @@
         <v>40325.0</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>86.3</v>
+        <v>86.30000000000001</v>
       </c>
     </row>
     <row r="106">
@@ -967,7 +967,7 @@
         <v>40333.0</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>88.3</v>
+        <v>88.30000000000001</v>
       </c>
     </row>
     <row r="112">
@@ -1071,7 +1071,7 @@
         <v>40352.0</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>85.82</v>
+        <v>85.82000000000001</v>
       </c>
     </row>
     <row r="125">
@@ -1087,7 +1087,7 @@
         <v>40354.0</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>85.35</v>
+        <v>85.35000000000001</v>
       </c>
     </row>
     <row r="127">
@@ -1127,7 +1127,7 @@
         <v>40361.0</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>84.37</v>
+        <v>84.36999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -1191,7 +1191,7 @@
         <v>40373.0</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>83.35</v>
+        <v>83.35000000000001</v>
       </c>
     </row>
     <row r="140">
@@ -1199,7 +1199,7 @@
         <v>40374.0</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>82.35</v>
+        <v>82.35000000000001</v>
       </c>
     </row>
     <row r="141">
@@ -1255,7 +1255,7 @@
         <v>40385.0</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>82.07</v>
+        <v>82.07000000000001</v>
       </c>
     </row>
     <row r="148">
@@ -1279,7 +1279,7 @@
         <v>40388.0</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>81.62</v>
+        <v>81.61999999999999</v>
       </c>
     </row>
     <row r="151">
@@ -1295,7 +1295,7 @@
         <v>40392.0</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>80.9</v>
+        <v>80.89999999999999</v>
       </c>
     </row>
     <row r="153">
@@ -1311,7 +1311,7 @@
         <v>40394.0</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>80.99</v>
+        <v>80.99000000000001</v>
       </c>
     </row>
     <row r="155">
@@ -1335,7 +1335,7 @@
         <v>40399.0</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>80.71</v>
+        <v>80.71000000000001</v>
       </c>
     </row>
     <row r="158">
@@ -1351,7 +1351,7 @@
         <v>40401.0</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>82.46</v>
+        <v>82.46000000000001</v>
       </c>
     </row>
     <row r="160">
@@ -1375,7 +1375,7 @@
         <v>40406.0</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>82.46</v>
+        <v>82.46000000000001</v>
       </c>
     </row>
     <row r="163">
@@ -1407,7 +1407,7 @@
         <v>40410.0</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>83.02</v>
+        <v>83.02000000000001</v>
       </c>
     </row>
     <row r="167">
@@ -1439,7 +1439,7 @@
         <v>40416.0</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>82.9</v>
+        <v>82.89999999999999</v>
       </c>
     </row>
     <row r="171">
@@ -1463,7 +1463,7 @@
         <v>40421.0</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>83.07</v>
+        <v>83.07000000000001</v>
       </c>
     </row>
     <row r="174">
@@ -1487,7 +1487,7 @@
         <v>40424.0</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>82.01</v>
+        <v>82.00999999999999</v>
       </c>
     </row>
     <row r="177">
@@ -1767,7 +1767,7 @@
         <v>40473.0</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>77.37</v>
+        <v>77.36999999999999</v>
       </c>
     </row>
     <row r="212">
@@ -1783,7 +1783,7 @@
         <v>40477.0</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>77.65</v>
+        <v>77.64999999999999</v>
       </c>
     </row>
     <row r="214">
@@ -1863,7 +1863,7 @@
         <v>40491.0</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>77.74</v>
+        <v>77.74000000000001</v>
       </c>
     </row>
     <row r="224">
@@ -1943,7 +1943,7 @@
         <v>40505.0</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>79.71</v>
+        <v>79.71000000000001</v>
       </c>
     </row>
     <row r="234">
@@ -2143,7 +2143,7 @@
         <v>40540.0</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>80.38</v>
+        <v>80.38000000000001</v>
       </c>
     </row>
     <row r="259">
@@ -2247,7 +2247,7 @@
         <v>40557.0</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>79.07</v>
+        <v>79.07000000000001</v>
       </c>
     </row>
     <row r="272">
@@ -2303,7 +2303,7 @@
         <v>40568.0</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>77.93</v>
+        <v>77.92999999999999</v>
       </c>
     </row>
     <row r="279">
@@ -2311,7 +2311,7 @@
         <v>40569.0</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>77.7</v>
+        <v>77.69999999999999</v>
       </c>
     </row>
     <row r="280">
@@ -2383,7 +2383,7 @@
         <v>40582.0</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>77.99</v>
+        <v>77.99000000000001</v>
       </c>
     </row>
     <row r="289">
@@ -2447,7 +2447,7 @@
         <v>40592.0</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>77.62</v>
+        <v>77.61999999999999</v>
       </c>
     </row>
     <row r="297">
@@ -2463,7 +2463,7 @@
         <v>40596.0</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>77.82</v>
+        <v>77.82000000000001</v>
       </c>
     </row>
     <row r="299">
@@ -2479,7 +2479,7 @@
         <v>40598.0</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>77.1</v>
+        <v>77.10000000000001</v>
       </c>
     </row>
     <row r="301">
@@ -2495,7 +2495,7 @@
         <v>40602.0</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>76.9</v>
+        <v>76.89999999999999</v>
       </c>
     </row>
     <row r="303">
@@ -2503,7 +2503,7 @@
         <v>40603.0</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>77.02</v>
+        <v>77.02000000000001</v>
       </c>
     </row>
     <row r="304">
@@ -2511,7 +2511,7 @@
         <v>40604.0</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>76.65</v>
+        <v>76.64999999999999</v>
       </c>
     </row>
     <row r="305">
@@ -2519,7 +2519,7 @@
         <v>40605.0</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>76.46</v>
+        <v>76.46000000000001</v>
       </c>
     </row>
     <row r="306">
@@ -2527,7 +2527,7 @@
         <v>40606.0</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>76.38</v>
+        <v>76.38000000000001</v>
       </c>
     </row>
     <row r="307">
@@ -2567,7 +2567,7 @@
         <v>40613.0</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>76.71</v>
+        <v>76.71000000000001</v>
       </c>
     </row>
     <row r="312">
@@ -2583,7 +2583,7 @@
         <v>40617.0</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>76.35</v>
+        <v>76.35000000000001</v>
       </c>
     </row>
     <row r="314">
@@ -2591,7 +2591,7 @@
         <v>40618.0</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>76.18</v>
+        <v>76.17999999999999</v>
       </c>
     </row>
     <row r="315">
@@ -2599,7 +2599,7 @@
         <v>40619.0</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>75.99</v>
+        <v>75.99000000000001</v>
       </c>
     </row>
     <row r="316">
@@ -2639,7 +2639,7 @@
         <v>40626.0</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>75.7</v>
+        <v>75.69999999999999</v>
       </c>
     </row>
     <row r="321">
@@ -2687,7 +2687,7 @@
         <v>40634.0</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>75.82</v>
+        <v>75.82000000000001</v>
       </c>
     </row>
     <row r="327">
@@ -2735,7 +2735,7 @@
         <v>40644.0</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>75.06</v>
+        <v>75.05999999999999</v>
       </c>
     </row>
     <row r="333">
@@ -2751,7 +2751,7 @@
         <v>40646.0</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>74.99</v>
+        <v>74.99000000000001</v>
       </c>
     </row>
     <row r="335">
@@ -2759,7 +2759,7 @@
         <v>40647.0</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>74.71</v>
+        <v>74.71000000000001</v>
       </c>
     </row>
     <row r="336">
@@ -2783,7 +2783,7 @@
         <v>40652.0</v>
       </c>
       <c r="B338" s="2" t="n">
-        <v>75.07</v>
+        <v>75.07000000000001</v>
       </c>
     </row>
     <row r="339">
@@ -2791,7 +2791,7 @@
         <v>40653.0</v>
       </c>
       <c r="B339" s="2" t="n">
-        <v>74.35</v>
+        <v>74.35000000000001</v>
       </c>
     </row>
     <row r="340">
@@ -2927,7 +2927,7 @@
         <v>40676.0</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>75.71</v>
+        <v>75.71000000000001</v>
       </c>
     </row>
     <row r="357">
@@ -2951,7 +2951,7 @@
         <v>40681.0</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>75.37</v>
+        <v>75.36999999999999</v>
       </c>
     </row>
     <row r="360">
@@ -3023,7 +3023,7 @@
         <v>40694.0</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>74.63</v>
+        <v>74.63000000000001</v>
       </c>
     </row>
     <row r="369">
@@ -3079,7 +3079,7 @@
         <v>40703.0</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>74.18</v>
+        <v>74.17999999999999</v>
       </c>
     </row>
     <row r="376">
@@ -3111,7 +3111,7 @@
         <v>40709.0</v>
       </c>
       <c r="B379" s="2" t="n">
-        <v>75.62</v>
+        <v>75.61999999999999</v>
       </c>
     </row>
     <row r="380">
@@ -3127,7 +3127,7 @@
         <v>40711.0</v>
       </c>
       <c r="B381" s="2" t="n">
-        <v>74.99</v>
+        <v>74.99000000000001</v>
       </c>
     </row>
     <row r="382">
@@ -3135,7 +3135,7 @@
         <v>40714.0</v>
       </c>
       <c r="B382" s="2" t="n">
-        <v>75.01</v>
+        <v>75.00999999999999</v>
       </c>
     </row>
     <row r="383">
@@ -3143,7 +3143,7 @@
         <v>40715.0</v>
       </c>
       <c r="B383" s="2" t="n">
-        <v>74.63</v>
+        <v>74.63000000000001</v>
       </c>
     </row>
     <row r="384">
@@ -3151,7 +3151,7 @@
         <v>40716.0</v>
       </c>
       <c r="B384" s="2" t="n">
-        <v>74.94</v>
+        <v>74.94000000000001</v>
       </c>
     </row>
     <row r="385">
@@ -3183,7 +3183,7 @@
         <v>40722.0</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>75.02</v>
+        <v>75.02000000000001</v>
       </c>
     </row>
     <row r="389">
@@ -3207,7 +3207,7 @@
         <v>40725.0</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>74.3</v>
+        <v>74.30000000000001</v>
       </c>
     </row>
     <row r="392">
@@ -3223,7 +3223,7 @@
         <v>40729.0</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>74.65</v>
+        <v>74.64999999999999</v>
       </c>
     </row>
     <row r="394">
@@ -3231,7 +3231,7 @@
         <v>40730.0</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>75.02</v>
+        <v>75.02000000000001</v>
       </c>
     </row>
     <row r="395">
@@ -3271,7 +3271,7 @@
         <v>40737.0</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>74.94</v>
+        <v>74.94000000000001</v>
       </c>
     </row>
     <row r="400">
@@ -3319,7 +3319,7 @@
         <v>40745.0</v>
       </c>
       <c r="B405" s="2" t="n">
-        <v>73.99</v>
+        <v>73.99000000000001</v>
       </c>
     </row>
     <row r="406">
@@ -3399,7 +3399,7 @@
         <v>40759.0</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>75.29</v>
+        <v>75.28999999999999</v>
       </c>
     </row>
     <row r="416">
@@ -3415,7 +3415,7 @@
         <v>40763.0</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>74.9</v>
+        <v>74.89999999999999</v>
       </c>
     </row>
     <row r="418">
@@ -3487,7 +3487,7 @@
         <v>40774.0</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>73.99</v>
+        <v>73.99000000000001</v>
       </c>
     </row>
     <row r="427">
@@ -3519,7 +3519,7 @@
         <v>40780.0</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>74.26</v>
+        <v>74.25999999999999</v>
       </c>
     </row>
     <row r="431">
@@ -3527,7 +3527,7 @@
         <v>40781.0</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>73.71</v>
+        <v>73.71000000000001</v>
       </c>
     </row>
     <row r="432">
@@ -3543,7 +3543,7 @@
         <v>40785.0</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>73.99</v>
+        <v>73.99000000000001</v>
       </c>
     </row>
     <row r="434">
@@ -3599,7 +3599,7 @@
         <v>40794.0</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>76.26</v>
+        <v>76.25999999999999</v>
       </c>
     </row>
     <row r="441">
@@ -3671,7 +3671,7 @@
         <v>40807.0</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>77.71</v>
+        <v>77.71000000000001</v>
       </c>
     </row>
     <row r="450">
@@ -3687,7 +3687,7 @@
         <v>40809.0</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>78.3</v>
+        <v>78.30000000000001</v>
       </c>
     </row>
     <row r="452">
@@ -3759,7 +3759,7 @@
         <v>40822.0</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>78.63</v>
+        <v>78.63000000000001</v>
       </c>
     </row>
     <row r="461">
@@ -3783,7 +3783,7 @@
         <v>40827.0</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>77.62</v>
+        <v>77.61999999999999</v>
       </c>
     </row>
     <row r="464">
@@ -3935,7 +3935,7 @@
         <v>40854.0</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>76.94</v>
+        <v>76.94000000000001</v>
       </c>
     </row>
     <row r="483">
@@ -3943,7 +3943,7 @@
         <v>40855.0</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>76.63</v>
+        <v>76.63000000000001</v>
       </c>
     </row>
     <row r="484">
@@ -3959,7 +3959,7 @@
         <v>40857.0</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>77.63</v>
+        <v>77.63000000000001</v>
       </c>
     </row>
     <row r="486">
@@ -4031,7 +4031,7 @@
         <v>40870.0</v>
       </c>
       <c r="B494" s="2" t="n">
-        <v>79.06</v>
+        <v>79.05999999999999</v>
       </c>
     </row>
     <row r="495">
@@ -4071,7 +4071,7 @@
         <v>40877.0</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>78.34</v>
+        <v>78.33999999999999</v>
       </c>
     </row>
     <row r="500">
@@ -4079,7 +4079,7 @@
         <v>40878.0</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>78.29</v>
+        <v>78.28999999999999</v>
       </c>
     </row>
     <row r="501">
@@ -4159,7 +4159,7 @@
         <v>40892.0</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>80.29</v>
+        <v>80.28999999999999</v>
       </c>
     </row>
     <row r="511">
@@ -4175,7 +4175,7 @@
         <v>40896.0</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>80.37</v>
+        <v>80.36999999999999</v>
       </c>
     </row>
     <row r="513">
@@ -4191,7 +4191,7 @@
         <v>40898.0</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>79.99</v>
+        <v>79.99000000000001</v>
       </c>
     </row>
     <row r="515">
@@ -4207,7 +4207,7 @@
         <v>40900.0</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>79.99</v>
+        <v>79.99000000000001</v>
       </c>
     </row>
     <row r="517">
@@ -4263,7 +4263,7 @@
         <v>40911.0</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>79.65</v>
+        <v>79.64999999999999</v>
       </c>
     </row>
     <row r="524">
@@ -4295,7 +4295,7 @@
         <v>40917.0</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>80.98</v>
+        <v>80.97999999999999</v>
       </c>
     </row>
     <row r="528">
@@ -4311,7 +4311,7 @@
         <v>40919.0</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>81.29</v>
+        <v>81.28999999999999</v>
       </c>
     </row>
     <row r="530">
@@ -4439,7 +4439,7 @@
         <v>40941.0</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>78.99</v>
+        <v>78.99000000000001</v>
       </c>
     </row>
     <row r="546">
@@ -4447,7 +4447,7 @@
         <v>40942.0</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>78.94</v>
+        <v>78.94000000000001</v>
       </c>
     </row>
     <row r="547">
@@ -4487,7 +4487,7 @@
         <v>40949.0</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>79.02</v>
+        <v>79.02000000000001</v>
       </c>
     </row>
     <row r="552">
@@ -4495,7 +4495,7 @@
         <v>40952.0</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>79.01</v>
+        <v>79.00999999999999</v>
       </c>
     </row>
     <row r="553">
@@ -4519,7 +4519,7 @@
         <v>40955.0</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>79.37</v>
+        <v>79.36999999999999</v>
       </c>
     </row>
     <row r="556">
@@ -4535,7 +4535,7 @@
         <v>40959.0</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>78.99</v>
+        <v>78.99000000000001</v>
       </c>
     </row>
     <row r="558">
@@ -4543,7 +4543,7 @@
         <v>40960.0</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>79.1</v>
+        <v>79.10000000000001</v>
       </c>
     </row>
     <row r="559">
@@ -4559,7 +4559,7 @@
         <v>40962.0</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>78.65</v>
+        <v>78.64999999999999</v>
       </c>
     </row>
     <row r="561">
@@ -4615,7 +4615,7 @@
         <v>40973.0</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>79.35</v>
+        <v>79.35000000000001</v>
       </c>
     </row>
     <row r="568">
@@ -4703,7 +4703,7 @@
         <v>40988.0</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>79.62</v>
+        <v>79.61999999999999</v>
       </c>
     </row>
     <row r="579">
@@ -4855,7 +4855,7 @@
         <v>41015.0</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>79.54</v>
+        <v>79.53999999999999</v>
       </c>
     </row>
     <row r="598">
@@ -4927,7 +4927,7 @@
         <v>41026.0</v>
       </c>
       <c r="B606" s="2" t="n">
-        <v>78.71</v>
+        <v>78.71000000000001</v>
       </c>
     </row>
     <row r="607">
@@ -5007,7 +5007,7 @@
         <v>41040.0</v>
       </c>
       <c r="B616" s="2" t="n">
-        <v>80.26</v>
+        <v>80.25999999999999</v>
       </c>
     </row>
     <row r="617">
@@ -5063,7 +5063,7 @@
         <v>41051.0</v>
       </c>
       <c r="B623" s="2" t="n">
-        <v>81.65</v>
+        <v>81.64999999999999</v>
       </c>
     </row>
     <row r="624">
@@ -5111,7 +5111,7 @@
         <v>41059.0</v>
       </c>
       <c r="B629" s="2" t="n">
-        <v>83.07</v>
+        <v>83.07000000000001</v>
       </c>
     </row>
     <row r="630">
@@ -5151,7 +5151,7 @@
         <v>41066.0</v>
       </c>
       <c r="B634" s="2" t="n">
-        <v>82.18</v>
+        <v>82.17999999999999</v>
       </c>
     </row>
     <row r="635">
@@ -5159,7 +5159,7 @@
         <v>41067.0</v>
       </c>
       <c r="B635" s="2" t="n">
-        <v>82.26</v>
+        <v>82.25999999999999</v>
       </c>
     </row>
     <row r="636">
@@ -5239,7 +5239,7 @@
         <v>41081.0</v>
       </c>
       <c r="B645" s="2" t="n">
-        <v>82.3</v>
+        <v>82.30000000000001</v>
       </c>
     </row>
     <row r="646">
@@ -5359,7 +5359,7 @@
         <v>41102.0</v>
       </c>
       <c r="B660" s="2" t="n">
-        <v>83.63</v>
+        <v>83.63000000000001</v>
       </c>
     </row>
     <row r="661">
@@ -5367,7 +5367,7 @@
         <v>41103.0</v>
       </c>
       <c r="B661" s="2" t="n">
-        <v>83.29</v>
+        <v>83.28999999999999</v>
       </c>
     </row>
     <row r="662">
@@ -5391,7 +5391,7 @@
         <v>41108.0</v>
       </c>
       <c r="B664" s="2" t="n">
-        <v>82.98</v>
+        <v>82.97999999999999</v>
       </c>
     </row>
     <row r="665">
@@ -5471,7 +5471,7 @@
         <v>41122.0</v>
       </c>
       <c r="B674" s="2" t="n">
-        <v>83.1</v>
+        <v>83.10000000000001</v>
       </c>
     </row>
     <row r="675">
@@ -5511,7 +5511,7 @@
         <v>41129.0</v>
       </c>
       <c r="B679" s="2" t="n">
-        <v>82.34</v>
+        <v>82.33999999999999</v>
       </c>
     </row>
     <row r="680">
@@ -5599,7 +5599,7 @@
         <v>41144.0</v>
       </c>
       <c r="B690" s="2" t="n">
-        <v>81.37</v>
+        <v>81.36999999999999</v>
       </c>
     </row>
     <row r="691">
@@ -5607,7 +5607,7 @@
         <v>41145.0</v>
       </c>
       <c r="B691" s="2" t="n">
-        <v>81.62</v>
+        <v>81.61999999999999</v>
       </c>
     </row>
     <row r="692">
@@ -5631,7 +5631,7 @@
         <v>41150.0</v>
       </c>
       <c r="B694" s="2" t="n">
-        <v>81.54</v>
+        <v>81.53999999999999</v>
       </c>
     </row>
     <row r="695">
@@ -5767,7 +5767,7 @@
         <v>41173.0</v>
       </c>
       <c r="B711" s="2" t="n">
-        <v>79.37</v>
+        <v>79.36999999999999</v>
       </c>
     </row>
     <row r="712">
@@ -5783,7 +5783,7 @@
         <v>41177.0</v>
       </c>
       <c r="B713" s="2" t="n">
-        <v>79.65</v>
+        <v>79.64999999999999</v>
       </c>
     </row>
     <row r="714">
@@ -5791,7 +5791,7 @@
         <v>41178.0</v>
       </c>
       <c r="B714" s="2" t="n">
-        <v>79.82</v>
+        <v>79.82000000000001</v>
       </c>
     </row>
     <row r="715">
@@ -5839,7 +5839,7 @@
         <v>41186.0</v>
       </c>
       <c r="B720" s="2" t="n">
-        <v>79.35</v>
+        <v>79.35000000000001</v>
       </c>
     </row>
     <row r="721">
@@ -5887,7 +5887,7 @@
         <v>41194.0</v>
       </c>
       <c r="B726" s="2" t="n">
-        <v>79.7</v>
+        <v>79.69999999999999</v>
       </c>
     </row>
     <row r="727">
@@ -5895,7 +5895,7 @@
         <v>41197.0</v>
       </c>
       <c r="B727" s="2" t="n">
-        <v>79.74</v>
+        <v>79.74000000000001</v>
       </c>
     </row>
     <row r="728">
@@ -5911,7 +5911,7 @@
         <v>41199.0</v>
       </c>
       <c r="B729" s="2" t="n">
-        <v>79.06</v>
+        <v>79.05999999999999</v>
       </c>
     </row>
     <row r="730">
@@ -5927,7 +5927,7 @@
         <v>41201.0</v>
       </c>
       <c r="B731" s="2" t="n">
-        <v>79.63</v>
+        <v>79.63000000000001</v>
       </c>
     </row>
     <row r="732">
@@ -5967,7 +5967,7 @@
         <v>41208.0</v>
       </c>
       <c r="B736" s="2" t="n">
-        <v>80.01</v>
+        <v>80.00999999999999</v>
       </c>
     </row>
     <row r="737">
@@ -5983,7 +5983,7 @@
         <v>41212.0</v>
       </c>
       <c r="B738" s="2" t="n">
-        <v>79.93</v>
+        <v>79.92999999999999</v>
       </c>
     </row>
     <row r="739">
@@ -6015,7 +6015,7 @@
         <v>41218.0</v>
       </c>
       <c r="B742" s="2" t="n">
-        <v>80.71</v>
+        <v>80.71000000000001</v>
       </c>
     </row>
     <row r="743">
@@ -6055,7 +6055,7 @@
         <v>41225.0</v>
       </c>
       <c r="B747" s="2" t="n">
-        <v>81.06</v>
+        <v>81.05999999999999</v>
       </c>
     </row>
     <row r="748">
@@ -6063,7 +6063,7 @@
         <v>41226.0</v>
       </c>
       <c r="B748" s="2" t="n">
-        <v>81.1</v>
+        <v>81.10000000000001</v>
       </c>
     </row>
     <row r="749">
@@ -6135,7 +6135,7 @@
         <v>41239.0</v>
       </c>
       <c r="B757" s="2" t="n">
-        <v>80.18</v>
+        <v>80.17999999999999</v>
       </c>
     </row>
     <row r="758">
@@ -6151,7 +6151,7 @@
         <v>41241.0</v>
       </c>
       <c r="B759" s="2" t="n">
-        <v>80.3</v>
+        <v>80.30000000000001</v>
       </c>
     </row>
     <row r="760">
@@ -6159,7 +6159,7 @@
         <v>41242.0</v>
       </c>
       <c r="B760" s="2" t="n">
-        <v>80.18</v>
+        <v>80.17999999999999</v>
       </c>
     </row>
     <row r="761">
@@ -6183,7 +6183,7 @@
         <v>41247.0</v>
       </c>
       <c r="B763" s="2" t="n">
-        <v>79.66</v>
+        <v>79.66000000000001</v>
       </c>
     </row>
     <row r="764">
@@ -6271,7 +6271,7 @@
         <v>41262.0</v>
       </c>
       <c r="B774" s="2" t="n">
-        <v>79.35</v>
+        <v>79.35000000000001</v>
       </c>
     </row>
     <row r="775">
@@ -6295,7 +6295,7 @@
         <v>41267.0</v>
       </c>
       <c r="B777" s="2" t="n">
-        <v>79.66</v>
+        <v>79.66000000000001</v>
       </c>
     </row>
     <row r="778">
@@ -6319,7 +6319,7 @@
         <v>41270.0</v>
       </c>
       <c r="B780" s="2" t="n">
-        <v>79.65</v>
+        <v>79.64999999999999</v>
       </c>
     </row>
     <row r="781">
@@ -6343,7 +6343,7 @@
         <v>41276.0</v>
       </c>
       <c r="B783" s="2" t="n">
-        <v>79.82</v>
+        <v>79.82000000000001</v>
       </c>
     </row>
     <row r="784">
@@ -6375,7 +6375,7 @@
         <v>41282.0</v>
       </c>
       <c r="B787" s="2" t="n">
-        <v>80.34</v>
+        <v>80.33999999999999</v>
       </c>
     </row>
     <row r="788">
@@ -6583,7 +6583,7 @@
         <v>41318.0</v>
       </c>
       <c r="B813" s="2" t="n">
-        <v>80.07</v>
+        <v>80.07000000000001</v>
       </c>
     </row>
     <row r="814">
@@ -6591,7 +6591,7 @@
         <v>41319.0</v>
       </c>
       <c r="B814" s="2" t="n">
-        <v>80.37</v>
+        <v>80.36999999999999</v>
       </c>
     </row>
     <row r="815">
@@ -6599,7 +6599,7 @@
         <v>41320.0</v>
       </c>
       <c r="B815" s="2" t="n">
-        <v>80.46</v>
+        <v>80.46000000000001</v>
       </c>
     </row>
     <row r="816">
@@ -6607,7 +6607,7 @@
         <v>41323.0</v>
       </c>
       <c r="B816" s="2" t="n">
-        <v>80.65</v>
+        <v>80.64999999999999</v>
       </c>
     </row>
     <row r="817">
@@ -6631,7 +6631,7 @@
         <v>41326.0</v>
       </c>
       <c r="B819" s="2" t="n">
-        <v>81.37</v>
+        <v>81.36999999999999</v>
       </c>
     </row>
     <row r="820">
@@ -6663,7 +6663,7 @@
         <v>41332.0</v>
       </c>
       <c r="B823" s="2" t="n">
-        <v>81.54</v>
+        <v>81.53999999999999</v>
       </c>
     </row>
     <row r="824">
@@ -6687,7 +6687,7 @@
         <v>41337.0</v>
       </c>
       <c r="B826" s="2" t="n">
-        <v>82.18</v>
+        <v>82.17999999999999</v>
       </c>
     </row>
     <row r="827">
@@ -6743,7 +6743,7 @@
         <v>41346.0</v>
       </c>
       <c r="B833" s="2" t="n">
-        <v>82.9</v>
+        <v>82.89999999999999</v>
       </c>
     </row>
     <row r="834">
@@ -6799,7 +6799,7 @@
         <v>41355.0</v>
       </c>
       <c r="B840" s="2" t="n">
-        <v>82.37</v>
+        <v>82.36999999999999</v>
       </c>
     </row>
     <row r="841">
@@ -6807,7 +6807,7 @@
         <v>41358.0</v>
       </c>
       <c r="B841" s="2" t="n">
-        <v>82.93</v>
+        <v>82.92999999999999</v>
       </c>
     </row>
     <row r="842">
@@ -6839,7 +6839,7 @@
         <v>41362.0</v>
       </c>
       <c r="B845" s="2" t="n">
-        <v>82.99</v>
+        <v>82.99000000000001</v>
       </c>
     </row>
     <row r="846">
@@ -6887,7 +6887,7 @@
         <v>41372.0</v>
       </c>
       <c r="B851" s="2" t="n">
-        <v>82.71</v>
+        <v>82.71000000000001</v>
       </c>
     </row>
     <row r="852">
@@ -6927,7 +6927,7 @@
         <v>41379.0</v>
       </c>
       <c r="B856" s="2" t="n">
-        <v>82.3</v>
+        <v>82.30000000000001</v>
       </c>
     </row>
     <row r="857">
@@ -6943,7 +6943,7 @@
         <v>41381.0</v>
       </c>
       <c r="B858" s="2" t="n">
-        <v>82.65</v>
+        <v>82.64999999999999</v>
       </c>
     </row>
     <row r="859">
@@ -6967,7 +6967,7 @@
         <v>41386.0</v>
       </c>
       <c r="B861" s="2" t="n">
-        <v>82.65</v>
+        <v>82.64999999999999</v>
       </c>
     </row>
     <row r="862">
@@ -7023,7 +7023,7 @@
         <v>41395.0</v>
       </c>
       <c r="B868" s="2" t="n">
-        <v>81.62</v>
+        <v>81.61999999999999</v>
       </c>
     </row>
     <row r="869">
@@ -7079,7 +7079,7 @@
         <v>41404.0</v>
       </c>
       <c r="B875" s="2" t="n">
-        <v>83.1</v>
+        <v>83.10000000000001</v>
       </c>
     </row>
     <row r="876">
@@ -7095,7 +7095,7 @@
         <v>41408.0</v>
       </c>
       <c r="B877" s="2" t="n">
-        <v>83.62</v>
+        <v>83.61999999999999</v>
       </c>
     </row>
     <row r="878">
@@ -7111,7 +7111,7 @@
         <v>41410.0</v>
       </c>
       <c r="B879" s="2" t="n">
-        <v>83.74</v>
+        <v>83.74000000000001</v>
       </c>
     </row>
     <row r="880">
@@ -7127,7 +7127,7 @@
         <v>41414.0</v>
       </c>
       <c r="B881" s="2" t="n">
-        <v>83.82</v>
+        <v>83.82000000000001</v>
       </c>
     </row>
     <row r="882">
@@ -7143,7 +7143,7 @@
         <v>41416.0</v>
       </c>
       <c r="B883" s="2" t="n">
-        <v>84.29</v>
+        <v>84.28999999999999</v>
       </c>
     </row>
     <row r="884">
@@ -7159,7 +7159,7 @@
         <v>41418.0</v>
       </c>
       <c r="B885" s="2" t="n">
-        <v>83.65</v>
+        <v>83.64999999999999</v>
       </c>
     </row>
     <row r="886">
@@ -7175,7 +7175,7 @@
         <v>41422.0</v>
       </c>
       <c r="B887" s="2" t="n">
-        <v>84.26</v>
+        <v>84.25999999999999</v>
       </c>
     </row>
     <row r="888">
@@ -7183,7 +7183,7 @@
         <v>41423.0</v>
       </c>
       <c r="B888" s="2" t="n">
-        <v>83.62</v>
+        <v>83.61999999999999</v>
       </c>
     </row>
     <row r="889">
@@ -7231,7 +7231,7 @@
         <v>41431.0</v>
       </c>
       <c r="B894" s="2" t="n">
-        <v>81.62</v>
+        <v>81.61999999999999</v>
       </c>
     </row>
     <row r="895">
@@ -7247,7 +7247,7 @@
         <v>41435.0</v>
       </c>
       <c r="B896" s="2" t="n">
-        <v>81.7</v>
+        <v>81.69999999999999</v>
       </c>
     </row>
     <row r="897">
@@ -7255,7 +7255,7 @@
         <v>41436.0</v>
       </c>
       <c r="B897" s="2" t="n">
-        <v>81.07</v>
+        <v>81.07000000000001</v>
       </c>
     </row>
     <row r="898">
@@ -7263,7 +7263,7 @@
         <v>41437.0</v>
       </c>
       <c r="B898" s="2" t="n">
-        <v>80.93</v>
+        <v>80.92999999999999</v>
       </c>
     </row>
     <row r="899">
@@ -7287,7 +7287,7 @@
         <v>41442.0</v>
       </c>
       <c r="B901" s="2" t="n">
-        <v>80.65</v>
+        <v>80.64999999999999</v>
       </c>
     </row>
     <row r="902">
@@ -7367,7 +7367,7 @@
         <v>41456.0</v>
       </c>
       <c r="B911" s="2" t="n">
-        <v>83.02</v>
+        <v>83.02000000000001</v>
       </c>
     </row>
     <row r="912">
@@ -7439,7 +7439,7 @@
         <v>41467.0</v>
       </c>
       <c r="B920" s="2" t="n">
-        <v>82.93</v>
+        <v>82.92999999999999</v>
       </c>
     </row>
     <row r="921">
@@ -7463,7 +7463,7 @@
         <v>41472.0</v>
       </c>
       <c r="B923" s="2" t="n">
-        <v>82.65</v>
+        <v>82.64999999999999</v>
       </c>
     </row>
     <row r="924">
@@ -7495,7 +7495,7 @@
         <v>41478.0</v>
       </c>
       <c r="B927" s="2" t="n">
-        <v>82.01</v>
+        <v>82.00999999999999</v>
       </c>
     </row>
     <row r="928">
@@ -7519,7 +7519,7 @@
         <v>41481.0</v>
       </c>
       <c r="B930" s="2" t="n">
-        <v>81.65</v>
+        <v>81.64999999999999</v>
       </c>
     </row>
     <row r="931">
@@ -7527,7 +7527,7 @@
         <v>41484.0</v>
       </c>
       <c r="B931" s="2" t="n">
-        <v>81.71</v>
+        <v>81.71000000000001</v>
       </c>
     </row>
     <row r="932">
@@ -7575,7 +7575,7 @@
         <v>41492.0</v>
       </c>
       <c r="B937" s="2" t="n">
-        <v>81.62</v>
+        <v>81.61999999999999</v>
       </c>
     </row>
     <row r="938">
@@ -7591,7 +7591,7 @@
         <v>41494.0</v>
       </c>
       <c r="B939" s="2" t="n">
-        <v>81.02</v>
+        <v>81.02000000000001</v>
       </c>
     </row>
     <row r="940">
@@ -7623,7 +7623,7 @@
         <v>41500.0</v>
       </c>
       <c r="B943" s="2" t="n">
-        <v>81.71</v>
+        <v>81.71000000000001</v>
       </c>
     </row>
     <row r="944">
@@ -7639,7 +7639,7 @@
         <v>41502.0</v>
       </c>
       <c r="B945" s="2" t="n">
-        <v>81.29</v>
+        <v>81.28999999999999</v>
       </c>
     </row>
     <row r="946">
@@ -7655,7 +7655,7 @@
         <v>41506.0</v>
       </c>
       <c r="B947" s="2" t="n">
-        <v>80.94</v>
+        <v>80.94000000000001</v>
       </c>
     </row>
     <row r="948">
@@ -7743,7 +7743,7 @@
         <v>41521.0</v>
       </c>
       <c r="B958" s="2" t="n">
-        <v>82.18</v>
+        <v>82.17999999999999</v>
       </c>
     </row>
     <row r="959">
@@ -7831,7 +7831,7 @@
         <v>41536.0</v>
       </c>
       <c r="B969" s="2" t="n">
-        <v>80.38</v>
+        <v>80.38000000000001</v>
       </c>
     </row>
     <row r="970">
@@ -7847,7 +7847,7 @@
         <v>41540.0</v>
       </c>
       <c r="B971" s="2" t="n">
-        <v>80.46</v>
+        <v>80.46000000000001</v>
       </c>
     </row>
     <row r="972">
@@ -7863,7 +7863,7 @@
         <v>41542.0</v>
       </c>
       <c r="B973" s="2" t="n">
-        <v>80.34</v>
+        <v>80.33999999999999</v>
       </c>
     </row>
     <row r="974">
@@ -7927,7 +7927,7 @@
         <v>41554.0</v>
       </c>
       <c r="B981" s="2" t="n">
-        <v>79.93</v>
+        <v>79.92999999999999</v>
       </c>
     </row>
     <row r="982">
@@ -7935,7 +7935,7 @@
         <v>41555.0</v>
       </c>
       <c r="B982" s="2" t="n">
-        <v>80.01</v>
+        <v>80.00999999999999</v>
       </c>
     </row>
     <row r="983">
@@ -7943,7 +7943,7 @@
         <v>41556.0</v>
       </c>
       <c r="B983" s="2" t="n">
-        <v>80.37</v>
+        <v>80.36999999999999</v>
       </c>
     </row>
     <row r="984">
@@ -7967,7 +7967,7 @@
         <v>41561.0</v>
       </c>
       <c r="B986" s="2" t="n">
-        <v>80.34</v>
+        <v>80.33999999999999</v>
       </c>
     </row>
     <row r="987">
@@ -7983,7 +7983,7 @@
         <v>41563.0</v>
       </c>
       <c r="B988" s="2" t="n">
-        <v>80.46</v>
+        <v>80.46000000000001</v>
       </c>
     </row>
     <row r="989">
@@ -7991,7 +7991,7 @@
         <v>41564.0</v>
       </c>
       <c r="B989" s="2" t="n">
-        <v>79.66</v>
+        <v>79.66000000000001</v>
       </c>
     </row>
     <row r="990">
@@ -8007,7 +8007,7 @@
         <v>41568.0</v>
       </c>
       <c r="B991" s="2" t="n">
-        <v>79.7</v>
+        <v>79.69999999999999</v>
       </c>
     </row>
     <row r="992">
@@ -8055,7 +8055,7 @@
         <v>41576.0</v>
       </c>
       <c r="B997" s="2" t="n">
-        <v>79.62</v>
+        <v>79.61999999999999</v>
       </c>
     </row>
     <row r="998">
@@ -8063,7 +8063,7 @@
         <v>41577.0</v>
       </c>
       <c r="B998" s="2" t="n">
-        <v>79.7</v>
+        <v>79.69999999999999</v>
       </c>
     </row>
     <row r="999">
@@ -8151,7 +8151,7 @@
         <v>41592.0</v>
       </c>
       <c r="B1009" s="2" t="n">
-        <v>80.99</v>
+        <v>80.99000000000001</v>
       </c>
     </row>
     <row r="1010">
@@ -8191,7 +8191,7 @@
         <v>41599.0</v>
       </c>
       <c r="B1014" s="2" t="n">
-        <v>80.98</v>
+        <v>80.97999999999999</v>
       </c>
     </row>
     <row r="1015">
@@ -8247,7 +8247,7 @@
         <v>41610.0</v>
       </c>
       <c r="B1021" s="2" t="n">
-        <v>80.9</v>
+        <v>80.89999999999999</v>
       </c>
     </row>
     <row r="1022">
@@ -8271,7 +8271,7 @@
         <v>41613.0</v>
       </c>
       <c r="B1024" s="2" t="n">
-        <v>80.29</v>
+        <v>80.28999999999999</v>
       </c>
     </row>
     <row r="1025">
@@ -8279,7 +8279,7 @@
         <v>41614.0</v>
       </c>
       <c r="B1025" s="2" t="n">
-        <v>80.26</v>
+        <v>80.25999999999999</v>
       </c>
     </row>
     <row r="1026">
@@ -8311,7 +8311,7 @@
         <v>41620.0</v>
       </c>
       <c r="B1029" s="2" t="n">
-        <v>80.18</v>
+        <v>80.17999999999999</v>
       </c>
     </row>
     <row r="1030">
@@ -8455,7 +8455,7 @@
         <v>41647.0</v>
       </c>
       <c r="B1047" s="2" t="n">
-        <v>81.07</v>
+        <v>81.07000000000001</v>
       </c>
     </row>
     <row r="1048">
@@ -8463,7 +8463,7 @@
         <v>41648.0</v>
       </c>
       <c r="B1048" s="2" t="n">
-        <v>80.94</v>
+        <v>80.94000000000001</v>
       </c>
     </row>
     <row r="1049">
@@ -8471,7 +8471,7 @@
         <v>41649.0</v>
       </c>
       <c r="B1049" s="2" t="n">
-        <v>80.63</v>
+        <v>80.63000000000001</v>
       </c>
     </row>
     <row r="1050">
@@ -8495,7 +8495,7 @@
         <v>41654.0</v>
       </c>
       <c r="B1052" s="2" t="n">
-        <v>80.99</v>
+        <v>80.99000000000001</v>
       </c>
     </row>
     <row r="1053">
@@ -8615,7 +8615,7 @@
         <v>41675.0</v>
       </c>
       <c r="B1067" s="2" t="n">
-        <v>81.06</v>
+        <v>81.05999999999999</v>
       </c>
     </row>
     <row r="1068">
@@ -8623,7 +8623,7 @@
         <v>41676.0</v>
       </c>
       <c r="B1068" s="2" t="n">
-        <v>80.9</v>
+        <v>80.89999999999999</v>
       </c>
     </row>
     <row r="1069">
@@ -8639,7 +8639,7 @@
         <v>41680.0</v>
       </c>
       <c r="B1070" s="2" t="n">
-        <v>80.65</v>
+        <v>80.64999999999999</v>
       </c>
     </row>
     <row r="1071">
@@ -8647,7 +8647,7 @@
         <v>41681.0</v>
       </c>
       <c r="B1071" s="2" t="n">
-        <v>80.63</v>
+        <v>80.63000000000001</v>
       </c>
     </row>
     <row r="1072">
@@ -8663,7 +8663,7 @@
         <v>41683.0</v>
       </c>
       <c r="B1073" s="2" t="n">
-        <v>80.3</v>
+        <v>80.30000000000001</v>
       </c>
     </row>
     <row r="1074">
@@ -8687,7 +8687,7 @@
         <v>41688.0</v>
       </c>
       <c r="B1076" s="2" t="n">
-        <v>80.01</v>
+        <v>80.00999999999999</v>
       </c>
     </row>
     <row r="1077">
@@ -8759,7 +8759,7 @@
         <v>41701.0</v>
       </c>
       <c r="B1085" s="2" t="n">
-        <v>80.07</v>
+        <v>80.07000000000001</v>
       </c>
     </row>
     <row r="1086">
@@ -8791,7 +8791,7 @@
         <v>41705.0</v>
       </c>
       <c r="B1089" s="2" t="n">
-        <v>79.71</v>
+        <v>79.71000000000001</v>
       </c>
     </row>
     <row r="1090">
@@ -8799,7 +8799,7 @@
         <v>41708.0</v>
       </c>
       <c r="B1090" s="2" t="n">
-        <v>79.74</v>
+        <v>79.74000000000001</v>
       </c>
     </row>
     <row r="1091">
@@ -8815,7 +8815,7 @@
         <v>41710.0</v>
       </c>
       <c r="B1092" s="2" t="n">
-        <v>79.62</v>
+        <v>79.61999999999999</v>
       </c>
     </row>
     <row r="1093">
@@ -8847,7 +8847,7 @@
         <v>41716.0</v>
       </c>
       <c r="B1096" s="2" t="n">
-        <v>79.37</v>
+        <v>79.36999999999999</v>
       </c>
     </row>
     <row r="1097">
@@ -8943,7 +8943,7 @@
         <v>41732.0</v>
       </c>
       <c r="B1108" s="2" t="n">
-        <v>80.46</v>
+        <v>80.46000000000001</v>
       </c>
     </row>
     <row r="1109">
@@ -9015,7 +9015,7 @@
         <v>41745.0</v>
       </c>
       <c r="B1117" s="2" t="n">
-        <v>79.82</v>
+        <v>79.82000000000001</v>
       </c>
     </row>
     <row r="1118">
@@ -9079,7 +9079,7 @@
         <v>41757.0</v>
       </c>
       <c r="B1125" s="2" t="n">
-        <v>79.71</v>
+        <v>79.71000000000001</v>
       </c>
     </row>
     <row r="1126">
@@ -9231,7 +9231,7 @@
         <v>41782.0</v>
       </c>
       <c r="B1144" s="2" t="n">
-        <v>80.38</v>
+        <v>80.38000000000001</v>
       </c>
     </row>
     <row r="1145">
@@ -9239,7 +9239,7 @@
         <v>41785.0</v>
       </c>
       <c r="B1145" s="2" t="n">
-        <v>80.29</v>
+        <v>80.28999999999999</v>
       </c>
     </row>
     <row r="1146">
@@ -9247,7 +9247,7 @@
         <v>41786.0</v>
       </c>
       <c r="B1146" s="2" t="n">
-        <v>80.37</v>
+        <v>80.36999999999999</v>
       </c>
     </row>
     <row r="1147">
@@ -9279,7 +9279,7 @@
         <v>41792.0</v>
       </c>
       <c r="B1150" s="2" t="n">
-        <v>80.63</v>
+        <v>80.63000000000001</v>
       </c>
     </row>
     <row r="1151">
@@ -9303,7 +9303,7 @@
         <v>41795.0</v>
       </c>
       <c r="B1153" s="2" t="n">
-        <v>80.35</v>
+        <v>80.35000000000001</v>
       </c>
     </row>
     <row r="1154">
@@ -9319,7 +9319,7 @@
         <v>41799.0</v>
       </c>
       <c r="B1155" s="2" t="n">
-        <v>80.63</v>
+        <v>80.63000000000001</v>
       </c>
     </row>
     <row r="1156">
@@ -9391,7 +9391,7 @@
         <v>41810.0</v>
       </c>
       <c r="B1164" s="2" t="n">
-        <v>80.34</v>
+        <v>80.33999999999999</v>
       </c>
     </row>
     <row r="1165">
@@ -9447,7 +9447,7 @@
         <v>41821.0</v>
       </c>
       <c r="B1171" s="2" t="n">
-        <v>79.82</v>
+        <v>79.82000000000001</v>
       </c>
     </row>
     <row r="1172">
@@ -9487,7 +9487,7 @@
         <v>41828.0</v>
       </c>
       <c r="B1176" s="2" t="n">
-        <v>80.18</v>
+        <v>80.17999999999999</v>
       </c>
     </row>
     <row r="1177">
@@ -9527,7 +9527,7 @@
         <v>41835.0</v>
       </c>
       <c r="B1181" s="2" t="n">
-        <v>80.38</v>
+        <v>80.38000000000001</v>
       </c>
     </row>
     <row r="1182">
@@ -9647,7 +9647,7 @@
         <v>41856.0</v>
       </c>
       <c r="B1196" s="2" t="n">
-        <v>81.54</v>
+        <v>81.53999999999999</v>
       </c>
     </row>
     <row r="1197">
@@ -9775,7 +9775,7 @@
         <v>41878.0</v>
       </c>
       <c r="B1212" s="2" t="n">
-        <v>82.46</v>
+        <v>82.46000000000001</v>
       </c>
     </row>
     <row r="1213">
@@ -9919,7 +9919,7 @@
         <v>41904.0</v>
       </c>
       <c r="B1230" s="2" t="n">
-        <v>84.71</v>
+        <v>84.71000000000001</v>
       </c>
     </row>
     <row r="1231">
@@ -9935,7 +9935,7 @@
         <v>41906.0</v>
       </c>
       <c r="B1232" s="2" t="n">
-        <v>85.07</v>
+        <v>85.07000000000001</v>
       </c>
     </row>
     <row r="1233">
@@ -9959,7 +9959,7 @@
         <v>41911.0</v>
       </c>
       <c r="B1235" s="2" t="n">
-        <v>85.62</v>
+        <v>85.61999999999999</v>
       </c>
     </row>
     <row r="1236">
@@ -9991,7 +9991,7 @@
         <v>41915.0</v>
       </c>
       <c r="B1239" s="2" t="n">
-        <v>86.65</v>
+        <v>86.64999999999999</v>
       </c>
     </row>
     <row r="1240">
@@ -10007,7 +10007,7 @@
         <v>41919.0</v>
       </c>
       <c r="B1241" s="2" t="n">
-        <v>85.66</v>
+        <v>85.66000000000001</v>
       </c>
     </row>
     <row r="1242">
@@ -10023,7 +10023,7 @@
         <v>41921.0</v>
       </c>
       <c r="B1243" s="2" t="n">
-        <v>85.54</v>
+        <v>85.53999999999999</v>
       </c>
     </row>
     <row r="1244">
@@ -10135,7 +10135,7 @@
         <v>41941.0</v>
       </c>
       <c r="B1257" s="2" t="n">
-        <v>85.99</v>
+        <v>85.99000000000001</v>
       </c>
     </row>
     <row r="1258">
@@ -10255,7 +10255,7 @@
         <v>41962.0</v>
       </c>
       <c r="B1272" s="2" t="n">
-        <v>87.62</v>
+        <v>87.61999999999999</v>
       </c>
     </row>
     <row r="1273">
@@ -10271,7 +10271,7 @@
         <v>41964.0</v>
       </c>
       <c r="B1274" s="2" t="n">
-        <v>88.29</v>
+        <v>88.28999999999999</v>
       </c>
     </row>
     <row r="1275">
@@ -10319,7 +10319,7 @@
         <v>41974.0</v>
       </c>
       <c r="B1280" s="2" t="n">
-        <v>88.01</v>
+        <v>88.00999999999999</v>
       </c>
     </row>
     <row r="1281">
@@ -10343,7 +10343,7 @@
         <v>41977.0</v>
       </c>
       <c r="B1283" s="2" t="n">
-        <v>88.65</v>
+        <v>88.64999999999999</v>
       </c>
     </row>
     <row r="1284">
@@ -10351,7 +10351,7 @@
         <v>41978.0</v>
       </c>
       <c r="B1284" s="2" t="n">
-        <v>89.35</v>
+        <v>89.35000000000001</v>
       </c>
     </row>
     <row r="1285">
@@ -10383,7 +10383,7 @@
         <v>41984.0</v>
       </c>
       <c r="B1288" s="2" t="n">
-        <v>88.46</v>
+        <v>88.46000000000001</v>
       </c>
     </row>
     <row r="1289">
@@ -10631,7 +10631,7 @@
         <v>42030.0</v>
       </c>
       <c r="B1319" s="2" t="n">
-        <v>94.952</v>
+        <v>94.95199999999998</v>
       </c>
     </row>
     <row r="1320">
@@ -10671,7 +10671,7 @@
         <v>42037.0</v>
       </c>
       <c r="B1324" s="2" t="n">
-        <v>94.59</v>
+        <v>94.58999999999999</v>
       </c>
     </row>
     <row r="1325">
@@ -10679,7 +10679,7 @@
         <v>42038.0</v>
       </c>
       <c r="B1325" s="2" t="n">
-        <v>93.63</v>
+        <v>93.63000000000001</v>
       </c>
     </row>
     <row r="1326">
@@ -10695,7 +10695,7 @@
         <v>42040.0</v>
       </c>
       <c r="B1327" s="2" t="n">
-        <v>93.54</v>
+        <v>93.53999999999999</v>
       </c>
     </row>
     <row r="1328">
@@ -10703,7 +10703,7 @@
         <v>42041.0</v>
       </c>
       <c r="B1328" s="2" t="n">
-        <v>94.69</v>
+        <v>94.69000000000001</v>
       </c>
     </row>
     <row r="1329">
@@ -10719,7 +10719,7 @@
         <v>42045.0</v>
       </c>
       <c r="B1330" s="2" t="n">
-        <v>94.7304</v>
+        <v>94.73039999999999</v>
       </c>
     </row>
     <row r="1331">
@@ -10759,7 +10759,7 @@
         <v>42052.0</v>
       </c>
       <c r="B1335" s="2" t="n">
-        <v>94.0935</v>
+        <v>94.09349999999999</v>
       </c>
     </row>
     <row r="1336">
@@ -10823,7 +10823,7 @@
         <v>42062.0</v>
       </c>
       <c r="B1343" s="2" t="n">
-        <v>95.25</v>
+        <v>95.25000000000001</v>
       </c>
     </row>
     <row r="1344">
@@ -10839,7 +10839,7 @@
         <v>42066.0</v>
       </c>
       <c r="B1345" s="2" t="n">
-        <v>95.41</v>
+        <v>95.41000000000001</v>
       </c>
     </row>
     <row r="1346">
@@ -10847,7 +10847,7 @@
         <v>42067.0</v>
       </c>
       <c r="B1346" s="2" t="n">
-        <v>95.9405</v>
+        <v>95.94049999999999</v>
       </c>
     </row>
     <row r="1347">
@@ -10855,7 +10855,7 @@
         <v>42068.0</v>
       </c>
       <c r="B1347" s="2" t="n">
-        <v>96.3528</v>
+        <v>96.35279999999999</v>
       </c>
     </row>
     <row r="1348">
@@ -10895,7 +10895,7 @@
         <v>42075.0</v>
       </c>
       <c r="B1352" s="2" t="n">
-        <v>99.2242</v>
+        <v>99.22420000000001</v>
       </c>
     </row>
     <row r="1353">
@@ -10959,7 +10959,7 @@
         <v>42087.0</v>
       </c>
       <c r="B1360" s="2" t="n">
-        <v>97.2054</v>
+        <v>97.20540000000001</v>
       </c>
     </row>
     <row r="1361">
@@ -10983,7 +10983,7 @@
         <v>42090.0</v>
       </c>
       <c r="B1363" s="2" t="n">
-        <v>97.358</v>
+        <v>97.35799999999999</v>
       </c>
     </row>
     <row r="1364">
@@ -10991,7 +10991,7 @@
         <v>42093.0</v>
       </c>
       <c r="B1364" s="2" t="n">
-        <v>97.976</v>
+        <v>97.97600000000001</v>
       </c>
     </row>
     <row r="1365">
@@ -10999,7 +10999,7 @@
         <v>42094.0</v>
       </c>
       <c r="B1365" s="2" t="n">
-        <v>98.4117</v>
+        <v>98.41170000000001</v>
       </c>
     </row>
     <row r="1366">
@@ -11015,7 +11015,7 @@
         <v>42096.0</v>
       </c>
       <c r="B1367" s="2" t="n">
-        <v>97.5097</v>
+        <v>97.50970000000001</v>
       </c>
     </row>
     <row r="1368">
@@ -11079,7 +11079,7 @@
         <v>42108.0</v>
       </c>
       <c r="B1375" s="2" t="n">
-        <v>98.7565</v>
+        <v>98.75649999999999</v>
       </c>
     </row>
     <row r="1376">
@@ -11087,7 +11087,7 @@
         <v>42109.0</v>
       </c>
       <c r="B1376" s="2" t="n">
-        <v>98.3698</v>
+        <v>98.36980000000001</v>
       </c>
     </row>
     <row r="1377">
@@ -11103,7 +11103,7 @@
         <v>42111.0</v>
       </c>
       <c r="B1378" s="2" t="n">
-        <v>97.4538</v>
+        <v>97.45379999999999</v>
       </c>
     </row>
     <row r="1379">
@@ -11127,7 +11127,7 @@
         <v>42116.0</v>
       </c>
       <c r="B1381" s="2" t="n">
-        <v>98.0628</v>
+        <v>98.06280000000001</v>
       </c>
     </row>
     <row r="1382">
@@ -11143,7 +11143,7 @@
         <v>42118.0</v>
       </c>
       <c r="B1383" s="2" t="n">
-        <v>96.9079</v>
+        <v>96.90790000000001</v>
       </c>
     </row>
     <row r="1384">
@@ -11151,7 +11151,7 @@
         <v>42121.0</v>
       </c>
       <c r="B1384" s="2" t="n">
-        <v>96.7557</v>
+        <v>96.75569999999999</v>
       </c>
     </row>
     <row r="1385">
@@ -11167,7 +11167,7 @@
         <v>42123.0</v>
       </c>
       <c r="B1386" s="2" t="n">
-        <v>95.1982</v>
+        <v>95.19819999999999</v>
       </c>
     </row>
     <row r="1387">
@@ -11183,7 +11183,7 @@
         <v>42125.0</v>
       </c>
       <c r="B1388" s="2" t="n">
-        <v>95.2404</v>
+        <v>95.24040000000001</v>
       </c>
     </row>
     <row r="1389">
@@ -11239,7 +11239,7 @@
         <v>42136.0</v>
       </c>
       <c r="B1395" s="2" t="n">
-        <v>94.5413</v>
+        <v>94.54129999999999</v>
       </c>
     </row>
     <row r="1396">
@@ -11279,7 +11279,7 @@
         <v>42143.0</v>
       </c>
       <c r="B1400" s="2" t="n">
-        <v>95.3066</v>
+        <v>95.30659999999999</v>
       </c>
     </row>
     <row r="1401">
@@ -11295,7 +11295,7 @@
         <v>42145.0</v>
       </c>
       <c r="B1402" s="2" t="n">
-        <v>95.4099</v>
+        <v>95.40990000000001</v>
       </c>
     </row>
     <row r="1403">
@@ -11327,7 +11327,7 @@
         <v>42151.0</v>
       </c>
       <c r="B1406" s="2" t="n">
-        <v>97.2726</v>
+        <v>97.27260000000001</v>
       </c>
     </row>
     <row r="1407">
@@ -11359,7 +11359,7 @@
         <v>42157.0</v>
       </c>
       <c r="B1410" s="2" t="n">
-        <v>95.93</v>
+        <v>95.92999999999999</v>
       </c>
     </row>
     <row r="1411">
@@ -11367,7 +11367,7 @@
         <v>42158.0</v>
       </c>
       <c r="B1411" s="2" t="n">
-        <v>95.35</v>
+        <v>95.35000000000001</v>
       </c>
     </row>
     <row r="1412">
@@ -11431,7 +11431,7 @@
         <v>42170.0</v>
       </c>
       <c r="B1419" s="2" t="n">
-        <v>94.7943</v>
+        <v>94.79429999999999</v>
       </c>
     </row>
     <row r="1420">
@@ -11439,7 +11439,7 @@
         <v>42171.0</v>
       </c>
       <c r="B1420" s="2" t="n">
-        <v>94.9454</v>
+        <v>94.94539999999999</v>
       </c>
     </row>
     <row r="1421">
@@ -11479,7 +11479,7 @@
         <v>42178.0</v>
       </c>
       <c r="B1425" s="2" t="n">
-        <v>95.4184</v>
+        <v>95.41839999999999</v>
       </c>
     </row>
     <row r="1426">
@@ -11559,7 +11559,7 @@
         <v>42192.0</v>
       </c>
       <c r="B1435" s="2" t="n">
-        <v>96.7403</v>
+        <v>96.74029999999999</v>
       </c>
     </row>
     <row r="1436">
@@ -11623,7 +11623,7 @@
         <v>42202.0</v>
       </c>
       <c r="B1443" s="2" t="n">
-        <v>97.9635</v>
+        <v>97.96350000000001</v>
       </c>
     </row>
     <row r="1444">
@@ -11647,7 +11647,7 @@
         <v>42207.0</v>
       </c>
       <c r="B1446" s="2" t="n">
-        <v>97.4347</v>
+        <v>97.43469999999999</v>
       </c>
     </row>
     <row r="1447">
@@ -11679,7 +11679,7 @@
         <v>42213.0</v>
       </c>
       <c r="B1450" s="2" t="n">
-        <v>96.6519</v>
+        <v>96.65190000000001</v>
       </c>
     </row>
     <row r="1451">
@@ -11703,7 +11703,7 @@
         <v>42216.0</v>
       </c>
       <c r="B1453" s="2" t="n">
-        <v>97.2276</v>
+        <v>97.22760000000001</v>
       </c>
     </row>
     <row r="1454">
@@ -11711,7 +11711,7 @@
         <v>42219.0</v>
       </c>
       <c r="B1454" s="2" t="n">
-        <v>97.4863</v>
+        <v>97.48629999999999</v>
       </c>
     </row>
     <row r="1455">
@@ -11751,7 +11751,7 @@
         <v>42226.0</v>
       </c>
       <c r="B1459" s="2" t="n">
-        <v>97.1855</v>
+        <v>97.18549999999999</v>
       </c>
     </row>
     <row r="1460">
@@ -11783,7 +11783,7 @@
         <v>42230.0</v>
       </c>
       <c r="B1463" s="2" t="n">
-        <v>96.6024</v>
+        <v>96.60239999999999</v>
       </c>
     </row>
     <row r="1464">
@@ -11839,7 +11839,7 @@
         <v>42241.0</v>
       </c>
       <c r="B1470" s="2" t="n">
-        <v>94.0134</v>
+        <v>94.01339999999999</v>
       </c>
     </row>
     <row r="1471">
@@ -11871,7 +11871,7 @@
         <v>42247.0</v>
       </c>
       <c r="B1474" s="2" t="n">
-        <v>95.9885</v>
+        <v>95.98849999999999</v>
       </c>
     </row>
     <row r="1475">
@@ -11879,7 +11879,7 @@
         <v>42248.0</v>
       </c>
       <c r="B1475" s="2" t="n">
-        <v>95.32</v>
+        <v>95.32000000000001</v>
       </c>
     </row>
     <row r="1476">
@@ -11895,7 +11895,7 @@
         <v>42250.0</v>
       </c>
       <c r="B1477" s="2" t="n">
-        <v>96.4019</v>
+        <v>96.40190000000001</v>
       </c>
     </row>
     <row r="1478">
@@ -11903,7 +11903,7 @@
         <v>42251.0</v>
       </c>
       <c r="B1478" s="2" t="n">
-        <v>96.2546</v>
+        <v>96.25460000000001</v>
       </c>
     </row>
     <row r="1479">
@@ -11943,7 +11943,7 @@
         <v>42258.0</v>
       </c>
       <c r="B1483" s="2" t="n">
-        <v>95.1718</v>
+        <v>95.17179999999999</v>
       </c>
     </row>
     <row r="1484">
@@ -11967,7 +11967,7 @@
         <v>42263.0</v>
       </c>
       <c r="B1486" s="2" t="n">
-        <v>95.3398</v>
+        <v>95.33980000000001</v>
       </c>
     </row>
     <row r="1487">
@@ -11983,7 +11983,7 @@
         <v>42265.0</v>
       </c>
       <c r="B1488" s="2" t="n">
-        <v>95.1593</v>
+        <v>95.15929999999999</v>
       </c>
     </row>
     <row r="1489">
@@ -11991,7 +11991,7 @@
         <v>42268.0</v>
       </c>
       <c r="B1489" s="2" t="n">
-        <v>95.9249</v>
+        <v>95.92490000000001</v>
       </c>
     </row>
     <row r="1490">
@@ -12063,7 +12063,7 @@
         <v>42279.0</v>
       </c>
       <c r="B1498" s="2" t="n">
-        <v>95.9187</v>
+        <v>95.91870000000002</v>
       </c>
     </row>
     <row r="1499">
@@ -12103,7 +12103,7 @@
         <v>42286.0</v>
       </c>
       <c r="B1503" s="2" t="n">
-        <v>94.9041</v>
+        <v>94.90410000000001</v>
       </c>
     </row>
     <row r="1504">
@@ -12111,7 +12111,7 @@
         <v>42289.0</v>
       </c>
       <c r="B1504" s="2" t="n">
-        <v>94.8782</v>
+        <v>94.87819999999999</v>
       </c>
     </row>
     <row r="1505">
@@ -12143,7 +12143,7 @@
         <v>42293.0</v>
       </c>
       <c r="B1508" s="2" t="n">
-        <v>94.7346</v>
+        <v>94.73460000000001</v>
       </c>
     </row>
     <row r="1509">
@@ -12151,7 +12151,7 @@
         <v>42296.0</v>
       </c>
       <c r="B1509" s="2" t="n">
-        <v>94.9176</v>
+        <v>94.91760000000001</v>
       </c>
     </row>
     <row r="1510">
@@ -12175,7 +12175,7 @@
         <v>42299.0</v>
       </c>
       <c r="B1512" s="2" t="n">
-        <v>96.366</v>
+        <v>96.36599999999999</v>
       </c>
     </row>
     <row r="1513">
@@ -12191,7 +12191,7 @@
         <v>42303.0</v>
       </c>
       <c r="B1514" s="2" t="n">
-        <v>96.8048</v>
+        <v>96.80480000000001</v>
       </c>
     </row>
     <row r="1515">
@@ -12199,7 +12199,7 @@
         <v>42304.0</v>
       </c>
       <c r="B1515" s="2" t="n">
-        <v>96.8792</v>
+        <v>96.87920000000001</v>
       </c>
     </row>
     <row r="1516">
@@ -12255,7 +12255,7 @@
         <v>42313.0</v>
       </c>
       <c r="B1522" s="2" t="n">
-        <v>97.9926</v>
+        <v>97.99260000000001</v>
       </c>
     </row>
     <row r="1523">
@@ -12263,7 +12263,7 @@
         <v>42314.0</v>
       </c>
       <c r="B1523" s="2" t="n">
-        <v>99.1658</v>
+        <v>99.16579999999999</v>
       </c>
     </row>
     <row r="1524">
@@ -12279,7 +12279,7 @@
         <v>42318.0</v>
       </c>
       <c r="B1525" s="2" t="n">
-        <v>99.1696</v>
+        <v>99.16959999999999</v>
       </c>
     </row>
     <row r="1526">
@@ -12295,7 +12295,7 @@
         <v>42320.0</v>
       </c>
       <c r="B1527" s="2" t="n">
-        <v>98.5095</v>
+        <v>98.50949999999999</v>
       </c>
     </row>
     <row r="1528">
@@ -12319,7 +12319,7 @@
         <v>42325.0</v>
       </c>
       <c r="B1530" s="2" t="n">
-        <v>99.6525</v>
+        <v>99.65249999999999</v>
       </c>
     </row>
     <row r="1531">
@@ -12351,7 +12351,7 @@
         <v>42331.0</v>
       </c>
       <c r="B1534" s="2" t="n">
-        <v>99.7298</v>
+        <v>99.72980000000001</v>
       </c>
     </row>
     <row r="1535">
@@ -12359,7 +12359,7 @@
         <v>42332.0</v>
       </c>
       <c r="B1535" s="2" t="n">
-        <v>99.6308</v>
+        <v>99.63080000000001</v>
       </c>
     </row>
     <row r="1536">
@@ -12391,7 +12391,7 @@
         <v>42338.0</v>
       </c>
       <c r="B1539" s="2" t="n">
-        <v>100.2351</v>
+        <v>100.23509999999999</v>
       </c>
     </row>
     <row r="1540">
@@ -12439,7 +12439,7 @@
         <v>42346.0</v>
       </c>
       <c r="B1545" s="2" t="n">
-        <v>98.4238</v>
+        <v>98.42379999999999</v>
       </c>
     </row>
     <row r="1546">
@@ -12463,7 +12463,7 @@
         <v>42349.0</v>
       </c>
       <c r="B1548" s="2" t="n">
-        <v>97.5761</v>
+        <v>97.57610000000001</v>
       </c>
     </row>
     <row r="1549">
@@ -12479,7 +12479,7 @@
         <v>42353.0</v>
       </c>
       <c r="B1550" s="2" t="n">
-        <v>98.1777</v>
+        <v>98.17770000000002</v>
       </c>
     </row>
     <row r="1551">
@@ -12487,7 +12487,7 @@
         <v>42354.0</v>
       </c>
       <c r="B1551" s="2" t="n">
-        <v>98.3706</v>
+        <v>98.37060000000001</v>
       </c>
     </row>
     <row r="1552">
@@ -12503,7 +12503,7 @@
         <v>42356.0</v>
       </c>
       <c r="B1553" s="2" t="n">
-        <v>98.7112</v>
+        <v>98.71119999999999</v>
       </c>
     </row>
     <row r="1554">
@@ -12511,7 +12511,7 @@
         <v>42359.0</v>
       </c>
       <c r="B1554" s="2" t="n">
-        <v>98.4536</v>
+        <v>98.45360000000001</v>
       </c>
     </row>
     <row r="1555">
@@ -12535,7 +12535,7 @@
         <v>42362.0</v>
       </c>
       <c r="B1557" s="2" t="n">
-        <v>97.939</v>
+        <v>97.93900000000001</v>
       </c>
     </row>
     <row r="1558">
@@ -12543,7 +12543,7 @@
         <v>42363.0</v>
       </c>
       <c r="B1558" s="2" t="n">
-        <v>97.8487</v>
+        <v>97.84870000000001</v>
       </c>
     </row>
     <row r="1559">
@@ -12551,7 +12551,7 @@
         <v>42366.0</v>
       </c>
       <c r="B1559" s="2" t="n">
-        <v>97.9719</v>
+        <v>97.97189999999999</v>
       </c>
     </row>
     <row r="1560">
@@ -12575,7 +12575,7 @@
         <v>42369.0</v>
       </c>
       <c r="B1562" s="2" t="n">
-        <v>98.7044</v>
+        <v>98.70439999999999</v>
       </c>
     </row>
     <row r="1563">
@@ -12583,7 +12583,7 @@
         <v>42373.0</v>
       </c>
       <c r="B1563" s="2" t="n">
-        <v>98.8466</v>
+        <v>98.84660000000001</v>
       </c>
     </row>
     <row r="1564">
@@ -12679,7 +12679,7 @@
         <v>42389.0</v>
       </c>
       <c r="B1575" s="2" t="n">
-        <v>99.0828</v>
+        <v>99.08279999999999</v>
       </c>
     </row>
     <row r="1576">
@@ -12695,7 +12695,7 @@
         <v>42391.0</v>
       </c>
       <c r="B1577" s="2" t="n">
-        <v>99.5279</v>
+        <v>99.52789999999999</v>
       </c>
     </row>
     <row r="1578">
@@ -12727,7 +12727,7 @@
         <v>42397.0</v>
       </c>
       <c r="B1581" s="2" t="n">
-        <v>98.5974</v>
+        <v>98.59740000000001</v>
       </c>
     </row>
     <row r="1582">
@@ -12735,7 +12735,7 @@
         <v>42398.0</v>
       </c>
       <c r="B1582" s="2" t="n">
-        <v>99.5558</v>
+        <v>99.55579999999999</v>
       </c>
     </row>
     <row r="1583">
@@ -12751,7 +12751,7 @@
         <v>42402.0</v>
       </c>
       <c r="B1584" s="2" t="n">
-        <v>98.8701</v>
+        <v>98.87010000000001</v>
       </c>
     </row>
     <row r="1585">
@@ -12815,7 +12815,7 @@
         <v>42412.0</v>
       </c>
       <c r="B1592" s="2" t="n">
-        <v>95.9536</v>
+        <v>95.95360000000001</v>
       </c>
     </row>
     <row r="1593">
@@ -12831,7 +12831,7 @@
         <v>42416.0</v>
       </c>
       <c r="B1594" s="2" t="n">
-        <v>96.8637</v>
+        <v>96.86370000000001</v>
       </c>
     </row>
     <row r="1595">
@@ -12839,7 +12839,7 @@
         <v>42417.0</v>
       </c>
       <c r="B1595" s="2" t="n">
-        <v>96.8524</v>
+        <v>96.85239999999999</v>
       </c>
     </row>
     <row r="1596">
@@ -12871,7 +12871,7 @@
         <v>42423.0</v>
       </c>
       <c r="B1599" s="2" t="n">
-        <v>97.4617</v>
+        <v>97.46170000000001</v>
       </c>
     </row>
     <row r="1600">
@@ -12879,7 +12879,7 @@
         <v>42424.0</v>
       </c>
       <c r="B1600" s="2" t="n">
-        <v>97.5089</v>
+        <v>97.50890000000001</v>
       </c>
     </row>
     <row r="1601">
@@ -12887,7 +12887,7 @@
         <v>42425.0</v>
       </c>
       <c r="B1601" s="2" t="n">
-        <v>97.4384</v>
+        <v>97.43840000000002</v>
       </c>
     </row>
     <row r="1602">
@@ -12935,7 +12935,7 @@
         <v>42433.0</v>
       </c>
       <c r="B1607" s="2" t="n">
-        <v>97.2084</v>
+        <v>97.20840000000001</v>
       </c>
     </row>
     <row r="1608">
@@ -12967,7 +12967,7 @@
         <v>42439.0</v>
       </c>
       <c r="B1611" s="2" t="n">
-        <v>96.1966</v>
+        <v>96.19659999999999</v>
       </c>
     </row>
     <row r="1612">
@@ -12975,7 +12975,7 @@
         <v>42440.0</v>
       </c>
       <c r="B1612" s="2" t="n">
-        <v>96.2259</v>
+        <v>96.22590000000001</v>
       </c>
     </row>
     <row r="1613">
@@ -12991,7 +12991,7 @@
         <v>42444.0</v>
       </c>
       <c r="B1614" s="2" t="n">
-        <v>96.6511</v>
+        <v>96.65109999999999</v>
       </c>
     </row>
     <row r="1615">
@@ -13007,7 +13007,7 @@
         <v>42446.0</v>
       </c>
       <c r="B1616" s="2" t="n">
-        <v>94.8074</v>
+        <v>94.80739999999999</v>
       </c>
     </row>
     <row r="1617">
@@ -13023,7 +13023,7 @@
         <v>42450.0</v>
       </c>
       <c r="B1618" s="2" t="n">
-        <v>95.4094</v>
+        <v>95.40939999999999</v>
       </c>
     </row>
     <row r="1619">
@@ -13039,7 +13039,7 @@
         <v>42452.0</v>
       </c>
       <c r="B1620" s="2" t="n">
-        <v>96.0527</v>
+        <v>96.05269999999999</v>
       </c>
     </row>
     <row r="1621">
@@ -13047,7 +13047,7 @@
         <v>42453.0</v>
       </c>
       <c r="B1621" s="2" t="n">
-        <v>96.1199</v>
+        <v>96.11989999999999</v>
       </c>
     </row>
     <row r="1622">
@@ -13055,7 +13055,7 @@
         <v>42454.0</v>
       </c>
       <c r="B1622" s="2" t="n">
-        <v>96.2626</v>
+        <v>96.26259999999999</v>
       </c>
     </row>
     <row r="1623">
@@ -13087,7 +13087,7 @@
         <v>42460.0</v>
       </c>
       <c r="B1626" s="2" t="n">
-        <v>94.6281</v>
+        <v>94.62809999999999</v>
       </c>
     </row>
     <row r="1627">
@@ -13111,7 +13111,7 @@
         <v>42465.0</v>
       </c>
       <c r="B1629" s="2" t="n">
-        <v>94.6133</v>
+        <v>94.61330000000001</v>
       </c>
     </row>
     <row r="1630">
@@ -13127,7 +13127,7 @@
         <v>42467.0</v>
       </c>
       <c r="B1631" s="2" t="n">
-        <v>94.5356</v>
+        <v>94.53559999999999</v>
       </c>
     </row>
     <row r="1632">
@@ -13143,7 +13143,7 @@
         <v>42471.0</v>
       </c>
       <c r="B1633" s="2" t="n">
-        <v>94.0088</v>
+        <v>94.00880000000001</v>
       </c>
     </row>
     <row r="1634">
@@ -13151,7 +13151,7 @@
         <v>42472.0</v>
       </c>
       <c r="B1634" s="2" t="n">
-        <v>94.044</v>
+        <v>94.04400000000001</v>
       </c>
     </row>
     <row r="1635">
@@ -13159,7 +13159,7 @@
         <v>42473.0</v>
       </c>
       <c r="B1635" s="2" t="n">
-        <v>94.8021</v>
+        <v>94.80210000000001</v>
       </c>
     </row>
     <row r="1636">
@@ -13175,7 +13175,7 @@
         <v>42475.0</v>
       </c>
       <c r="B1637" s="2" t="n">
-        <v>94.7018</v>
+        <v>94.70179999999999</v>
       </c>
     </row>
     <row r="1638">
@@ -13231,7 +13231,7 @@
         <v>42486.0</v>
       </c>
       <c r="B1644" s="2" t="n">
-        <v>94.5137</v>
+        <v>94.51370000000001</v>
       </c>
     </row>
     <row r="1645">
@@ -13247,7 +13247,7 @@
         <v>42488.0</v>
       </c>
       <c r="B1646" s="2" t="n">
-        <v>93.7716</v>
+        <v>93.77159999999999</v>
       </c>
     </row>
     <row r="1647">
@@ -13343,7 +13343,7 @@
         <v>42506.0</v>
       </c>
       <c r="B1658" s="2" t="n">
-        <v>94.5681</v>
+        <v>94.56810000000002</v>
       </c>
     </row>
     <row r="1659">
@@ -13359,7 +13359,7 @@
         <v>42508.0</v>
       </c>
       <c r="B1660" s="2" t="n">
-        <v>95.196</v>
+        <v>95.19600000000001</v>
       </c>
     </row>
     <row r="1661">
@@ -13415,7 +13415,7 @@
         <v>42517.0</v>
       </c>
       <c r="B1667" s="2" t="n">
-        <v>95.7397</v>
+        <v>95.73970000000001</v>
       </c>
     </row>
     <row r="1668">
@@ -13431,7 +13431,7 @@
         <v>42521.0</v>
       </c>
       <c r="B1669" s="2" t="n">
-        <v>95.8412</v>
+        <v>95.84119999999999</v>
       </c>
     </row>
     <row r="1670">
@@ -13439,7 +13439,7 @@
         <v>42522.0</v>
       </c>
       <c r="B1670" s="2" t="n">
-        <v>95.4214</v>
+        <v>95.42139999999999</v>
       </c>
     </row>
     <row r="1671">
@@ -13455,7 +13455,7 @@
         <v>42524.0</v>
       </c>
       <c r="B1672" s="2" t="n">
-        <v>93.9222</v>
+        <v>93.92219999999999</v>
       </c>
     </row>
     <row r="1673">
@@ -13463,7 +13463,7 @@
         <v>42527.0</v>
       </c>
       <c r="B1673" s="2" t="n">
-        <v>94.0234</v>
+        <v>94.02340000000001</v>
       </c>
     </row>
     <row r="1674">
@@ -13495,7 +13495,7 @@
         <v>42531.0</v>
       </c>
       <c r="B1677" s="2" t="n">
-        <v>94.6582</v>
+        <v>94.65820000000001</v>
       </c>
     </row>
     <row r="1678">
@@ -13511,7 +13511,7 @@
         <v>42535.0</v>
       </c>
       <c r="B1679" s="2" t="n">
-        <v>94.9158</v>
+        <v>94.91579999999999</v>
       </c>
     </row>
     <row r="1680">
@@ -13607,7 +13607,7 @@
         <v>42551.0</v>
       </c>
       <c r="B1691" s="2" t="n">
-        <v>95.9526</v>
+        <v>95.95259999999999</v>
       </c>
     </row>
     <row r="1692">
@@ -13639,7 +13639,7 @@
         <v>42557.0</v>
       </c>
       <c r="B1695" s="2" t="n">
-        <v>96.1037</v>
+        <v>96.10369999999999</v>
       </c>
     </row>
     <row r="1696">
@@ -13647,7 +13647,7 @@
         <v>42558.0</v>
       </c>
       <c r="B1696" s="2" t="n">
-        <v>96.258</v>
+        <v>96.25800000000001</v>
       </c>
     </row>
     <row r="1697">
@@ -13655,7 +13655,7 @@
         <v>42559.0</v>
       </c>
       <c r="B1697" s="2" t="n">
-        <v>96.2966</v>
+        <v>96.29660000000001</v>
       </c>
     </row>
     <row r="1698">
@@ -13687,7 +13687,7 @@
         <v>42565.0</v>
       </c>
       <c r="B1701" s="2" t="n">
-        <v>96.123</v>
+        <v>96.12299999999999</v>
       </c>
     </row>
     <row r="1702">
@@ -13695,7 +13695,7 @@
         <v>42566.0</v>
       </c>
       <c r="B1702" s="2" t="n">
-        <v>96.6855</v>
+        <v>96.68549999999999</v>
       </c>
     </row>
     <row r="1703">
@@ -13703,7 +13703,7 @@
         <v>42569.0</v>
       </c>
       <c r="B1703" s="2" t="n">
-        <v>96.5465</v>
+        <v>96.54650000000001</v>
       </c>
     </row>
     <row r="1704">
@@ -13711,7 +13711,7 @@
         <v>42570.0</v>
       </c>
       <c r="B1704" s="2" t="n">
-        <v>97.0385</v>
+        <v>97.03850000000001</v>
       </c>
     </row>
     <row r="1705">
@@ -13719,7 +13719,7 @@
         <v>42571.0</v>
       </c>
       <c r="B1705" s="2" t="n">
-        <v>97.1415</v>
+        <v>97.14150000000001</v>
       </c>
     </row>
     <row r="1706">
@@ -13727,7 +13727,7 @@
         <v>42572.0</v>
       </c>
       <c r="B1706" s="2" t="n">
-        <v>96.9488</v>
+        <v>96.94879999999999</v>
       </c>
     </row>
     <row r="1707">
@@ -13735,7 +13735,7 @@
         <v>42573.0</v>
       </c>
       <c r="B1707" s="2" t="n">
-        <v>97.3526</v>
+        <v>97.35260000000001</v>
       </c>
     </row>
     <row r="1708">
@@ -13743,7 +13743,7 @@
         <v>42576.0</v>
       </c>
       <c r="B1708" s="2" t="n">
-        <v>97.2587</v>
+        <v>97.25869999999999</v>
       </c>
     </row>
     <row r="1709">
@@ -13751,7 +13751,7 @@
         <v>42577.0</v>
       </c>
       <c r="B1709" s="2" t="n">
-        <v>97.1654</v>
+        <v>97.16539999999999</v>
       </c>
     </row>
     <row r="1710">
@@ -13783,7 +13783,7 @@
         <v>42583.0</v>
       </c>
       <c r="B1713" s="2" t="n">
-        <v>95.7776</v>
+        <v>95.77759999999999</v>
       </c>
     </row>
     <row r="1714">
@@ -13823,7 +13823,7 @@
         <v>42590.0</v>
       </c>
       <c r="B1718" s="2" t="n">
-        <v>96.3728</v>
+        <v>96.37279999999998</v>
       </c>
     </row>
     <row r="1719">
@@ -13847,7 +13847,7 @@
         <v>42593.0</v>
       </c>
       <c r="B1721" s="2" t="n">
-        <v>95.9312</v>
+        <v>95.93119999999999</v>
       </c>
     </row>
     <row r="1722">
@@ -13863,7 +13863,7 @@
         <v>42597.0</v>
       </c>
       <c r="B1723" s="2" t="n">
-        <v>95.6205</v>
+        <v>95.62049999999999</v>
       </c>
     </row>
     <row r="1724">
@@ -13887,7 +13887,7 @@
         <v>42600.0</v>
       </c>
       <c r="B1726" s="2" t="n">
-        <v>94.1869</v>
+        <v>94.18690000000001</v>
       </c>
     </row>
     <row r="1727">
@@ -13911,7 +13911,7 @@
         <v>42605.0</v>
       </c>
       <c r="B1729" s="2" t="n">
-        <v>94.5258</v>
+        <v>94.52579999999999</v>
       </c>
     </row>
     <row r="1730">
@@ -13927,7 +13927,7 @@
         <v>42607.0</v>
       </c>
       <c r="B1731" s="2" t="n">
-        <v>94.7254</v>
+        <v>94.72540000000001</v>
       </c>
     </row>
     <row r="1732">
@@ -13951,7 +13951,7 @@
         <v>42612.0</v>
       </c>
       <c r="B1734" s="2" t="n">
-        <v>96.0527</v>
+        <v>96.05269999999999</v>
       </c>
     </row>
     <row r="1735">
@@ -13999,7 +13999,7 @@
         <v>42620.0</v>
       </c>
       <c r="B1740" s="2" t="n">
-        <v>94.963</v>
+        <v>94.96300000000001</v>
       </c>
     </row>
     <row r="1741">
@@ -14039,7 +14039,7 @@
         <v>42627.0</v>
       </c>
       <c r="B1745" s="2" t="n">
-        <v>95.3221</v>
+        <v>95.32209999999999</v>
       </c>
     </row>
     <row r="1746">
@@ -14047,7 +14047,7 @@
         <v>42628.0</v>
       </c>
       <c r="B1746" s="2" t="n">
-        <v>95.2628</v>
+        <v>95.26280000000001</v>
       </c>
     </row>
     <row r="1747">
@@ -14055,7 +14055,7 @@
         <v>42629.0</v>
       </c>
       <c r="B1747" s="2" t="n">
-        <v>96.0335</v>
+        <v>96.03349999999999</v>
       </c>
     </row>
     <row r="1748">
@@ -14063,7 +14063,7 @@
         <v>42632.0</v>
       </c>
       <c r="B1748" s="2" t="n">
-        <v>95.8503</v>
+        <v>95.85029999999999</v>
       </c>
     </row>
     <row r="1749">
@@ -14079,7 +14079,7 @@
         <v>42634.0</v>
       </c>
       <c r="B1750" s="2" t="n">
-        <v>95.5055</v>
+        <v>95.50549999999998</v>
       </c>
     </row>
     <row r="1751">
@@ -14103,7 +14103,7 @@
         <v>42639.0</v>
       </c>
       <c r="B1753" s="2" t="n">
-        <v>95.2986</v>
+        <v>95.29860000000001</v>
       </c>
     </row>
     <row r="1754">
@@ -14143,7 +14143,7 @@
         <v>42646.0</v>
       </c>
       <c r="B1758" s="2" t="n">
-        <v>95.7612</v>
+        <v>95.76119999999999</v>
       </c>
     </row>
     <row r="1759">
@@ -14159,7 +14159,7 @@
         <v>42648.0</v>
       </c>
       <c r="B1760" s="2" t="n">
-        <v>96.1463</v>
+        <v>96.14630000000001</v>
       </c>
     </row>
     <row r="1761">
@@ -14183,7 +14183,7 @@
         <v>42653.0</v>
       </c>
       <c r="B1763" s="2" t="n">
-        <v>96.9018</v>
+        <v>96.90180000000001</v>
       </c>
     </row>
     <row r="1764">
@@ -14207,7 +14207,7 @@
         <v>42656.0</v>
       </c>
       <c r="B1766" s="2" t="n">
-        <v>97.535</v>
+        <v>97.53500000000001</v>
       </c>
     </row>
     <row r="1767">
@@ -14223,7 +14223,7 @@
         <v>42660.0</v>
       </c>
       <c r="B1768" s="2" t="n">
-        <v>97.8774</v>
+        <v>97.87740000000001</v>
       </c>
     </row>
     <row r="1769">
@@ -14231,7 +14231,7 @@
         <v>42661.0</v>
       </c>
       <c r="B1769" s="2" t="n">
-        <v>97.8764</v>
+        <v>97.87639999999999</v>
       </c>
     </row>
     <row r="1770">
@@ -14271,7 +14271,7 @@
         <v>42668.0</v>
       </c>
       <c r="B1774" s="2" t="n">
-        <v>98.7254</v>
+        <v>98.72540000000001</v>
       </c>
     </row>
     <row r="1775">
@@ -14295,7 +14295,7 @@
         <v>42671.0</v>
       </c>
       <c r="B1777" s="2" t="n">
-        <v>98.3022</v>
+        <v>98.30219999999998</v>
       </c>
     </row>
     <row r="1778">
@@ -14303,7 +14303,7 @@
         <v>42674.0</v>
       </c>
       <c r="B1778" s="2" t="n">
-        <v>98.3517</v>
+        <v>98.35170000000001</v>
       </c>
     </row>
     <row r="1779">
@@ -14327,7 +14327,7 @@
         <v>42677.0</v>
       </c>
       <c r="B1781" s="2" t="n">
-        <v>97.1597</v>
+        <v>97.15969999999999</v>
       </c>
     </row>
     <row r="1782">
@@ -14351,7 +14351,7 @@
         <v>42682.0</v>
       </c>
       <c r="B1784" s="2" t="n">
-        <v>97.873</v>
+        <v>97.87299999999999</v>
       </c>
     </row>
     <row r="1785">
@@ -14359,7 +14359,7 @@
         <v>42683.0</v>
       </c>
       <c r="B1785" s="2" t="n">
-        <v>98.6637</v>
+        <v>98.66369999999999</v>
       </c>
     </row>
     <row r="1786">
@@ -14391,7 +14391,7 @@
         <v>42689.0</v>
       </c>
       <c r="B1789" s="2" t="n">
-        <v>100.1967</v>
+        <v>100.19669999999999</v>
       </c>
     </row>
     <row r="1790">
@@ -14399,7 +14399,7 @@
         <v>42690.0</v>
       </c>
       <c r="B1790" s="2" t="n">
-        <v>100.3785</v>
+        <v>100.37849999999999</v>
       </c>
     </row>
     <row r="1791">
@@ -14407,7 +14407,7 @@
         <v>42691.0</v>
       </c>
       <c r="B1791" s="2" t="n">
-        <v>100.9524</v>
+        <v>100.95240000000001</v>
       </c>
     </row>
     <row r="1792">
@@ -14439,7 +14439,7 @@
         <v>42697.0</v>
       </c>
       <c r="B1795" s="2" t="n">
-        <v>101.6664</v>
+        <v>101.66640000000001</v>
       </c>
     </row>
     <row r="1796">
@@ -14447,7 +14447,7 @@
         <v>42698.0</v>
       </c>
       <c r="B1796" s="2" t="n">
-        <v>101.7389</v>
+        <v>101.73889999999999</v>
       </c>
     </row>
     <row r="1797">
@@ -14455,7 +14455,7 @@
         <v>42699.0</v>
       </c>
       <c r="B1797" s="2" t="n">
-        <v>101.4994</v>
+        <v>101.49940000000001</v>
       </c>
     </row>
     <row r="1798">
@@ -14463,7 +14463,7 @@
         <v>42702.0</v>
       </c>
       <c r="B1798" s="2" t="n">
-        <v>101.1817</v>
+        <v>101.18169999999999</v>
       </c>
     </row>
     <row r="1799">
@@ -14479,7 +14479,7 @@
         <v>42704.0</v>
       </c>
       <c r="B1800" s="2" t="n">
-        <v>101.5732</v>
+        <v>101.57320000000001</v>
       </c>
     </row>
     <row r="1801">
@@ -14503,7 +14503,7 @@
         <v>42709.0</v>
       </c>
       <c r="B1803" s="2" t="n">
-        <v>100.1328</v>
+        <v>100.13280000000002</v>
       </c>
     </row>
     <row r="1804">
@@ -14527,7 +14527,7 @@
         <v>42712.0</v>
       </c>
       <c r="B1806" s="2" t="n">
-        <v>101.099</v>
+        <v>101.09899999999999</v>
       </c>
     </row>
     <row r="1807">
@@ -14543,7 +14543,7 @@
         <v>42716.0</v>
       </c>
       <c r="B1808" s="2" t="n">
-        <v>100.9709</v>
+        <v>100.97089999999999</v>
       </c>
     </row>
     <row r="1809">
@@ -14551,7 +14551,7 @@
         <v>42717.0</v>
       </c>
       <c r="B1809" s="2" t="n">
-        <v>101.0507</v>
+        <v>101.05069999999999</v>
       </c>
     </row>
     <row r="1810">
@@ -14559,7 +14559,7 @@
         <v>42718.0</v>
       </c>
       <c r="B1810" s="2" t="n">
-        <v>102.041</v>
+        <v>102.04100000000001</v>
       </c>
     </row>
     <row r="1811">
@@ -14567,7 +14567,7 @@
         <v>42719.0</v>
       </c>
       <c r="B1811" s="2" t="n">
-        <v>103.1514</v>
+        <v>103.15140000000001</v>
       </c>
     </row>
     <row r="1812">
@@ -14575,7 +14575,7 @@
         <v>42720.0</v>
       </c>
       <c r="B1812" s="2" t="n">
-        <v>102.8025</v>
+        <v>102.80250000000001</v>
       </c>
     </row>
     <row r="1813">
@@ -14599,7 +14599,7 @@
         <v>42725.0</v>
       </c>
       <c r="B1815" s="2" t="n">
-        <v>103.0385</v>
+        <v>103.03850000000001</v>
       </c>
     </row>
     <row r="1816">
@@ -14607,7 +14607,7 @@
         <v>42726.0</v>
       </c>
       <c r="B1816" s="2" t="n">
-        <v>103.0759</v>
+        <v>103.07589999999999</v>
       </c>
     </row>
     <row r="1817">
@@ -14639,7 +14639,7 @@
         <v>42732.0</v>
       </c>
       <c r="B1820" s="2" t="n">
-        <v>103.2914</v>
+        <v>103.29140000000001</v>
       </c>
     </row>
     <row r="1821">
@@ -14663,7 +14663,7 @@
         <v>42737.0</v>
       </c>
       <c r="B1823" s="2" t="n">
-        <v>102.9075</v>
+        <v>102.90750000000001</v>
       </c>
     </row>
     <row r="1824">
@@ -14679,7 +14679,7 @@
         <v>42739.0</v>
       </c>
       <c r="B1825" s="2" t="n">
-        <v>102.5107</v>
+        <v>102.51070000000001</v>
       </c>
     </row>
     <row r="1826">
@@ -14727,7 +14727,7 @@
         <v>42747.0</v>
       </c>
       <c r="B1831" s="2" t="n">
-        <v>101.4542</v>
+        <v>101.45419999999999</v>
       </c>
     </row>
     <row r="1832">
@@ -14807,7 +14807,7 @@
         <v>42761.0</v>
       </c>
       <c r="B1841" s="2" t="n">
-        <v>100.5069</v>
+        <v>100.50689999999999</v>
       </c>
     </row>
     <row r="1842">
@@ -14839,7 +14839,7 @@
         <v>42767.0</v>
       </c>
       <c r="B1845" s="2" t="n">
-        <v>99.7332</v>
+        <v>99.73320000000001</v>
       </c>
     </row>
     <row r="1846">
@@ -14855,7 +14855,7 @@
         <v>42769.0</v>
       </c>
       <c r="B1847" s="2" t="n">
-        <v>99.7261</v>
+        <v>99.72609999999999</v>
       </c>
     </row>
     <row r="1848">
@@ -14879,7 +14879,7 @@
         <v>42774.0</v>
       </c>
       <c r="B1850" s="2" t="n">
-        <v>100.1742</v>
+        <v>100.17419999999998</v>
       </c>
     </row>
     <row r="1851">
@@ -14887,7 +14887,7 @@
         <v>42775.0</v>
       </c>
       <c r="B1851" s="2" t="n">
-        <v>100.6636</v>
+        <v>100.66359999999999</v>
       </c>
     </row>
     <row r="1852">
@@ -14903,7 +14903,7 @@
         <v>42779.0</v>
       </c>
       <c r="B1853" s="2" t="n">
-        <v>101.0038</v>
+        <v>101.00380000000001</v>
       </c>
     </row>
     <row r="1854">
@@ -14935,7 +14935,7 @@
         <v>42783.0</v>
       </c>
       <c r="B1857" s="2" t="n">
-        <v>100.8875</v>
+        <v>100.88749999999999</v>
       </c>
     </row>
     <row r="1858">
@@ -14967,7 +14967,7 @@
         <v>42789.0</v>
       </c>
       <c r="B1861" s="2" t="n">
-        <v>100.9732</v>
+        <v>100.97319999999999</v>
       </c>
     </row>
     <row r="1862">
@@ -15015,7 +15015,7 @@
         <v>42797.0</v>
       </c>
       <c r="B1867" s="2" t="n">
-        <v>101.3417</v>
+        <v>101.34169999999999</v>
       </c>
     </row>
     <row r="1868">
@@ -15023,7 +15023,7 @@
         <v>42800.0</v>
       </c>
       <c r="B1868" s="2" t="n">
-        <v>101.6753</v>
+        <v>101.67530000000001</v>
       </c>
     </row>
     <row r="1869">
@@ -15039,7 +15039,7 @@
         <v>42802.0</v>
       </c>
       <c r="B1870" s="2" t="n">
-        <v>102.1101</v>
+        <v>102.11009999999999</v>
       </c>
     </row>
     <row r="1871">
@@ -15071,7 +15071,7 @@
         <v>42808.0</v>
       </c>
       <c r="B1874" s="2" t="n">
-        <v>101.7612</v>
+        <v>101.76119999999999</v>
       </c>
     </row>
     <row r="1875">
@@ -15087,7 +15087,7 @@
         <v>42810.0</v>
       </c>
       <c r="B1876" s="2" t="n">
-        <v>100.2705</v>
+        <v>100.27050000000001</v>
       </c>
     </row>
     <row r="1877">
@@ -15127,7 +15127,7 @@
         <v>42817.0</v>
       </c>
       <c r="B1881" s="2" t="n">
-        <v>99.7485</v>
+        <v>99.74849999999999</v>
       </c>
     </row>
     <row r="1882">
@@ -15151,7 +15151,7 @@
         <v>42822.0</v>
       </c>
       <c r="B1884" s="2" t="n">
-        <v>99.701</v>
+        <v>99.70100000000001</v>
       </c>
     </row>
     <row r="1885">
@@ -15159,7 +15159,7 @@
         <v>42823.0</v>
       </c>
       <c r="B1885" s="2" t="n">
-        <v>99.9462</v>
+        <v>99.94619999999999</v>
       </c>
     </row>
     <row r="1886">
@@ -15167,7 +15167,7 @@
         <v>42824.0</v>
       </c>
       <c r="B1886" s="2" t="n">
-        <v>100.5813</v>
+        <v>100.58130000000001</v>
       </c>
     </row>
     <row r="1887">
@@ -15175,7 +15175,7 @@
         <v>42825.0</v>
       </c>
       <c r="B1887" s="2" t="n">
-        <v>100.5451</v>
+        <v>100.54509999999999</v>
       </c>
     </row>
     <row r="1888">
@@ -15207,7 +15207,7 @@
         <v>42831.0</v>
       </c>
       <c r="B1891" s="2" t="n">
-        <v>100.7086</v>
+        <v>100.70859999999999</v>
       </c>
     </row>
     <row r="1892">
@@ -15247,7 +15247,7 @@
         <v>42838.0</v>
       </c>
       <c r="B1896" s="2" t="n">
-        <v>100.5836</v>
+        <v>100.58359999999999</v>
       </c>
     </row>
     <row r="1897">
@@ -15287,7 +15287,7 @@
         <v>42845.0</v>
       </c>
       <c r="B1901" s="2" t="n">
-        <v>99.8058</v>
+        <v>99.80579999999999</v>
       </c>
     </row>
     <row r="1902">
@@ -15311,7 +15311,7 @@
         <v>42850.0</v>
       </c>
       <c r="B1904" s="2" t="n">
-        <v>98.8372</v>
+        <v>98.83720000000001</v>
       </c>
     </row>
     <row r="1905">
@@ -15319,7 +15319,7 @@
         <v>42851.0</v>
       </c>
       <c r="B1905" s="2" t="n">
-        <v>98.978</v>
+        <v>98.97800000000001</v>
       </c>
     </row>
     <row r="1906">
@@ -15327,7 +15327,7 @@
         <v>42852.0</v>
       </c>
       <c r="B1906" s="2" t="n">
-        <v>99.1631</v>
+        <v>99.16309999999999</v>
       </c>
     </row>
     <row r="1907">
@@ -15343,7 +15343,7 @@
         <v>42856.0</v>
       </c>
       <c r="B1908" s="2" t="n">
-        <v>99.1446</v>
+        <v>99.14460000000001</v>
       </c>
     </row>
     <row r="1909">
@@ -15351,7 +15351,7 @@
         <v>42857.0</v>
       </c>
       <c r="B1909" s="2" t="n">
-        <v>98.9325</v>
+        <v>98.93249999999999</v>
       </c>
     </row>
     <row r="1910">
@@ -15367,7 +15367,7 @@
         <v>42859.0</v>
       </c>
       <c r="B1911" s="2" t="n">
-        <v>98.7511</v>
+        <v>98.75110000000001</v>
       </c>
     </row>
     <row r="1912">
@@ -15375,7 +15375,7 @@
         <v>42860.0</v>
       </c>
       <c r="B1912" s="2" t="n">
-        <v>98.584</v>
+        <v>98.58400000000002</v>
       </c>
     </row>
     <row r="1913">
@@ -15383,7 +15383,7 @@
         <v>42863.0</v>
       </c>
       <c r="B1913" s="2" t="n">
-        <v>99.151</v>
+        <v>99.15100000000001</v>
       </c>
     </row>
     <row r="1914">
@@ -15415,7 +15415,7 @@
         <v>42867.0</v>
       </c>
       <c r="B1917" s="2" t="n">
-        <v>99.1858</v>
+        <v>99.18580000000001</v>
       </c>
     </row>
     <row r="1918">
@@ -15431,7 +15431,7 @@
         <v>42871.0</v>
       </c>
       <c r="B1919" s="2" t="n">
-        <v>98.2139</v>
+        <v>98.21390000000001</v>
       </c>
     </row>
     <row r="1920">
@@ -15439,7 +15439,7 @@
         <v>42872.0</v>
       </c>
       <c r="B1920" s="2" t="n">
-        <v>97.4353</v>
+        <v>97.43530000000001</v>
       </c>
     </row>
     <row r="1921">
@@ -15455,7 +15455,7 @@
         <v>42874.0</v>
       </c>
       <c r="B1922" s="2" t="n">
-        <v>97.1115</v>
+        <v>97.11149999999999</v>
       </c>
     </row>
     <row r="1923">
@@ -15471,7 +15471,7 @@
         <v>42878.0</v>
       </c>
       <c r="B1924" s="2" t="n">
-        <v>97.3714</v>
+        <v>97.37140000000001</v>
       </c>
     </row>
     <row r="1925">
@@ -15503,7 +15503,7 @@
         <v>42884.0</v>
       </c>
       <c r="B1928" s="2" t="n">
-        <v>97.4795</v>
+        <v>97.47949999999999</v>
       </c>
     </row>
     <row r="1929">
@@ -15519,7 +15519,7 @@
         <v>42886.0</v>
       </c>
       <c r="B1930" s="2" t="n">
-        <v>96.9672</v>
+        <v>96.96719999999999</v>
       </c>
     </row>
     <row r="1931">
@@ -15527,7 +15527,7 @@
         <v>42887.0</v>
       </c>
       <c r="B1931" s="2" t="n">
-        <v>97.2179</v>
+        <v>97.21790000000001</v>
       </c>
     </row>
     <row r="1932">
@@ -15535,7 +15535,7 @@
         <v>42888.0</v>
       </c>
       <c r="B1932" s="2" t="n">
-        <v>96.6578</v>
+        <v>96.65780000000001</v>
       </c>
     </row>
     <row r="1933">
@@ -15559,7 +15559,7 @@
         <v>42893.0</v>
       </c>
       <c r="B1935" s="2" t="n">
-        <v>96.7215</v>
+        <v>96.72149999999999</v>
       </c>
     </row>
     <row r="1936">
@@ -15591,7 +15591,7 @@
         <v>42899.0</v>
       </c>
       <c r="B1939" s="2" t="n">
-        <v>96.9989</v>
+        <v>96.99889999999999</v>
       </c>
     </row>
     <row r="1940">
@@ -15623,7 +15623,7 @@
         <v>42905.0</v>
       </c>
       <c r="B1943" s="2" t="n">
-        <v>97.5345</v>
+        <v>97.53450000000001</v>
       </c>
     </row>
     <row r="1944">
@@ -15655,7 +15655,7 @@
         <v>42909.0</v>
       </c>
       <c r="B1947" s="2" t="n">
-        <v>97.3036</v>
+        <v>97.30359999999999</v>
       </c>
     </row>
     <row r="1948">
@@ -15663,7 +15663,7 @@
         <v>42912.0</v>
       </c>
       <c r="B1948" s="2" t="n">
-        <v>97.4164</v>
+        <v>97.41640000000001</v>
       </c>
     </row>
     <row r="1949">
@@ -15679,7 +15679,7 @@
         <v>42914.0</v>
       </c>
       <c r="B1950" s="2" t="n">
-        <v>96.049</v>
+        <v>96.04899999999999</v>
       </c>
     </row>
     <row r="1951">
@@ -15695,7 +15695,7 @@
         <v>42916.0</v>
       </c>
       <c r="B1952" s="2" t="n">
-        <v>95.6309</v>
+        <v>95.63090000000001</v>
       </c>
     </row>
     <row r="1953">
@@ -15711,7 +15711,7 @@
         <v>42920.0</v>
       </c>
       <c r="B1954" s="2" t="n">
-        <v>96.28</v>
+        <v>96.28000000000002</v>
       </c>
     </row>
     <row r="1955">
@@ -15735,7 +15735,7 @@
         <v>42923.0</v>
       </c>
       <c r="B1957" s="2" t="n">
-        <v>96.0148</v>
+        <v>96.01480000000001</v>
       </c>
     </row>
     <row r="1958">
@@ -15751,7 +15751,7 @@
         <v>42927.0</v>
       </c>
       <c r="B1959" s="2" t="n">
-        <v>95.7363</v>
+        <v>95.73630000000001</v>
       </c>
     </row>
     <row r="1960">
@@ -15775,7 +15775,7 @@
         <v>42930.0</v>
       </c>
       <c r="B1962" s="2" t="n">
-        <v>95.1254</v>
+        <v>95.12540000000001</v>
       </c>
     </row>
     <row r="1963">
@@ -15791,7 +15791,7 @@
         <v>42934.0</v>
       </c>
       <c r="B1964" s="2" t="n">
-        <v>94.6651</v>
+        <v>94.66510000000001</v>
       </c>
     </row>
     <row r="1965">
@@ -15799,7 +15799,7 @@
         <v>42935.0</v>
       </c>
       <c r="B1965" s="2" t="n">
-        <v>94.8471</v>
+        <v>94.84710000000001</v>
       </c>
     </row>
     <row r="1966">
@@ -15895,7 +15895,7 @@
         <v>42951.0</v>
       </c>
       <c r="B1977" s="2" t="n">
-        <v>93.4882</v>
+        <v>93.48819999999999</v>
       </c>
     </row>
     <row r="1978">
@@ -15927,7 +15927,7 @@
         <v>42957.0</v>
       </c>
       <c r="B1981" s="2" t="n">
-        <v>93.4009</v>
+        <v>93.40090000000001</v>
       </c>
     </row>
     <row r="1982">
@@ -15983,7 +15983,7 @@
         <v>42968.0</v>
       </c>
       <c r="B1988" s="2" t="n">
-        <v>93.091</v>
+        <v>93.09100000000001</v>
       </c>
     </row>
     <row r="1989">
@@ -15999,7 +15999,7 @@
         <v>42970.0</v>
       </c>
       <c r="B1990" s="2" t="n">
-        <v>93.2228</v>
+        <v>93.22279999999999</v>
       </c>
     </row>
     <row r="1991">
@@ -16031,7 +16031,7 @@
         <v>42976.0</v>
       </c>
       <c r="B1994" s="2" t="n">
-        <v>92.3366</v>
+        <v>92.33659999999999</v>
       </c>
     </row>
     <row r="1995">
@@ -16047,7 +16047,7 @@
         <v>42978.0</v>
       </c>
       <c r="B1996" s="2" t="n">
-        <v>92.6243</v>
+        <v>92.62429999999999</v>
       </c>
     </row>
     <row r="1997">
@@ -16079,7 +16079,7 @@
         <v>42984.0</v>
       </c>
       <c r="B2000" s="2" t="n">
-        <v>92.2454</v>
+        <v>92.24539999999999</v>
       </c>
     </row>
     <row r="2001">
@@ -16103,7 +16103,7 @@
         <v>42989.0</v>
       </c>
       <c r="B2003" s="2" t="n">
-        <v>91.9411</v>
+        <v>91.94109999999999</v>
       </c>
     </row>
     <row r="2004">
@@ -16223,7 +16223,7 @@
         <v>43010.0</v>
       </c>
       <c r="B2018" s="2" t="n">
-        <v>93.6406</v>
+        <v>93.64059999999999</v>
       </c>
     </row>
     <row r="2019">
@@ -16231,7 +16231,7 @@
         <v>43011.0</v>
       </c>
       <c r="B2019" s="2" t="n">
-        <v>93.5926</v>
+        <v>93.59259999999999</v>
       </c>
     </row>
     <row r="2020">
@@ -16255,7 +16255,7 @@
         <v>43014.0</v>
       </c>
       <c r="B2022" s="2" t="n">
-        <v>93.7978</v>
+        <v>93.79780000000001</v>
       </c>
     </row>
     <row r="2023">
@@ -16279,7 +16279,7 @@
         <v>43019.0</v>
       </c>
       <c r="B2025" s="2" t="n">
-        <v>92.9779</v>
+        <v>92.97789999999999</v>
       </c>
     </row>
     <row r="2026">
@@ -16287,7 +16287,7 @@
         <v>43020.0</v>
       </c>
       <c r="B2026" s="2" t="n">
-        <v>93.1063</v>
+        <v>93.10629999999999</v>
       </c>
     </row>
     <row r="2027">
@@ -16391,7 +16391,7 @@
         <v>43039.0</v>
       </c>
       <c r="B2039" s="2" t="n">
-        <v>94.5674</v>
+        <v>94.56739999999999</v>
       </c>
     </row>
     <row r="2040">
@@ -16407,7 +16407,7 @@
         <v>43041.0</v>
       </c>
       <c r="B2041" s="2" t="n">
-        <v>94.7096</v>
+        <v>94.70960000000001</v>
       </c>
     </row>
     <row r="2042">
@@ -16495,7 +16495,7 @@
         <v>43056.0</v>
       </c>
       <c r="B2052" s="2" t="n">
-        <v>93.6868</v>
+        <v>93.68679999999999</v>
       </c>
     </row>
     <row r="2053">
@@ -16511,7 +16511,7 @@
         <v>43060.0</v>
       </c>
       <c r="B2054" s="2" t="n">
-        <v>93.9702</v>
+        <v>93.97019999999999</v>
       </c>
     </row>
     <row r="2055">
@@ -16527,7 +16527,7 @@
         <v>43062.0</v>
       </c>
       <c r="B2056" s="2" t="n">
-        <v>93.1272</v>
+        <v>93.12719999999999</v>
       </c>
     </row>
     <row r="2057">
@@ -16535,7 +16535,7 @@
         <v>43063.0</v>
       </c>
       <c r="B2057" s="2" t="n">
-        <v>92.7527</v>
+        <v>92.75269999999999</v>
       </c>
     </row>
     <row r="2058">
@@ -16599,7 +16599,7 @@
         <v>43075.0</v>
       </c>
       <c r="B2065" s="2" t="n">
-        <v>93.5703</v>
+        <v>93.57029999999999</v>
       </c>
     </row>
     <row r="2066">
@@ -16615,7 +16615,7 @@
         <v>43077.0</v>
       </c>
       <c r="B2067" s="2" t="n">
-        <v>93.8722</v>
+        <v>93.87219999999999</v>
       </c>
     </row>
     <row r="2068">
@@ -16639,7 +16639,7 @@
         <v>43082.0</v>
       </c>
       <c r="B2070" s="2" t="n">
-        <v>93.4266</v>
+        <v>93.42660000000001</v>
       </c>
     </row>
     <row r="2071">
@@ -16703,7 +16703,7 @@
         <v>43094.0</v>
       </c>
       <c r="B2078" s="2" t="n">
-        <v>93.2437</v>
+        <v>93.24369999999999</v>
       </c>
     </row>
     <row r="2079">
@@ -16711,7 +16711,7 @@
         <v>43095.0</v>
       </c>
       <c r="B2079" s="2" t="n">
-        <v>93.287</v>
+        <v>93.28699999999999</v>
       </c>
     </row>
     <row r="2080">
@@ -16719,7 +16719,7 @@
         <v>43096.0</v>
       </c>
       <c r="B2080" s="2" t="n">
-        <v>93.0742</v>
+        <v>93.07419999999999</v>
       </c>
     </row>
     <row r="2081">
@@ -16751,7 +16751,7 @@
         <v>43102.0</v>
       </c>
       <c r="B2084" s="2" t="n">
-        <v>91.8616</v>
+        <v>91.86160000000001</v>
       </c>
     </row>
     <row r="2085">
@@ -16775,7 +16775,7 @@
         <v>43105.0</v>
       </c>
       <c r="B2087" s="2" t="n">
-        <v>92.0268</v>
+        <v>92.02680000000001</v>
       </c>
     </row>
     <row r="2088">
@@ -16815,7 +16815,7 @@
         <v>43112.0</v>
       </c>
       <c r="B2092" s="2" t="n">
-        <v>90.8615</v>
+        <v>90.86149999999999</v>
       </c>
     </row>
     <row r="2093">
@@ -16967,7 +16967,7 @@
         <v>43139.0</v>
       </c>
       <c r="B2111" s="2" t="n">
-        <v>90.3033</v>
+        <v>90.30330000000001</v>
       </c>
     </row>
     <row r="2112">
@@ -17015,7 +17015,7 @@
         <v>43147.0</v>
       </c>
       <c r="B2117" s="2" t="n">
-        <v>89.1333</v>
+        <v>89.13329999999999</v>
       </c>
     </row>
     <row r="2118">
@@ -17079,7 +17079,7 @@
         <v>43159.0</v>
       </c>
       <c r="B2125" s="2" t="n">
-        <v>90.6693</v>
+        <v>90.66929999999999</v>
       </c>
     </row>
     <row r="2126">
@@ -17175,7 +17175,7 @@
         <v>43175.0</v>
       </c>
       <c r="B2137" s="2" t="n">
-        <v>90.1899</v>
+        <v>90.18990000000001</v>
       </c>
     </row>
     <row r="2138">
@@ -17311,7 +17311,7 @@
         <v>43200.0</v>
       </c>
       <c r="B2154" s="2" t="n">
-        <v>89.6213</v>
+        <v>89.62129999999999</v>
       </c>
     </row>
     <row r="2155">
@@ -17319,7 +17319,7 @@
         <v>43201.0</v>
       </c>
       <c r="B2155" s="2" t="n">
-        <v>89.5242</v>
+        <v>89.52420000000001</v>
       </c>
     </row>
     <row r="2156">
@@ -17335,7 +17335,7 @@
         <v>43203.0</v>
       </c>
       <c r="B2157" s="2" t="n">
-        <v>89.805</v>
+        <v>89.80499999999999</v>
       </c>
     </row>
     <row r="2158">
@@ -17407,7 +17407,7 @@
         <v>43216.0</v>
       </c>
       <c r="B2166" s="2" t="n">
-        <v>91.5845</v>
+        <v>91.58449999999999</v>
       </c>
     </row>
     <row r="2167">
@@ -17431,7 +17431,7 @@
         <v>43221.0</v>
       </c>
       <c r="B2169" s="2" t="n">
-        <v>92.4711</v>
+        <v>92.47109999999999</v>
       </c>
     </row>
     <row r="2170">
@@ -17495,7 +17495,7 @@
         <v>43231.0</v>
       </c>
       <c r="B2177" s="2" t="n">
-        <v>92.5769</v>
+        <v>92.57690000000001</v>
       </c>
     </row>
     <row r="2178">
@@ -17503,7 +17503,7 @@
         <v>43234.0</v>
       </c>
       <c r="B2178" s="2" t="n">
-        <v>92.6826</v>
+        <v>92.68260000000001</v>
       </c>
     </row>
     <row r="2179">
@@ -17559,7 +17559,7 @@
         <v>43243.0</v>
       </c>
       <c r="B2185" s="2" t="n">
-        <v>93.9976</v>
+        <v>93.99759999999999</v>
       </c>
     </row>
     <row r="2186">
@@ -17583,7 +17583,7 @@
         <v>43248.0</v>
       </c>
       <c r="B2188" s="2" t="n">
-        <v>94.4202</v>
+        <v>94.42020000000001</v>
       </c>
     </row>
     <row r="2189">
@@ -17631,7 +17631,7 @@
         <v>43256.0</v>
       </c>
       <c r="B2194" s="2" t="n">
-        <v>93.8748</v>
+        <v>93.87480000000001</v>
       </c>
     </row>
     <row r="2195">
@@ -17663,7 +17663,7 @@
         <v>43262.0</v>
       </c>
       <c r="B2198" s="2" t="n">
-        <v>93.5841</v>
+        <v>93.58409999999999</v>
       </c>
     </row>
     <row r="2199">
@@ -17671,7 +17671,7 @@
         <v>43263.0</v>
       </c>
       <c r="B2199" s="2" t="n">
-        <v>93.8341</v>
+        <v>93.83409999999999</v>
       </c>
     </row>
     <row r="2200">
@@ -17687,7 +17687,7 @@
         <v>43265.0</v>
       </c>
       <c r="B2201" s="2" t="n">
-        <v>94.9264</v>
+        <v>94.92639999999999</v>
       </c>
     </row>
     <row r="2202">
@@ -17735,7 +17735,7 @@
         <v>43273.0</v>
       </c>
       <c r="B2207" s="2" t="n">
-        <v>94.5456</v>
+        <v>94.54560000000001</v>
       </c>
     </row>
     <row r="2208">
@@ -17751,7 +17751,7 @@
         <v>43277.0</v>
       </c>
       <c r="B2209" s="2" t="n">
-        <v>94.6765</v>
+        <v>94.67649999999999</v>
       </c>
     </row>
     <row r="2210">
@@ -17823,7 +17823,7 @@
         <v>43290.0</v>
       </c>
       <c r="B2218" s="2" t="n">
-        <v>94.073</v>
+        <v>94.07300000000001</v>
       </c>
     </row>
     <row r="2219">
@@ -17847,7 +17847,7 @@
         <v>43293.0</v>
       </c>
       <c r="B2221" s="2" t="n">
-        <v>94.8081</v>
+        <v>94.80810000000001</v>
       </c>
     </row>
     <row r="2222">
@@ -17895,7 +17895,7 @@
         <v>43301.0</v>
       </c>
       <c r="B2227" s="2" t="n">
-        <v>94.4722</v>
+        <v>94.47220000000002</v>
       </c>
     </row>
     <row r="2228">
@@ -17959,7 +17959,7 @@
         <v>43313.0</v>
       </c>
       <c r="B2235" s="2" t="n">
-        <v>94.6703</v>
+        <v>94.67029999999998</v>
       </c>
     </row>
     <row r="2236">
@@ -17967,7 +17967,7 @@
         <v>43314.0</v>
       </c>
       <c r="B2236" s="2" t="n">
-        <v>95.1767</v>
+        <v>95.17670000000001</v>
       </c>
     </row>
     <row r="2237">
@@ -17983,7 +17983,7 @@
         <v>43318.0</v>
       </c>
       <c r="B2238" s="2" t="n">
-        <v>95.3709</v>
+        <v>95.37089999999999</v>
       </c>
     </row>
     <row r="2239">
@@ -18015,7 +18015,7 @@
         <v>43322.0</v>
       </c>
       <c r="B2242" s="2" t="n">
-        <v>96.329</v>
+        <v>96.32900000000001</v>
       </c>
     </row>
     <row r="2243">
@@ -18039,7 +18039,7 @@
         <v>43327.0</v>
       </c>
       <c r="B2245" s="2" t="n">
-        <v>96.7211</v>
+        <v>96.72109999999999</v>
       </c>
     </row>
     <row r="2246">
@@ -18055,7 +18055,7 @@
         <v>43329.0</v>
       </c>
       <c r="B2247" s="2" t="n">
-        <v>96.1236</v>
+        <v>96.12360000000001</v>
       </c>
     </row>
     <row r="2248">
@@ -18071,7 +18071,7 @@
         <v>43333.0</v>
       </c>
       <c r="B2249" s="2" t="n">
-        <v>95.2557</v>
+        <v>95.25569999999999</v>
       </c>
     </row>
     <row r="2250">
@@ -18079,7 +18079,7 @@
         <v>43334.0</v>
       </c>
       <c r="B2250" s="2" t="n">
-        <v>95.0982</v>
+        <v>95.09819999999999</v>
       </c>
     </row>
     <row r="2251">
@@ -18095,7 +18095,7 @@
         <v>43336.0</v>
       </c>
       <c r="B2252" s="2" t="n">
-        <v>95.1737</v>
+        <v>95.17370000000001</v>
       </c>
     </row>
     <row r="2253">
@@ -18111,7 +18111,7 @@
         <v>43340.0</v>
       </c>
       <c r="B2254" s="2" t="n">
-        <v>94.715</v>
+        <v>94.71499999999999</v>
       </c>
     </row>
     <row r="2255">
@@ -18135,7 +18135,7 @@
         <v>43343.0</v>
       </c>
       <c r="B2257" s="2" t="n">
-        <v>95.1213</v>
+        <v>95.12129999999999</v>
       </c>
     </row>
     <row r="2258">
@@ -18151,7 +18151,7 @@
         <v>43347.0</v>
       </c>
       <c r="B2259" s="2" t="n">
-        <v>95.4349</v>
+        <v>95.43489999999998</v>
       </c>
     </row>
     <row r="2260">
@@ -18159,7 +18159,7 @@
         <v>43348.0</v>
       </c>
       <c r="B2260" s="2" t="n">
-        <v>95.1148</v>
+        <v>95.11479999999999</v>
       </c>
     </row>
     <row r="2261">
@@ -18183,7 +18183,7 @@
         <v>43353.0</v>
       </c>
       <c r="B2263" s="2" t="n">
-        <v>95.1642</v>
+        <v>95.16420000000001</v>
       </c>
     </row>
     <row r="2264">
@@ -18199,7 +18199,7 @@
         <v>43355.0</v>
       </c>
       <c r="B2265" s="2" t="n">
-        <v>94.8474</v>
+        <v>94.84740000000001</v>
       </c>
     </row>
     <row r="2266">
@@ -18215,7 +18215,7 @@
         <v>43357.0</v>
       </c>
       <c r="B2267" s="2" t="n">
-        <v>94.9766</v>
+        <v>94.97659999999999</v>
       </c>
     </row>
     <row r="2268">
@@ -18223,7 +18223,7 @@
         <v>43360.0</v>
       </c>
       <c r="B2268" s="2" t="n">
-        <v>94.52</v>
+        <v>94.52000000000001</v>
       </c>
     </row>
     <row r="2269">
@@ -18231,7 +18231,7 @@
         <v>43361.0</v>
       </c>
       <c r="B2269" s="2" t="n">
-        <v>94.6383</v>
+        <v>94.63829999999999</v>
       </c>
     </row>
     <row r="2270">
@@ -18319,7 +18319,7 @@
         <v>43376.0</v>
       </c>
       <c r="B2280" s="2" t="n">
-        <v>96.0361</v>
+        <v>96.03609999999999</v>
       </c>
     </row>
     <row r="2281">
@@ -18327,7 +18327,7 @@
         <v>43377.0</v>
       </c>
       <c r="B2281" s="2" t="n">
-        <v>95.7639</v>
+        <v>95.76389999999999</v>
       </c>
     </row>
     <row r="2282">
@@ -18351,7 +18351,7 @@
         <v>43382.0</v>
       </c>
       <c r="B2284" s="2" t="n">
-        <v>95.7095</v>
+        <v>95.70949999999999</v>
       </c>
     </row>
     <row r="2285">
@@ -18367,7 +18367,7 @@
         <v>43384.0</v>
       </c>
       <c r="B2286" s="2" t="n">
-        <v>95.029</v>
+        <v>95.02900000000001</v>
       </c>
     </row>
     <row r="2287">
@@ -18383,7 +18383,7 @@
         <v>43388.0</v>
       </c>
       <c r="B2288" s="2" t="n">
-        <v>95.0703</v>
+        <v>95.07029999999999</v>
       </c>
     </row>
     <row r="2289">
@@ -18391,7 +18391,7 @@
         <v>43389.0</v>
       </c>
       <c r="B2289" s="2" t="n">
-        <v>95.0824</v>
+        <v>95.08239999999999</v>
       </c>
     </row>
     <row r="2290">
@@ -18415,7 +18415,7 @@
         <v>43392.0</v>
       </c>
       <c r="B2292" s="2" t="n">
-        <v>95.6668</v>
+        <v>95.66680000000001</v>
       </c>
     </row>
     <row r="2293">
@@ -18423,7 +18423,7 @@
         <v>43395.0</v>
       </c>
       <c r="B2293" s="2" t="n">
-        <v>96.0334</v>
+        <v>96.03339999999999</v>
       </c>
     </row>
     <row r="2294">
@@ -18431,7 +18431,7 @@
         <v>43396.0</v>
       </c>
       <c r="B2294" s="2" t="n">
-        <v>95.9466</v>
+        <v>95.94659999999999</v>
       </c>
     </row>
     <row r="2295">
@@ -18439,7 +18439,7 @@
         <v>43397.0</v>
       </c>
       <c r="B2295" s="2" t="n">
-        <v>96.431</v>
+        <v>96.43100000000001</v>
       </c>
     </row>
     <row r="2296">
@@ -18447,7 +18447,7 @@
         <v>43398.0</v>
       </c>
       <c r="B2296" s="2" t="n">
-        <v>96.5938</v>
+        <v>96.59380000000002</v>
       </c>
     </row>
     <row r="2297">
@@ -18471,7 +18471,7 @@
         <v>43403.0</v>
       </c>
       <c r="B2299" s="2" t="n">
-        <v>96.9917</v>
+        <v>96.99170000000001</v>
       </c>
     </row>
     <row r="2300">
@@ -18503,7 +18503,7 @@
         <v>43409.0</v>
       </c>
       <c r="B2303" s="2" t="n">
-        <v>96.3465</v>
+        <v>96.34649999999999</v>
       </c>
     </row>
     <row r="2304">
@@ -18511,7 +18511,7 @@
         <v>43410.0</v>
       </c>
       <c r="B2304" s="2" t="n">
-        <v>96.2318</v>
+        <v>96.23179999999999</v>
       </c>
     </row>
     <row r="2305">
@@ -18519,7 +18519,7 @@
         <v>43411.0</v>
       </c>
       <c r="B2305" s="2" t="n">
-        <v>96.1946</v>
+        <v>96.19460000000001</v>
       </c>
     </row>
     <row r="2306">
@@ -18551,7 +18551,7 @@
         <v>43417.0</v>
       </c>
       <c r="B2309" s="2" t="n">
-        <v>97.1441</v>
+        <v>97.14410000000001</v>
       </c>
     </row>
     <row r="2310">
@@ -18559,7 +18559,7 @@
         <v>43418.0</v>
       </c>
       <c r="B2310" s="2" t="n">
-        <v>97.0442</v>
+        <v>97.04419999999999</v>
       </c>
     </row>
     <row r="2311">
@@ -18599,7 +18599,7 @@
         <v>43425.0</v>
       </c>
       <c r="B2315" s="2" t="n">
-        <v>96.7376</v>
+        <v>96.73759999999999</v>
       </c>
     </row>
     <row r="2316">
@@ -18623,7 +18623,7 @@
         <v>43430.0</v>
       </c>
       <c r="B2318" s="2" t="n">
-        <v>97.0837</v>
+        <v>97.08370000000001</v>
       </c>
     </row>
     <row r="2319">
@@ -18631,7 +18631,7 @@
         <v>43431.0</v>
       </c>
       <c r="B2319" s="2" t="n">
-        <v>97.3512</v>
+        <v>97.35119999999999</v>
       </c>
     </row>
     <row r="2320">
@@ -18687,7 +18687,7 @@
         <v>43440.0</v>
       </c>
       <c r="B2326" s="2" t="n">
-        <v>96.7716</v>
+        <v>96.77159999999999</v>
       </c>
     </row>
     <row r="2327">
@@ -18759,7 +18759,7 @@
         <v>43453.0</v>
       </c>
       <c r="B2335" s="2" t="n">
-        <v>97.0264</v>
+        <v>97.02640000000001</v>
       </c>
     </row>
     <row r="2336">
@@ -18807,7 +18807,7 @@
         <v>43461.0</v>
       </c>
       <c r="B2341" s="2" t="n">
-        <v>96.585</v>
+        <v>96.58500000000001</v>
       </c>
     </row>
     <row r="2342">
@@ -18839,7 +18839,7 @@
         <v>43467.0</v>
       </c>
       <c r="B2345" s="2" t="n">
-        <v>96.7825</v>
+        <v>96.78250000000001</v>
       </c>
     </row>
     <row r="2346">
@@ -18863,7 +18863,7 @@
         <v>43472.0</v>
       </c>
       <c r="B2348" s="2" t="n">
-        <v>95.6951</v>
+        <v>95.69510000000001</v>
       </c>
     </row>
     <row r="2349">
@@ -18903,7 +18903,7 @@
         <v>43479.0</v>
       </c>
       <c r="B2353" s="2" t="n">
-        <v>95.5973</v>
+        <v>95.59729999999999</v>
       </c>
     </row>
     <row r="2354">
@@ -18919,7 +18919,7 @@
         <v>43481.0</v>
       </c>
       <c r="B2355" s="2" t="n">
-        <v>96.1044</v>
+        <v>96.10440000000001</v>
       </c>
     </row>
     <row r="2356">
@@ -18935,7 +18935,7 @@
         <v>43483.0</v>
       </c>
       <c r="B2357" s="2" t="n">
-        <v>96.3694</v>
+        <v>96.36939999999998</v>
       </c>
     </row>
     <row r="2358">
@@ -18967,7 +18967,7 @@
         <v>43489.0</v>
       </c>
       <c r="B2361" s="2" t="n">
-        <v>96.5469</v>
+        <v>96.54690000000001</v>
       </c>
     </row>
     <row r="2362">
@@ -18975,7 +18975,7 @@
         <v>43490.0</v>
       </c>
       <c r="B2362" s="2" t="n">
-        <v>95.8193</v>
+        <v>95.81930000000001</v>
       </c>
     </row>
     <row r="2363">
@@ -18999,7 +18999,7 @@
         <v>43495.0</v>
       </c>
       <c r="B2365" s="2" t="n">
-        <v>95.4278</v>
+        <v>95.42779999999999</v>
       </c>
     </row>
     <row r="2366">
@@ -19031,7 +19031,7 @@
         <v>43501.0</v>
       </c>
       <c r="B2369" s="2" t="n">
-        <v>96.0881</v>
+        <v>96.08810000000001</v>
       </c>
     </row>
     <row r="2370">
@@ -19055,7 +19055,7 @@
         <v>43504.0</v>
       </c>
       <c r="B2372" s="2" t="n">
-        <v>96.638</v>
+        <v>96.63799999999999</v>
       </c>
     </row>
     <row r="2373">
@@ -19079,7 +19079,7 @@
         <v>43509.0</v>
       </c>
       <c r="B2375" s="2" t="n">
-        <v>97.1903</v>
+        <v>97.19030000000001</v>
       </c>
     </row>
     <row r="2376">
@@ -19119,7 +19119,7 @@
         <v>43516.0</v>
       </c>
       <c r="B2380" s="2" t="n">
-        <v>96.5589</v>
+        <v>96.55890000000001</v>
       </c>
     </row>
     <row r="2381">
@@ -19127,7 +19127,7 @@
         <v>43517.0</v>
       </c>
       <c r="B2381" s="2" t="n">
-        <v>96.6191</v>
+        <v>96.61909999999999</v>
       </c>
     </row>
     <row r="2382">
@@ -19167,7 +19167,7 @@
         <v>43524.0</v>
       </c>
       <c r="B2386" s="2" t="n">
-        <v>96.2218</v>
+        <v>96.22179999999999</v>
       </c>
     </row>
     <row r="2387">
@@ -19207,7 +19207,7 @@
         <v>43531.0</v>
       </c>
       <c r="B2391" s="2" t="n">
-        <v>97.612</v>
+        <v>97.61200000000001</v>
       </c>
     </row>
     <row r="2392">
@@ -19247,7 +19247,7 @@
         <v>43538.0</v>
       </c>
       <c r="B2396" s="2" t="n">
-        <v>96.7571</v>
+        <v>96.75710000000001</v>
       </c>
     </row>
     <row r="2397">
@@ -19263,7 +19263,7 @@
         <v>43542.0</v>
       </c>
       <c r="B2398" s="2" t="n">
-        <v>96.5008</v>
+        <v>96.50079999999998</v>
       </c>
     </row>
     <row r="2399">
@@ -19295,7 +19295,7 @@
         <v>43546.0</v>
       </c>
       <c r="B2402" s="2" t="n">
-        <v>96.6066</v>
+        <v>96.60660000000001</v>
       </c>
     </row>
     <row r="2403">
@@ -19303,7 +19303,7 @@
         <v>43549.0</v>
       </c>
       <c r="B2403" s="2" t="n">
-        <v>96.5353</v>
+        <v>96.53529999999999</v>
       </c>
     </row>
     <row r="2404">
@@ -19311,7 +19311,7 @@
         <v>43550.0</v>
       </c>
       <c r="B2404" s="2" t="n">
-        <v>96.8234</v>
+        <v>96.82339999999999</v>
       </c>
     </row>
     <row r="2405">
@@ -19351,7 +19351,7 @@
         <v>43557.0</v>
       </c>
       <c r="B2409" s="2" t="n">
-        <v>97.2934</v>
+        <v>97.29339999999999</v>
       </c>
     </row>
     <row r="2410">
@@ -19375,7 +19375,7 @@
         <v>43560.0</v>
       </c>
       <c r="B2412" s="2" t="n">
-        <v>97.4157</v>
+        <v>97.41569999999999</v>
       </c>
     </row>
     <row r="2413">
@@ -19399,7 +19399,7 @@
         <v>43565.0</v>
       </c>
       <c r="B2415" s="2" t="n">
-        <v>96.9309</v>
+        <v>96.93090000000001</v>
       </c>
     </row>
     <row r="2416">
@@ -19415,7 +19415,7 @@
         <v>43567.0</v>
       </c>
       <c r="B2417" s="2" t="n">
-        <v>96.9491</v>
+        <v>96.94910000000002</v>
       </c>
     </row>
     <row r="2418">
@@ -19463,7 +19463,7 @@
         <v>43577.0</v>
       </c>
       <c r="B2423" s="2" t="n">
-        <v>97.2956</v>
+        <v>97.29560000000001</v>
       </c>
     </row>
     <row r="2424">
@@ -19479,7 +19479,7 @@
         <v>43579.0</v>
       </c>
       <c r="B2425" s="2" t="n">
-        <v>98.0905</v>
+        <v>98.09049999999999</v>
       </c>
     </row>
     <row r="2426">
@@ -19495,7 +19495,7 @@
         <v>43581.0</v>
       </c>
       <c r="B2427" s="2" t="n">
-        <v>98.033</v>
+        <v>98.03299999999999</v>
       </c>
     </row>
     <row r="2428">
@@ -19527,7 +19527,7 @@
         <v>43587.0</v>
       </c>
       <c r="B2431" s="2" t="n">
-        <v>97.8454</v>
+        <v>97.84540000000001</v>
       </c>
     </row>
     <row r="2432">
@@ -19551,7 +19551,7 @@
         <v>43592.0</v>
       </c>
       <c r="B2434" s="2" t="n">
-        <v>97.5656</v>
+        <v>97.56559999999999</v>
       </c>
     </row>
     <row r="2435">
@@ -19575,7 +19575,7 @@
         <v>43595.0</v>
       </c>
       <c r="B2437" s="2" t="n">
-        <v>97.3356</v>
+        <v>97.33559999999999</v>
       </c>
     </row>
     <row r="2438">
@@ -19599,7 +19599,7 @@
         <v>43600.0</v>
       </c>
       <c r="B2440" s="2" t="n">
-        <v>97.5889</v>
+        <v>97.58890000000001</v>
       </c>
     </row>
     <row r="2441">
@@ -19647,7 +19647,7 @@
         <v>43608.0</v>
       </c>
       <c r="B2446" s="2" t="n">
-        <v>97.874</v>
+        <v>97.87400000000001</v>
       </c>
     </row>
     <row r="2447">
@@ -19655,7 +19655,7 @@
         <v>43609.0</v>
       </c>
       <c r="B2447" s="2" t="n">
-        <v>97.6021</v>
+        <v>97.60210000000001</v>
       </c>
     </row>
     <row r="2448">
@@ -19695,7 +19695,7 @@
         <v>43616.0</v>
       </c>
       <c r="B2452" s="2" t="n">
-        <v>97.774</v>
+        <v>97.77399999999999</v>
       </c>
     </row>
     <row r="2453">
@@ -19703,7 +19703,7 @@
         <v>43619.0</v>
       </c>
       <c r="B2453" s="2" t="n">
-        <v>97.2363</v>
+        <v>97.23629999999999</v>
       </c>
     </row>
     <row r="2454">
@@ -19719,7 +19719,7 @@
         <v>43621.0</v>
       </c>
       <c r="B2455" s="2" t="n">
-        <v>97.3606</v>
+        <v>97.36059999999999</v>
       </c>
     </row>
     <row r="2456">
@@ -19735,7 +19735,7 @@
         <v>43623.0</v>
       </c>
       <c r="B2457" s="2" t="n">
-        <v>96.591</v>
+        <v>96.59100000000001</v>
       </c>
     </row>
     <row r="2458">
@@ -19743,7 +19743,7 @@
         <v>43626.0</v>
       </c>
       <c r="B2458" s="2" t="n">
-        <v>96.7855</v>
+        <v>96.78549999999998</v>
       </c>
     </row>
     <row r="2459">
@@ -19767,7 +19767,7 @@
         <v>43629.0</v>
       </c>
       <c r="B2461" s="2" t="n">
-        <v>97.0413</v>
+        <v>97.04129999999999</v>
       </c>
     </row>
     <row r="2462">
@@ -19791,7 +19791,7 @@
         <v>43634.0</v>
       </c>
       <c r="B2464" s="2" t="n">
-        <v>97.6464</v>
+        <v>97.64639999999999</v>
       </c>
     </row>
     <row r="2465">
@@ -19831,7 +19831,7 @@
         <v>43641.0</v>
       </c>
       <c r="B2469" s="2" t="n">
-        <v>96.1886</v>
+        <v>96.18860000000001</v>
       </c>
     </row>
     <row r="2470">
@@ -19879,7 +19879,7 @@
         <v>43649.0</v>
       </c>
       <c r="B2475" s="2" t="n">
-        <v>96.7788</v>
+        <v>96.77879999999999</v>
       </c>
     </row>
     <row r="2476">
@@ -19887,7 +19887,7 @@
         <v>43650.0</v>
       </c>
       <c r="B2476" s="2" t="n">
-        <v>96.7281</v>
+        <v>96.72810000000001</v>
       </c>
     </row>
     <row r="2477">
@@ -19911,7 +19911,7 @@
         <v>43655.0</v>
       </c>
       <c r="B2479" s="2" t="n">
-        <v>97.498</v>
+        <v>97.49799999999999</v>
       </c>
     </row>
     <row r="2480">
@@ -19943,7 +19943,7 @@
         <v>43661.0</v>
       </c>
       <c r="B2483" s="2" t="n">
-        <v>96.9483</v>
+        <v>96.94829999999999</v>
       </c>
     </row>
     <row r="2484">
@@ -20031,7 +20031,7 @@
         <v>43676.0</v>
       </c>
       <c r="B2494" s="2" t="n">
-        <v>98.0727</v>
+        <v>98.07270000000001</v>
       </c>
     </row>
     <row r="2495">
@@ -20047,7 +20047,7 @@
         <v>43678.0</v>
       </c>
       <c r="B2496" s="2" t="n">
-        <v>98.3697</v>
+        <v>98.36970000000001</v>
       </c>
     </row>
     <row r="2497">
@@ -20071,7 +20071,7 @@
         <v>43683.0</v>
       </c>
       <c r="B2499" s="2" t="n">
-        <v>97.608</v>
+        <v>97.60799999999999</v>
       </c>
     </row>
     <row r="2500">
@@ -20079,7 +20079,7 @@
         <v>43684.0</v>
       </c>
       <c r="B2500" s="2" t="n">
-        <v>97.6404</v>
+        <v>97.64040000000001</v>
       </c>
     </row>
     <row r="2501">
@@ -20103,7 +20103,7 @@
         <v>43689.0</v>
       </c>
       <c r="B2503" s="2" t="n">
-        <v>97.418</v>
+        <v>97.41799999999999</v>
       </c>
     </row>
     <row r="2504">
@@ -20111,7 +20111,7 @@
         <v>43690.0</v>
       </c>
       <c r="B2504" s="2" t="n">
-        <v>97.8363</v>
+        <v>97.83630000000001</v>
       </c>
     </row>
     <row r="2505">
@@ -20199,7 +20199,7 @@
         <v>43705.0</v>
       </c>
       <c r="B2515" s="2" t="n">
-        <v>98.2418</v>
+        <v>98.24180000000001</v>
       </c>
     </row>
     <row r="2516">
@@ -20215,7 +20215,7 @@
         <v>43707.0</v>
       </c>
       <c r="B2517" s="2" t="n">
-        <v>98.8366</v>
+        <v>98.83659999999999</v>
       </c>
     </row>
     <row r="2518">
@@ -20247,7 +20247,7 @@
         <v>43713.0</v>
       </c>
       <c r="B2521" s="2" t="n">
-        <v>98.3982</v>
+        <v>98.39819999999999</v>
       </c>
     </row>
     <row r="2522">
@@ -20335,7 +20335,7 @@
         <v>43728.0</v>
       </c>
       <c r="B2532" s="2" t="n">
-        <v>98.4779</v>
+        <v>98.47789999999999</v>
       </c>
     </row>
     <row r="2533">
@@ -20359,7 +20359,7 @@
         <v>43733.0</v>
       </c>
       <c r="B2535" s="2" t="n">
-        <v>99.0438</v>
+        <v>99.04379999999999</v>
       </c>
     </row>
     <row r="2536">
@@ -20375,7 +20375,7 @@
         <v>43735.0</v>
       </c>
       <c r="B2537" s="2" t="n">
-        <v>99.111</v>
+        <v>99.11099999999999</v>
       </c>
     </row>
     <row r="2538">
@@ -20383,7 +20383,7 @@
         <v>43738.0</v>
       </c>
       <c r="B2538" s="2" t="n">
-        <v>99.4021</v>
+        <v>99.40209999999999</v>
       </c>
     </row>
     <row r="2539">
@@ -20399,7 +20399,7 @@
         <v>43740.0</v>
       </c>
       <c r="B2540" s="2" t="n">
-        <v>99.028</v>
+        <v>99.02799999999999</v>
       </c>
     </row>
     <row r="2541">
@@ -20455,7 +20455,7 @@
         <v>43749.0</v>
       </c>
       <c r="B2547" s="2" t="n">
-        <v>98.34</v>
+        <v>98.33999999999999</v>
       </c>
     </row>
     <row r="2548">
@@ -20503,7 +20503,7 @@
         <v>43759.0</v>
       </c>
       <c r="B2553" s="2" t="n">
-        <v>97.3236</v>
+        <v>97.32360000000001</v>
       </c>
     </row>
     <row r="2554">
@@ -20519,7 +20519,7 @@
         <v>43761.0</v>
       </c>
       <c r="B2555" s="2" t="n">
-        <v>97.4772</v>
+        <v>97.47720000000001</v>
       </c>
     </row>
     <row r="2556">
@@ -20535,7 +20535,7 @@
         <v>43763.0</v>
       </c>
       <c r="B2557" s="2" t="n">
-        <v>97.8447</v>
+        <v>97.84469999999999</v>
       </c>
     </row>
     <row r="2558">
@@ -20543,7 +20543,7 @@
         <v>43766.0</v>
       </c>
       <c r="B2558" s="2" t="n">
-        <v>97.7495</v>
+        <v>97.74950000000001</v>
       </c>
     </row>
     <row r="2559">
@@ -20591,7 +20591,7 @@
         <v>43774.0</v>
       </c>
       <c r="B2564" s="2" t="n">
-        <v>97.9141</v>
+        <v>97.91409999999999</v>
       </c>
     </row>
     <row r="2565">
@@ -20615,7 +20615,7 @@
         <v>43777.0</v>
       </c>
       <c r="B2567" s="2" t="n">
-        <v>98.3919</v>
+        <v>98.39189999999999</v>
       </c>
     </row>
     <row r="2568">
@@ -20639,7 +20639,7 @@
         <v>43782.0</v>
       </c>
       <c r="B2570" s="2" t="n">
-        <v>98.3384</v>
+        <v>98.33840000000001</v>
       </c>
     </row>
     <row r="2571">
@@ -20647,7 +20647,7 @@
         <v>43783.0</v>
       </c>
       <c r="B2571" s="2" t="n">
-        <v>98.1554</v>
+        <v>98.15540000000001</v>
       </c>
     </row>
     <row r="2572">
@@ -20671,7 +20671,7 @@
         <v>43788.0</v>
       </c>
       <c r="B2574" s="2" t="n">
-        <v>97.8413</v>
+        <v>97.84129999999999</v>
       </c>
     </row>
     <row r="2575">
@@ -20679,7 +20679,7 @@
         <v>43789.0</v>
       </c>
       <c r="B2575" s="2" t="n">
-        <v>97.9062</v>
+        <v>97.90620000000001</v>
       </c>
     </row>
     <row r="2576">
@@ -20695,7 +20695,7 @@
         <v>43791.0</v>
       </c>
       <c r="B2577" s="2" t="n">
-        <v>98.2837</v>
+        <v>98.28370000000001</v>
       </c>
     </row>
     <row r="2578">
@@ -20711,7 +20711,7 @@
         <v>43795.0</v>
       </c>
       <c r="B2579" s="2" t="n">
-        <v>98.2573</v>
+        <v>98.25729999999999</v>
       </c>
     </row>
     <row r="2580">
@@ -20735,7 +20735,7 @@
         <v>43798.0</v>
       </c>
       <c r="B2582" s="2" t="n">
-        <v>98.2804</v>
+        <v>98.28040000000001</v>
       </c>
     </row>
     <row r="2583">
@@ -20751,7 +20751,7 @@
         <v>43802.0</v>
       </c>
       <c r="B2584" s="2" t="n">
-        <v>97.7453</v>
+        <v>97.74529999999999</v>
       </c>
     </row>
     <row r="2585">
@@ -20759,7 +20759,7 @@
         <v>43803.0</v>
       </c>
       <c r="B2585" s="2" t="n">
-        <v>97.6196</v>
+        <v>97.61959999999999</v>
       </c>
     </row>
     <row r="2586">
@@ -20791,7 +20791,7 @@
         <v>43809.0</v>
       </c>
       <c r="B2589" s="2" t="n">
-        <v>97.4825</v>
+        <v>97.48249999999999</v>
       </c>
     </row>
     <row r="2590">
@@ -20823,7 +20823,7 @@
         <v>43815.0</v>
       </c>
       <c r="B2593" s="2" t="n">
-        <v>97.0547</v>
+        <v>97.05470000000001</v>
       </c>
     </row>
     <row r="2594">
@@ -20839,7 +20839,7 @@
         <v>43817.0</v>
       </c>
       <c r="B2595" s="2" t="n">
-        <v>97.4222</v>
+        <v>97.42219999999999</v>
       </c>
     </row>
     <row r="2596">
@@ -20935,7 +20935,7 @@
         <v>43833.0</v>
       </c>
       <c r="B2607" s="2" t="n">
-        <v>96.8871</v>
+        <v>96.88709999999999</v>
       </c>
     </row>
     <row r="2608">
@@ -20967,7 +20967,7 @@
         <v>43839.0</v>
       </c>
       <c r="B2611" s="2" t="n">
-        <v>97.4349</v>
+        <v>97.43489999999998</v>
       </c>
     </row>
     <row r="2612">
@@ -20999,7 +20999,7 @@
         <v>43845.0</v>
       </c>
       <c r="B2615" s="2" t="n">
-        <v>97.2236</v>
+        <v>97.22359999999999</v>
       </c>
     </row>
     <row r="2616">
@@ -21015,7 +21015,7 @@
         <v>43847.0</v>
       </c>
       <c r="B2617" s="2" t="n">
-        <v>97.6403</v>
+        <v>97.64030000000001</v>
       </c>
     </row>
     <row r="2618">
@@ -21023,7 +21023,7 @@
         <v>43850.0</v>
       </c>
       <c r="B2618" s="2" t="n">
-        <v>97.6011</v>
+        <v>97.60109999999999</v>
       </c>
     </row>
     <row r="2619">
@@ -21047,7 +21047,7 @@
         <v>43853.0</v>
       </c>
       <c r="B2621" s="2" t="n">
-        <v>97.6778</v>
+        <v>97.67779999999999</v>
       </c>
     </row>
     <row r="2622">
@@ -21063,7 +21063,7 @@
         <v>43857.0</v>
       </c>
       <c r="B2623" s="2" t="n">
-        <v>97.9412</v>
+        <v>97.94120000000001</v>
       </c>
     </row>
     <row r="2624">
@@ -21079,7 +21079,7 @@
         <v>43859.0</v>
       </c>
       <c r="B2625" s="2" t="n">
-        <v>98.0406</v>
+        <v>98.04060000000001</v>
       </c>
     </row>
     <row r="2626">
@@ -21095,7 +21095,7 @@
         <v>43861.0</v>
       </c>
       <c r="B2627" s="2" t="n">
-        <v>97.3614</v>
+        <v>97.36139999999999</v>
       </c>
     </row>
     <row r="2628">
@@ -21103,7 +21103,7 @@
         <v>43864.0</v>
       </c>
       <c r="B2628" s="2" t="n">
-        <v>97.8201</v>
+        <v>97.82010000000001</v>
       </c>
     </row>
     <row r="2629">
@@ -21119,7 +21119,7 @@
         <v>43866.0</v>
       </c>
       <c r="B2630" s="2" t="n">
-        <v>98.26</v>
+        <v>98.25999999999999</v>
       </c>
     </row>
     <row r="2631">
@@ -21151,7 +21151,7 @@
         <v>43872.0</v>
       </c>
       <c r="B2634" s="2" t="n">
-        <v>98.7724</v>
+        <v>98.77239999999999</v>
       </c>
     </row>
     <row r="2635">
@@ -21159,7 +21159,7 @@
         <v>43873.0</v>
       </c>
       <c r="B2635" s="2" t="n">
-        <v>99.0023</v>
+        <v>99.00229999999999</v>
       </c>
     </row>
     <row r="2636">
@@ -21207,7 +21207,7 @@
         <v>43881.0</v>
       </c>
       <c r="B2641" s="2" t="n">
-        <v>99.8889</v>
+        <v>99.88889999999999</v>
       </c>
     </row>
     <row r="2642">
@@ -21215,7 +21215,7 @@
         <v>43882.0</v>
       </c>
       <c r="B2642" s="2" t="n">
-        <v>99.3486</v>
+        <v>99.34859999999999</v>
       </c>
     </row>
     <row r="2643">
@@ -21231,7 +21231,7 @@
         <v>43886.0</v>
       </c>
       <c r="B2644" s="2" t="n">
-        <v>98.9751</v>
+        <v>98.97510000000001</v>
       </c>
     </row>
     <row r="2645">
@@ -21239,7 +21239,7 @@
         <v>43887.0</v>
       </c>
       <c r="B2645" s="2" t="n">
-        <v>99.1594</v>
+        <v>99.15939999999999</v>
       </c>
     </row>
     <row r="2646">
@@ -21247,7 +21247,7 @@
         <v>43888.0</v>
       </c>
       <c r="B2646" s="2" t="n">
-        <v>98.411</v>
+        <v>98.41099999999999</v>
       </c>
     </row>
     <row r="2647">
@@ -21255,7 +21255,7 @@
         <v>43889.0</v>
       </c>
       <c r="B2647" s="2" t="n">
-        <v>98.133</v>
+        <v>98.13300000000001</v>
       </c>
     </row>
     <row r="2648">
@@ -21271,7 +21271,7 @@
         <v>43893.0</v>
       </c>
       <c r="B2649" s="2" t="n">
-        <v>97.1821</v>
+        <v>97.18209999999999</v>
       </c>
     </row>
     <row r="2650">
@@ -21327,7 +21327,7 @@
         <v>43902.0</v>
       </c>
       <c r="B2656" s="2" t="n">
-        <v>97.445</v>
+        <v>97.44500000000001</v>
       </c>
     </row>
     <row r="2657">
@@ -21335,7 +21335,7 @@
         <v>43903.0</v>
       </c>
       <c r="B2657" s="2" t="n">
-        <v>98.4888</v>
+        <v>98.48880000000001</v>
       </c>
     </row>
     <row r="2658">
@@ -21359,7 +21359,7 @@
         <v>43908.0</v>
       </c>
       <c r="B2660" s="2" t="n">
-        <v>100.8817</v>
+        <v>100.88170000000001</v>
       </c>
     </row>
     <row r="2661">
@@ -21407,7 +21407,7 @@
         <v>43916.0</v>
       </c>
       <c r="B2666" s="2" t="n">
-        <v>99.413</v>
+        <v>99.41300000000001</v>
       </c>
     </row>
     <row r="2667">
@@ -21447,7 +21447,7 @@
         <v>43923.0</v>
       </c>
       <c r="B2671" s="2" t="n">
-        <v>100.1006</v>
+        <v>100.10059999999999</v>
       </c>
     </row>
     <row r="2672">
@@ -21463,7 +21463,7 @@
         <v>43927.0</v>
       </c>
       <c r="B2673" s="2" t="n">
-        <v>100.7991</v>
+        <v>100.79910000000001</v>
       </c>
     </row>
     <row r="2674">
@@ -21527,7 +21527,7 @@
         <v>43937.0</v>
       </c>
       <c r="B2681" s="2" t="n">
-        <v>100.072</v>
+        <v>100.07199999999999</v>
       </c>
     </row>
     <row r="2682">
@@ -21535,7 +21535,7 @@
         <v>43938.0</v>
       </c>
       <c r="B2682" s="2" t="n">
-        <v>99.7177</v>
+        <v>99.71770000000001</v>
       </c>
     </row>
     <row r="2683">
@@ -21567,7 +21567,7 @@
         <v>43944.0</v>
       </c>
       <c r="B2686" s="2" t="n">
-        <v>100.5039</v>
+        <v>100.50389999999999</v>
       </c>
     </row>
     <row r="2687">
@@ -21583,7 +21583,7 @@
         <v>43948.0</v>
       </c>
       <c r="B2688" s="2" t="n">
-        <v>100.0465</v>
+        <v>100.04650000000001</v>
       </c>
     </row>
     <row r="2689">
@@ -21615,7 +21615,7 @@
         <v>43952.0</v>
       </c>
       <c r="B2692" s="2" t="n">
-        <v>99.0536</v>
+        <v>99.05359999999999</v>
       </c>
     </row>
     <row r="2693">
@@ -21623,7 +21623,7 @@
         <v>43955.0</v>
       </c>
       <c r="B2693" s="2" t="n">
-        <v>99.498</v>
+        <v>99.49799999999999</v>
       </c>
     </row>
     <row r="2694">
@@ -21631,7 +21631,7 @@
         <v>43956.0</v>
       </c>
       <c r="B2694" s="2" t="n">
-        <v>99.8401</v>
+        <v>99.84009999999999</v>
       </c>
     </row>
     <row r="2695">
@@ -21703,7 +21703,7 @@
         <v>43969.0</v>
       </c>
       <c r="B2703" s="2" t="n">
-        <v>99.6347</v>
+        <v>99.63470000000001</v>
       </c>
     </row>
     <row r="2704">
@@ -21711,7 +21711,7 @@
         <v>43970.0</v>
       </c>
       <c r="B2704" s="2" t="n">
-        <v>99.5668</v>
+        <v>99.56680000000001</v>
       </c>
     </row>
     <row r="2705">
@@ -21743,7 +21743,7 @@
         <v>43976.0</v>
       </c>
       <c r="B2708" s="2" t="n">
-        <v>99.791</v>
+        <v>99.79100000000001</v>
       </c>
     </row>
     <row r="2709">
@@ -21807,7 +21807,7 @@
         <v>43986.0</v>
       </c>
       <c r="B2716" s="2" t="n">
-        <v>96.763</v>
+        <v>96.76299999999999</v>
       </c>
     </row>
     <row r="2717">
@@ -21839,7 +21839,7 @@
         <v>43992.0</v>
       </c>
       <c r="B2720" s="2" t="n">
-        <v>96.0923</v>
+        <v>96.09230000000001</v>
       </c>
     </row>
     <row r="2721">
@@ -21855,7 +21855,7 @@
         <v>43994.0</v>
       </c>
       <c r="B2722" s="2" t="n">
-        <v>97.1012</v>
+        <v>97.10119999999999</v>
       </c>
     </row>
     <row r="2723">
@@ -21871,7 +21871,7 @@
         <v>43998.0</v>
       </c>
       <c r="B2724" s="2" t="n">
-        <v>97.003</v>
+        <v>97.00299999999999</v>
       </c>
     </row>
     <row r="2725">
@@ -21895,7 +21895,7 @@
         <v>44001.0</v>
       </c>
       <c r="B2727" s="2" t="n">
-        <v>97.6842</v>
+        <v>97.68419999999999</v>
       </c>
     </row>
     <row r="2728">
@@ -21903,7 +21903,7 @@
         <v>44004.0</v>
       </c>
       <c r="B2728" s="2" t="n">
-        <v>97.0517</v>
+        <v>97.05170000000001</v>
       </c>
     </row>
     <row r="2729">
@@ -21959,7 +21959,7 @@
         <v>44013.0</v>
       </c>
       <c r="B2735" s="2" t="n">
-        <v>97.162</v>
+        <v>97.16199999999999</v>
       </c>
     </row>
     <row r="2736">
@@ -21975,7 +21975,7 @@
         <v>44015.0</v>
       </c>
       <c r="B2737" s="2" t="n">
-        <v>97.1846</v>
+        <v>97.18459999999999</v>
       </c>
     </row>
     <row r="2738">
@@ -21991,7 +21991,7 @@
         <v>44019.0</v>
       </c>
       <c r="B2739" s="2" t="n">
-        <v>96.9713</v>
+        <v>96.97130000000001</v>
       </c>
     </row>
     <row r="2740">
@@ -22023,7 +22023,7 @@
         <v>44025.0</v>
       </c>
       <c r="B2743" s="2" t="n">
-        <v>96.5586</v>
+        <v>96.55860000000001</v>
       </c>
     </row>
     <row r="2744">
@@ -22071,7 +22071,7 @@
         <v>44033.0</v>
       </c>
       <c r="B2749" s="2" t="n">
-        <v>95.182</v>
+        <v>95.18199999999999</v>
       </c>
     </row>
     <row r="2750">
@@ -22095,7 +22095,7 @@
         <v>44036.0</v>
       </c>
       <c r="B2752" s="2" t="n">
-        <v>94.347</v>
+        <v>94.34700000000001</v>
       </c>
     </row>
     <row r="2753">
@@ -22111,7 +22111,7 @@
         <v>44040.0</v>
       </c>
       <c r="B2754" s="2" t="n">
-        <v>93.7655</v>
+        <v>93.76549999999999</v>
       </c>
     </row>
     <row r="2755">
@@ -22175,7 +22175,7 @@
         <v>44050.0</v>
       </c>
       <c r="B2762" s="2" t="n">
-        <v>93.4133</v>
+        <v>93.41329999999999</v>
       </c>
     </row>
     <row r="2763">
@@ -22215,7 +22215,7 @@
         <v>44057.0</v>
       </c>
       <c r="B2767" s="2" t="n">
-        <v>93.0995</v>
+        <v>93.09949999999999</v>
       </c>
     </row>
     <row r="2768">
@@ -22231,7 +22231,7 @@
         <v>44061.0</v>
       </c>
       <c r="B2769" s="2" t="n">
-        <v>92.3213</v>
+        <v>92.32130000000001</v>
       </c>
     </row>
     <row r="2770">
@@ -22343,7 +22343,7 @@
         <v>44081.0</v>
       </c>
       <c r="B2783" s="2" t="n">
-        <v>93.0623</v>
+        <v>93.06230000000001</v>
       </c>
     </row>
     <row r="2784">
@@ -22455,7 +22455,7 @@
         <v>44099.0</v>
       </c>
       <c r="B2797" s="2" t="n">
-        <v>94.5871</v>
+        <v>94.58709999999999</v>
       </c>
     </row>
     <row r="2798">
@@ -22551,7 +22551,7 @@
         <v>44117.0</v>
       </c>
       <c r="B2809" s="2" t="n">
-        <v>93.5336</v>
+        <v>93.53359999999999</v>
       </c>
     </row>
     <row r="2810">
@@ -22575,7 +22575,7 @@
         <v>44120.0</v>
       </c>
       <c r="B2812" s="2" t="n">
-        <v>93.7064</v>
+        <v>93.70639999999999</v>
       </c>
     </row>
     <row r="2813">
@@ -22583,7 +22583,7 @@
         <v>44123.0</v>
       </c>
       <c r="B2813" s="2" t="n">
-        <v>93.4231</v>
+        <v>93.42309999999999</v>
       </c>
     </row>
     <row r="2814">
@@ -22687,7 +22687,7 @@
         <v>44140.0</v>
       </c>
       <c r="B2826" s="2" t="n">
-        <v>92.5833</v>
+        <v>92.58330000000001</v>
       </c>
     </row>
     <row r="2827">
@@ -22831,7 +22831,7 @@
         <v>44166.0</v>
       </c>
       <c r="B2844" s="2" t="n">
-        <v>91.1801</v>
+        <v>91.18010000000001</v>
       </c>
     </row>
     <row r="2845">
@@ -22847,7 +22847,7 @@
         <v>44168.0</v>
       </c>
       <c r="B2846" s="2" t="n">
-        <v>90.6749</v>
+        <v>90.67490000000001</v>
       </c>
     </row>
     <row r="2847">
@@ -22863,7 +22863,7 @@
         <v>44172.0</v>
       </c>
       <c r="B2848" s="2" t="n">
-        <v>90.865</v>
+        <v>90.86500000000001</v>
       </c>
     </row>
     <row r="2849">
@@ -22983,7 +22983,7 @@
         <v>44193.0</v>
       </c>
       <c r="B2863" s="2" t="n">
-        <v>90.2841</v>
+        <v>90.28410000000001</v>
       </c>
     </row>
     <row r="2864">
@@ -22991,7 +22991,7 @@
         <v>44194.0</v>
       </c>
       <c r="B2864" s="2" t="n">
-        <v>90.004</v>
+        <v>90.00399999999999</v>
       </c>
     </row>
     <row r="2865">
@@ -23015,7 +23015,7 @@
         <v>44200.0</v>
       </c>
       <c r="B2867" s="2" t="n">
-        <v>89.8778</v>
+        <v>89.87780000000001</v>
       </c>
     </row>
     <row r="2868">
@@ -23031,7 +23031,7 @@
         <v>44202.0</v>
       </c>
       <c r="B2869" s="2" t="n">
-        <v>89.4167</v>
+        <v>89.41669999999999</v>
       </c>
     </row>
     <row r="2870">
@@ -23095,7 +23095,7 @@
         <v>44214.0</v>
       </c>
       <c r="B2877" s="2" t="n">
-        <v>90.7716</v>
+        <v>90.77159999999999</v>
       </c>
     </row>
     <row r="2878">
@@ -23103,7 +23103,7 @@
         <v>44215.0</v>
       </c>
       <c r="B2878" s="2" t="n">
-        <v>90.4882</v>
+        <v>90.48819999999999</v>
       </c>
     </row>
     <row r="2879">
@@ -23111,7 +23111,7 @@
         <v>44216.0</v>
       </c>
       <c r="B2879" s="2" t="n">
-        <v>90.4601</v>
+        <v>90.46010000000001</v>
       </c>
     </row>
     <row r="2880">
@@ -23143,7 +23143,7 @@
         <v>44222.0</v>
       </c>
       <c r="B2883" s="2" t="n">
-        <v>90.1869</v>
+        <v>90.18690000000001</v>
       </c>
     </row>
     <row r="2884">
@@ -23159,7 +23159,7 @@
         <v>44224.0</v>
       </c>
       <c r="B2885" s="2" t="n">
-        <v>90.5405</v>
+        <v>90.54050000000001</v>
       </c>
     </row>
     <row r="2886">
@@ -23167,7 +23167,7 @@
         <v>44225.0</v>
       </c>
       <c r="B2886" s="2" t="n">
-        <v>90.5382</v>
+        <v>90.53819999999999</v>
       </c>
     </row>
     <row r="2887">
@@ -23191,7 +23191,7 @@
         <v>44230.0</v>
       </c>
       <c r="B2889" s="2" t="n">
-        <v>91.1129</v>
+        <v>91.11290000000001</v>
       </c>
     </row>
     <row r="2890">
@@ -23239,7 +23239,7 @@
         <v>44238.0</v>
       </c>
       <c r="B2895" s="2" t="n">
-        <v>90.4038</v>
+        <v>90.40379999999999</v>
       </c>
     </row>
     <row r="2896">
@@ -23271,7 +23271,7 @@
         <v>44244.0</v>
       </c>
       <c r="B2899" s="2" t="n">
-        <v>90.9146</v>
+        <v>90.91460000000001</v>
       </c>
     </row>
     <row r="2900">
@@ -23359,7 +23359,7 @@
         <v>44259.0</v>
       </c>
       <c r="B2910" s="2" t="n">
-        <v>91.6141</v>
+        <v>91.61410000000001</v>
       </c>
     </row>
     <row r="2911">
@@ -23375,7 +23375,7 @@
         <v>44263.0</v>
       </c>
       <c r="B2912" s="2" t="n">
-        <v>92.4074</v>
+        <v>92.40740000000001</v>
       </c>
     </row>
     <row r="2913">
@@ -23399,7 +23399,7 @@
         <v>44266.0</v>
       </c>
       <c r="B2915" s="2" t="n">
-        <v>91.4172</v>
+        <v>91.41720000000001</v>
       </c>
     </row>
     <row r="2916">
@@ -23527,7 +23527,7 @@
         <v>44288.0</v>
       </c>
       <c r="B2931" s="2" t="n">
-        <v>92.9977</v>
+        <v>92.99770000000001</v>
       </c>
     </row>
     <row r="2932">
@@ -23575,7 +23575,7 @@
         <v>44298.0</v>
       </c>
       <c r="B2937" s="2" t="n">
-        <v>92.1065</v>
+        <v>92.10650000000001</v>
       </c>
     </row>
     <row r="2938">
@@ -23583,7 +23583,7 @@
         <v>44299.0</v>
       </c>
       <c r="B2938" s="2" t="n">
-        <v>91.8444</v>
+        <v>91.84440000000001</v>
       </c>
     </row>
     <row r="2939">
@@ -23655,7 +23655,7 @@
         <v>44312.0</v>
       </c>
       <c r="B2947" s="2" t="n">
-        <v>90.8405</v>
+        <v>90.84049999999999</v>
       </c>
     </row>
     <row r="2948">
@@ -23695,7 +23695,7 @@
         <v>44319.0</v>
       </c>
       <c r="B2952" s="2" t="n">
-        <v>90.9698</v>
+        <v>90.96979999999999</v>
       </c>
     </row>
     <row r="2953">
@@ -23759,7 +23759,7 @@
         <v>44329.0</v>
       </c>
       <c r="B2960" s="2" t="n">
-        <v>90.737</v>
+        <v>90.73700000000001</v>
       </c>
     </row>
     <row r="2961">
@@ -23815,7 +23815,7 @@
         <v>44340.0</v>
       </c>
       <c r="B2967" s="2" t="n">
-        <v>89.8363</v>
+        <v>89.83630000000001</v>
       </c>
     </row>
     <row r="2968">
@@ -23823,7 +23823,7 @@
         <v>44341.0</v>
       </c>
       <c r="B2968" s="2" t="n">
-        <v>89.6685</v>
+        <v>89.66850000000001</v>
       </c>
     </row>
     <row r="2969">
@@ -23839,7 +23839,7 @@
         <v>44343.0</v>
       </c>
       <c r="B2970" s="2" t="n">
-        <v>90.0015</v>
+        <v>90.00150000000001</v>
       </c>
     </row>
     <row r="2971">
@@ -23879,7 +23879,7 @@
         <v>44350.0</v>
       </c>
       <c r="B2975" s="2" t="n">
-        <v>90.495</v>
+        <v>90.49499999999999</v>
       </c>
     </row>
     <row r="2976">
@@ -23943,7 +23943,7 @@
         <v>44362.0</v>
       </c>
       <c r="B2983" s="2" t="n">
-        <v>90.522</v>
+        <v>90.52199999999999</v>
       </c>
     </row>
     <row r="2984">
@@ -23959,7 +23959,7 @@
         <v>44364.0</v>
       </c>
       <c r="B2985" s="2" t="n">
-        <v>91.9096</v>
+        <v>91.90960000000001</v>
       </c>
     </row>
     <row r="2986">
@@ -23967,7 +23967,7 @@
         <v>44365.0</v>
       </c>
       <c r="B2986" s="2" t="n">
-        <v>92.3217</v>
+        <v>92.32169999999999</v>
       </c>
     </row>
     <row r="2987">
@@ -23999,7 +23999,7 @@
         <v>44371.0</v>
       </c>
       <c r="B2990" s="2" t="n">
-        <v>91.8153</v>
+        <v>91.81530000000001</v>
       </c>
     </row>
     <row r="2991">
@@ -24015,7 +24015,7 @@
         <v>44375.0</v>
       </c>
       <c r="B2992" s="2" t="n">
-        <v>91.8795</v>
+        <v>91.87950000000001</v>
       </c>
     </row>
     <row r="2993">
@@ -24055,7 +24055,7 @@
         <v>44382.0</v>
       </c>
       <c r="B2997" s="2" t="n">
-        <v>92.2566</v>
+        <v>92.25659999999999</v>
       </c>
     </row>
     <row r="2998">
@@ -24071,7 +24071,7 @@
         <v>44384.0</v>
       </c>
       <c r="B2999" s="2" t="n">
-        <v>92.7206</v>
+        <v>92.72059999999999</v>
       </c>
     </row>
     <row r="3000">
@@ -24079,7 +24079,7 @@
         <v>44385.0</v>
       </c>
       <c r="B3000" s="2" t="n">
-        <v>92.3757</v>
+        <v>92.37570000000001</v>
       </c>
     </row>
     <row r="3001">
@@ -24087,7 +24087,7 @@
         <v>44386.0</v>
       </c>
       <c r="B3001" s="2" t="n">
-        <v>92.1012</v>
+        <v>92.10119999999999</v>
       </c>
     </row>
     <row r="3002">
@@ -24135,7 +24135,7 @@
         <v>44396.0</v>
       </c>
       <c r="B3007" s="2" t="n">
-        <v>92.8327</v>
+        <v>92.83269999999999</v>
       </c>
     </row>
     <row r="3008">
@@ -24199,7 +24199,7 @@
         <v>44406.0</v>
       </c>
       <c r="B3015" s="2" t="n">
-        <v>91.9077</v>
+        <v>91.90769999999999</v>
       </c>
     </row>
     <row r="3016">
@@ -24255,7 +24255,7 @@
         <v>44417.0</v>
       </c>
       <c r="B3022" s="2" t="n">
-        <v>92.9766</v>
+        <v>92.97659999999999</v>
       </c>
     </row>
     <row r="3023">
@@ -24271,7 +24271,7 @@
         <v>44419.0</v>
       </c>
       <c r="B3024" s="2" t="n">
-        <v>92.9175</v>
+        <v>92.91749999999999</v>
       </c>
     </row>
     <row r="3025">
@@ -24359,7 +24359,7 @@
         <v>44434.0</v>
       </c>
       <c r="B3035" s="2" t="n">
-        <v>93.0585</v>
+        <v>93.05850000000001</v>
       </c>
     </row>
     <row r="3036">
@@ -24399,7 +24399,7 @@
         <v>44441.0</v>
       </c>
       <c r="B3040" s="2" t="n">
-        <v>92.2167</v>
+        <v>92.21669999999999</v>
       </c>
     </row>
     <row r="3041">
@@ -24447,7 +24447,7 @@
         <v>44449.0</v>
       </c>
       <c r="B3046" s="2" t="n">
-        <v>92.6398</v>
+        <v>92.63980000000001</v>
       </c>
     </row>
     <row r="3047">
@@ -24511,7 +24511,7 @@
         <v>44461.0</v>
       </c>
       <c r="B3054" s="2" t="n">
-        <v>93.4763</v>
+        <v>93.47630000000001</v>
       </c>
     </row>
     <row r="3055">
@@ -24519,7 +24519,7 @@
         <v>44462.0</v>
       </c>
       <c r="B3055" s="2" t="n">
-        <v>93.0987</v>
+        <v>93.09870000000001</v>
       </c>
     </row>
     <row r="3056">
@@ -24535,7 +24535,7 @@
         <v>44466.0</v>
       </c>
       <c r="B3057" s="2" t="n">
-        <v>93.4227</v>
+        <v>93.42269999999999</v>
       </c>
     </row>
     <row r="3058">
@@ -24575,7 +24575,7 @@
         <v>44473.0</v>
       </c>
       <c r="B3062" s="2" t="n">
-        <v>93.8182</v>
+        <v>93.81819999999999</v>
       </c>
     </row>
     <row r="3063">
@@ -24655,7 +24655,7 @@
         <v>44487.0</v>
       </c>
       <c r="B3072" s="2" t="n">
-        <v>93.9591</v>
+        <v>93.95909999999999</v>
       </c>
     </row>
     <row r="3073">
@@ -24663,7 +24663,7 @@
         <v>44488.0</v>
       </c>
       <c r="B3073" s="2" t="n">
-        <v>93.7797</v>
+        <v>93.77969999999999</v>
       </c>
     </row>
     <row r="3074">
@@ -24695,7 +24695,7 @@
         <v>44494.0</v>
       </c>
       <c r="B3077" s="2" t="n">
-        <v>93.8393</v>
+        <v>93.83930000000001</v>
       </c>
     </row>
     <row r="3078">
@@ -24703,7 +24703,7 @@
         <v>44495.0</v>
       </c>
       <c r="B3078" s="2" t="n">
-        <v>93.9591</v>
+        <v>93.95909999999999</v>
       </c>
     </row>
     <row r="3079">
@@ -24719,7 +24719,7 @@
         <v>44497.0</v>
       </c>
       <c r="B3080" s="2" t="n">
-        <v>93.3606</v>
+        <v>93.36059999999999</v>
       </c>
     </row>
     <row r="3081">
@@ -24751,7 +24751,7 @@
         <v>44503.0</v>
       </c>
       <c r="B3084" s="2" t="n">
-        <v>93.8671</v>
+        <v>93.86710000000001</v>
       </c>
     </row>
     <row r="3085">
@@ -24767,7 +24767,7 @@
         <v>44505.0</v>
       </c>
       <c r="B3086" s="2" t="n">
-        <v>94.2241</v>
+        <v>94.22409999999999</v>
       </c>
     </row>
     <row r="3087">
@@ -24799,7 +24799,7 @@
         <v>44511.0</v>
       </c>
       <c r="B3090" s="2" t="n">
-        <v>95.1507</v>
+        <v>95.15070000000001</v>
       </c>
     </row>
     <row r="3091">
@@ -24823,7 +24823,7 @@
         <v>44516.0</v>
       </c>
       <c r="B3093" s="2" t="n">
-        <v>95.9116</v>
+        <v>95.91159999999999</v>
       </c>
     </row>
     <row r="3094">
@@ -24839,7 +24839,7 @@
         <v>44518.0</v>
       </c>
       <c r="B3095" s="2" t="n">
-        <v>95.5414</v>
+        <v>95.54140000000001</v>
       </c>
     </row>
     <row r="3096">
@@ -24855,7 +24855,7 @@
         <v>44522.0</v>
       </c>
       <c r="B3097" s="2" t="n">
-        <v>96.5036</v>
+        <v>96.50359999999999</v>
       </c>
     </row>
     <row r="3098">
@@ -24871,7 +24871,7 @@
         <v>44524.0</v>
       </c>
       <c r="B3099" s="2" t="n">
-        <v>96.843</v>
+        <v>96.84299999999999</v>
       </c>
     </row>
     <row r="3100">
@@ -24895,7 +24895,7 @@
         <v>44529.0</v>
       </c>
       <c r="B3102" s="2" t="n">
-        <v>96.172</v>
+        <v>96.17200000000001</v>
       </c>
     </row>
     <row r="3103">
@@ -24927,7 +24927,7 @@
         <v>44533.0</v>
       </c>
       <c r="B3106" s="2" t="n">
-        <v>96.1715</v>
+        <v>96.17150000000001</v>
       </c>
     </row>
     <row r="3107">
@@ -24935,7 +24935,7 @@
         <v>44536.0</v>
       </c>
       <c r="B3107" s="2" t="n">
-        <v>96.2777</v>
+        <v>96.27770000000001</v>
       </c>
     </row>
     <row r="3108">
@@ -24959,7 +24959,7 @@
         <v>44539.0</v>
       </c>
       <c r="B3110" s="2" t="n">
-        <v>96.2233</v>
+        <v>96.22330000000001</v>
       </c>
     </row>
     <row r="3111">
@@ -24967,7 +24967,7 @@
         <v>44540.0</v>
       </c>
       <c r="B3111" s="2" t="n">
-        <v>96.0496</v>
+        <v>96.04960000000001</v>
       </c>
     </row>
     <row r="3112">
@@ -24975,7 +24975,7 @@
         <v>44543.0</v>
       </c>
       <c r="B3112" s="2" t="n">
-        <v>96.3529</v>
+        <v>96.35289999999999</v>
       </c>
     </row>
     <row r="3113">
@@ -24999,7 +24999,7 @@
         <v>44546.0</v>
       </c>
       <c r="B3115" s="2" t="n">
-        <v>95.99</v>
+        <v>95.99000000000001</v>
       </c>
     </row>
     <row r="3116">
@@ -25015,7 +25015,7 @@
         <v>44550.0</v>
       </c>
       <c r="B3117" s="2" t="n">
-        <v>96.516</v>
+        <v>96.51599999999999</v>
       </c>
     </row>
     <row r="3118">
@@ -25039,7 +25039,7 @@
         <v>44553.0</v>
       </c>
       <c r="B3120" s="2" t="n">
-        <v>96.0602</v>
+        <v>96.06020000000001</v>
       </c>
     </row>
     <row r="3121">
@@ -25047,7 +25047,7 @@
         <v>44554.0</v>
       </c>
       <c r="B3121" s="2" t="n">
-        <v>96.1327</v>
+        <v>96.13269999999999</v>
       </c>
     </row>
     <row r="3122">
@@ -25095,7 +25095,7 @@
         <v>44564.0</v>
       </c>
       <c r="B3127" s="2" t="n">
-        <v>96.2181</v>
+        <v>96.21809999999999</v>
       </c>
     </row>
     <row r="3128">
@@ -25119,7 +25119,7 @@
         <v>44567.0</v>
       </c>
       <c r="B3130" s="2" t="n">
-        <v>96.2316</v>
+        <v>96.23159999999999</v>
       </c>
     </row>
     <row r="3131">
@@ -25135,7 +25135,7 @@
         <v>44571.0</v>
       </c>
       <c r="B3132" s="2" t="n">
-        <v>95.953</v>
+        <v>95.95299999999999</v>
       </c>
     </row>
     <row r="3133">
@@ -25143,7 +25143,7 @@
         <v>44572.0</v>
       </c>
       <c r="B3133" s="2" t="n">
-        <v>95.5957</v>
+        <v>95.59570000000001</v>
       </c>
     </row>
     <row r="3134">
@@ -25159,7 +25159,7 @@
         <v>44574.0</v>
       </c>
       <c r="B3135" s="2" t="n">
-        <v>94.8822</v>
+        <v>94.88220000000001</v>
       </c>
     </row>
     <row r="3136">
@@ -25175,7 +25175,7 @@
         <v>44578.0</v>
       </c>
       <c r="B3137" s="2" t="n">
-        <v>95.259</v>
+        <v>95.25899999999999</v>
       </c>
     </row>
     <row r="3138">
@@ -25183,7 +25183,7 @@
         <v>44579.0</v>
       </c>
       <c r="B3138" s="2" t="n">
-        <v>95.7298</v>
+        <v>95.72980000000001</v>
       </c>
     </row>
     <row r="3139">
@@ -25199,7 +25199,7 @@
         <v>44581.0</v>
       </c>
       <c r="B3140" s="2" t="n">
-        <v>95.7948</v>
+        <v>95.79480000000001</v>
       </c>
     </row>
     <row r="3141">
@@ -25295,7 +25295,7 @@
         <v>44599.0</v>
       </c>
       <c r="B3152" s="2" t="n">
-        <v>95.412</v>
+        <v>95.41199999999999</v>
       </c>
     </row>
     <row r="3153">
@@ -25311,7 +25311,7 @@
         <v>44601.0</v>
       </c>
       <c r="B3154" s="2" t="n">
-        <v>95.5588</v>
+        <v>95.55879999999999</v>
       </c>
     </row>
     <row r="3155">
@@ -25359,7 +25359,7 @@
         <v>44609.0</v>
       </c>
       <c r="B3160" s="2" t="n">
-        <v>95.8216</v>
+        <v>95.82159999999999</v>
       </c>
     </row>
     <row r="3161">
@@ -25383,7 +25383,7 @@
         <v>44614.0</v>
       </c>
       <c r="B3163" s="2" t="n">
-        <v>96.0844</v>
+        <v>96.08439999999999</v>
       </c>
     </row>
     <row r="3164">
@@ -25423,7 +25423,7 @@
         <v>44621.0</v>
       </c>
       <c r="B3168" s="2" t="n">
-        <v>97.4044</v>
+        <v>97.40440000000001</v>
       </c>
     </row>
     <row r="3169">
@@ -25439,7 +25439,7 @@
         <v>44623.0</v>
       </c>
       <c r="B3170" s="2" t="n">
-        <v>97.7267</v>
+        <v>97.72670000000001</v>
       </c>
     </row>
     <row r="3171">
@@ -25471,7 +25471,7 @@
         <v>44629.0</v>
       </c>
       <c r="B3174" s="2" t="n">
-        <v>97.9601</v>
+        <v>97.96010000000001</v>
       </c>
     </row>
     <row r="3175">
@@ -25479,7 +25479,7 @@
         <v>44630.0</v>
       </c>
       <c r="B3175" s="2" t="n">
-        <v>98.516</v>
+        <v>98.51599999999999</v>
       </c>
     </row>
     <row r="3176">
@@ -25495,7 +25495,7 @@
         <v>44634.0</v>
       </c>
       <c r="B3177" s="2" t="n">
-        <v>99.1193</v>
+        <v>99.11930000000001</v>
       </c>
     </row>
     <row r="3178">
@@ -25511,7 +25511,7 @@
         <v>44636.0</v>
       </c>
       <c r="B3179" s="2" t="n">
-        <v>98.3755</v>
+        <v>98.37549999999999</v>
       </c>
     </row>
     <row r="3180">
@@ -25519,7 +25519,7 @@
         <v>44637.0</v>
       </c>
       <c r="B3180" s="2" t="n">
-        <v>98.0175</v>
+        <v>98.01749999999998</v>
       </c>
     </row>
     <row r="3181">
@@ -25527,7 +25527,7 @@
         <v>44638.0</v>
       </c>
       <c r="B3181" s="2" t="n">
-        <v>98.2282</v>
+        <v>98.22819999999999</v>
       </c>
     </row>
     <row r="3182">
@@ -25551,7 +25551,7 @@
         <v>44643.0</v>
       </c>
       <c r="B3184" s="2" t="n">
-        <v>98.647</v>
+        <v>98.64699999999999</v>
       </c>
     </row>
     <row r="3185">
@@ -25615,7 +25615,7 @@
         <v>44655.0</v>
       </c>
       <c r="B3192" s="2" t="n">
-        <v>99.0122</v>
+        <v>99.01219999999999</v>
       </c>
     </row>
     <row r="3193">
@@ -25631,7 +25631,7 @@
         <v>44657.0</v>
       </c>
       <c r="B3194" s="2" t="n">
-        <v>99.6457</v>
+        <v>99.64569999999999</v>
       </c>
     </row>
     <row r="3195">
@@ -25687,7 +25687,7 @@
         <v>44666.0</v>
       </c>
       <c r="B3201" s="2" t="n">
-        <v>100.5201</v>
+        <v>100.52010000000001</v>
       </c>
     </row>
     <row r="3202">
@@ -25743,7 +25743,7 @@
         <v>44677.0</v>
       </c>
       <c r="B3208" s="2" t="n">
-        <v>101.7393</v>
+        <v>101.73930000000001</v>
       </c>
     </row>
     <row r="3209">
@@ -25791,7 +25791,7 @@
         <v>44685.0</v>
       </c>
       <c r="B3214" s="2" t="n">
-        <v>102.5122</v>
+        <v>102.51219999999999</v>
       </c>
     </row>
     <row r="3215">
@@ -25815,7 +25815,7 @@
         <v>44690.0</v>
       </c>
       <c r="B3217" s="2" t="n">
-        <v>103.7264</v>
+        <v>103.72639999999998</v>
       </c>
     </row>
     <row r="3218">
@@ -25823,7 +25823,7 @@
         <v>44691.0</v>
       </c>
       <c r="B3218" s="2" t="n">
-        <v>103.9278</v>
+        <v>103.92779999999999</v>
       </c>
     </row>
     <row r="3219">
@@ -25855,7 +25855,7 @@
         <v>44697.0</v>
       </c>
       <c r="B3222" s="2" t="n">
-        <v>104.223</v>
+        <v>104.22300000000001</v>
       </c>
     </row>
     <row r="3223">
@@ -25863,7 +25863,7 @@
         <v>44698.0</v>
       </c>
       <c r="B3223" s="2" t="n">
-        <v>103.2971</v>
+        <v>103.29709999999999</v>
       </c>
     </row>
     <row r="3224">
@@ -25943,7 +25943,7 @@
         <v>44712.0</v>
       </c>
       <c r="B3233" s="2" t="n">
-        <v>101.7679</v>
+        <v>101.76789999999998</v>
       </c>
     </row>
     <row r="3234">
@@ -25959,7 +25959,7 @@
         <v>44714.0</v>
       </c>
       <c r="B3235" s="2" t="n">
-        <v>101.7797</v>
+        <v>101.77969999999999</v>
       </c>
     </row>
     <row r="3236">
@@ -25975,7 +25975,7 @@
         <v>44718.0</v>
       </c>
       <c r="B3237" s="2" t="n">
-        <v>102.3982</v>
+        <v>102.39819999999999</v>
       </c>
     </row>
     <row r="3238">
@@ -25991,7 +25991,7 @@
         <v>44720.0</v>
       </c>
       <c r="B3239" s="2" t="n">
-        <v>102.5613</v>
+        <v>102.56129999999999</v>
       </c>
     </row>
     <row r="3240">
@@ -26015,7 +26015,7 @@
         <v>44725.0</v>
       </c>
       <c r="B3242" s="2" t="n">
-        <v>105.2277</v>
+        <v>105.22770000000001</v>
       </c>
     </row>
     <row r="3243">
@@ -26031,7 +26031,7 @@
         <v>44727.0</v>
       </c>
       <c r="B3244" s="2" t="n">
-        <v>104.8694</v>
+        <v>104.86940000000001</v>
       </c>
     </row>
     <row r="3245">
@@ -26039,7 +26039,7 @@
         <v>44728.0</v>
       </c>
       <c r="B3245" s="2" t="n">
-        <v>103.8326</v>
+        <v>103.83260000000001</v>
       </c>
     </row>
     <row r="3246">
@@ -26055,7 +26055,7 @@
         <v>44732.0</v>
       </c>
       <c r="B3247" s="2" t="n">
-        <v>104.5045</v>
+        <v>104.50450000000001</v>
       </c>
     </row>
     <row r="3248">
@@ -26103,7 +26103,7 @@
         <v>44740.0</v>
       </c>
       <c r="B3253" s="2" t="n">
-        <v>104.5001</v>
+        <v>104.50009999999999</v>
       </c>
     </row>
     <row r="3254">
@@ -26111,7 +26111,7 @@
         <v>44741.0</v>
       </c>
       <c r="B3254" s="2" t="n">
-        <v>105.1129</v>
+        <v>105.11290000000001</v>
       </c>
     </row>
     <row r="3255">
@@ -26119,7 +26119,7 @@
         <v>44742.0</v>
       </c>
       <c r="B3255" s="2" t="n">
-        <v>104.7057</v>
+        <v>104.70570000000001</v>
       </c>
     </row>
     <row r="3256">
@@ -26199,7 +26199,7 @@
         <v>44756.0</v>
       </c>
       <c r="B3265" s="2" t="n">
-        <v>108.6379</v>
+        <v>108.63789999999999</v>
       </c>
     </row>
     <row r="3266">
@@ -26207,7 +26207,7 @@
         <v>44757.0</v>
       </c>
       <c r="B3266" s="2" t="n">
-        <v>107.9817</v>
+        <v>107.98169999999999</v>
       </c>
     </row>
     <row r="3267">
@@ -26223,7 +26223,7 @@
         <v>44761.0</v>
       </c>
       <c r="B3268" s="2" t="n">
-        <v>106.7089</v>
+        <v>106.70890000000001</v>
       </c>
     </row>
     <row r="3269">
@@ -26239,7 +26239,7 @@
         <v>44763.0</v>
       </c>
       <c r="B3270" s="2" t="n">
-        <v>106.5673</v>
+        <v>106.56729999999999</v>
       </c>
     </row>
     <row r="3271">
@@ -26247,7 +26247,7 @@
         <v>44764.0</v>
       </c>
       <c r="B3271" s="2" t="n">
-        <v>106.5518</v>
+        <v>106.55179999999999</v>
       </c>
     </row>
     <row r="3272">
@@ -26255,7 +26255,7 @@
         <v>44767.0</v>
       </c>
       <c r="B3272" s="2" t="n">
-        <v>106.5518</v>
+        <v>106.55179999999999</v>
       </c>
     </row>
     <row r="3273">
@@ -26271,7 +26271,7 @@
         <v>44769.0</v>
       </c>
       <c r="B3274" s="2" t="n">
-        <v>106.4861</v>
+        <v>106.48610000000001</v>
       </c>
     </row>
     <row r="3275">
@@ -26279,7 +26279,7 @@
         <v>44770.0</v>
       </c>
       <c r="B3275" s="2" t="n">
-        <v>106.1656</v>
+        <v>106.16560000000001</v>
       </c>
     </row>
     <row r="3276">
@@ -26311,7 +26311,7 @@
         <v>44776.0</v>
       </c>
       <c r="B3279" s="2" t="n">
-        <v>106.4004</v>
+        <v>106.40039999999999</v>
       </c>
     </row>
     <row r="3280">
@@ -26319,7 +26319,7 @@
         <v>44777.0</v>
       </c>
       <c r="B3280" s="2" t="n">
-        <v>105.7453</v>
+        <v>105.74529999999999</v>
       </c>
     </row>
     <row r="3281">
@@ -26327,7 +26327,7 @@
         <v>44778.0</v>
       </c>
       <c r="B3281" s="2" t="n">
-        <v>106.5714</v>
+        <v>106.57140000000001</v>
       </c>
     </row>
     <row r="3282">
@@ -26335,7 +26335,7 @@
         <v>44781.0</v>
       </c>
       <c r="B3282" s="2" t="n">
-        <v>106.3827</v>
+        <v>106.38270000000001</v>
       </c>
     </row>
     <row r="3283">
@@ -26359,7 +26359,7 @@
         <v>44784.0</v>
       </c>
       <c r="B3285" s="2" t="n">
-        <v>105.1061</v>
+        <v>105.10610000000001</v>
       </c>
     </row>
     <row r="3286">
@@ -26367,7 +26367,7 @@
         <v>44785.0</v>
       </c>
       <c r="B3286" s="2" t="n">
-        <v>105.6788</v>
+        <v>105.67880000000001</v>
       </c>
     </row>
     <row r="3287">
@@ -26407,7 +26407,7 @@
         <v>44792.0</v>
       </c>
       <c r="B3291" s="2" t="n">
-        <v>108.1102</v>
+        <v>108.11019999999999</v>
       </c>
     </row>
     <row r="3292">
@@ -26423,7 +26423,7 @@
         <v>44796.0</v>
       </c>
       <c r="B3293" s="2" t="n">
-        <v>108.5394</v>
+        <v>108.53940000000001</v>
       </c>
     </row>
     <row r="3294">
@@ -26439,7 +26439,7 @@
         <v>44798.0</v>
       </c>
       <c r="B3295" s="2" t="n">
-        <v>108.4253</v>
+        <v>108.42530000000001</v>
       </c>
     </row>
     <row r="3296">
@@ -26447,7 +26447,7 @@
         <v>44799.0</v>
       </c>
       <c r="B3296" s="2" t="n">
-        <v>108.8564</v>
+        <v>108.85640000000001</v>
       </c>
     </row>
     <row r="3297">
@@ -26479,7 +26479,7 @@
         <v>44805.0</v>
       </c>
       <c r="B3300" s="2" t="n">
-        <v>109.6649</v>
+        <v>109.66489999999999</v>
       </c>
     </row>
     <row r="3301">
@@ -26495,7 +26495,7 @@
         <v>44809.0</v>
       </c>
       <c r="B3302" s="2" t="n">
-        <v>109.819</v>
+        <v>109.81899999999999</v>
       </c>
     </row>
     <row r="3303">
@@ -26519,7 +26519,7 @@
         <v>44812.0</v>
       </c>
       <c r="B3305" s="2" t="n">
-        <v>109.6528</v>
+        <v>109.65279999999998</v>
       </c>
     </row>
     <row r="3306">
@@ -26551,7 +26551,7 @@
         <v>44818.0</v>
       </c>
       <c r="B3309" s="2" t="n">
-        <v>109.6461</v>
+        <v>109.64609999999999</v>
       </c>
     </row>
     <row r="3310">
@@ -26559,7 +26559,7 @@
         <v>44819.0</v>
       </c>
       <c r="B3310" s="2" t="n">
-        <v>109.6856</v>
+        <v>109.68560000000001</v>
       </c>
     </row>
     <row r="3311">
@@ -26607,7 +26607,7 @@
         <v>44827.0</v>
       </c>
       <c r="B3316" s="2" t="n">
-        <v>113.0324</v>
+        <v>113.03240000000001</v>
       </c>
     </row>
     <row r="3317">
@@ -26615,7 +26615,7 @@
         <v>44830.0</v>
       </c>
       <c r="B3317" s="2" t="n">
-        <v>114.1146</v>
+        <v>114.11460000000001</v>
       </c>
     </row>
     <row r="3318">
@@ -26639,7 +26639,7 @@
         <v>44833.0</v>
       </c>
       <c r="B3320" s="2" t="n">
-        <v>111.9699</v>
+        <v>111.96990000000001</v>
       </c>
     </row>
     <row r="3321">
@@ -26655,7 +26655,7 @@
         <v>44837.0</v>
       </c>
       <c r="B3322" s="2" t="n">
-        <v>111.6392</v>
+        <v>111.63919999999999</v>
       </c>
     </row>
     <row r="3323">
@@ -26687,7 +26687,7 @@
         <v>44841.0</v>
       </c>
       <c r="B3326" s="2" t="n">
-        <v>112.7562</v>
+        <v>112.75619999999999</v>
       </c>
     </row>
     <row r="3327">
@@ -26695,7 +26695,7 @@
         <v>44844.0</v>
       </c>
       <c r="B3327" s="2" t="n">
-        <v>113.1571</v>
+        <v>113.15710000000001</v>
       </c>
     </row>
     <row r="3328">
@@ -26703,7 +26703,7 @@
         <v>44845.0</v>
       </c>
       <c r="B3328" s="2" t="n">
-        <v>113.2941</v>
+        <v>113.29409999999999</v>
       </c>
     </row>
     <row r="3329">
@@ -26719,7 +26719,7 @@
         <v>44847.0</v>
       </c>
       <c r="B3330" s="2" t="n">
-        <v>112.4601</v>
+        <v>112.46010000000001</v>
       </c>
     </row>
     <row r="3331">
@@ -26735,7 +26735,7 @@
         <v>44851.0</v>
       </c>
       <c r="B3332" s="2" t="n">
-        <v>112.0931</v>
+        <v>112.09309999999999</v>
       </c>
     </row>
     <row r="3333">
@@ -26759,7 +26759,7 @@
         <v>44854.0</v>
       </c>
       <c r="B3335" s="2" t="n">
-        <v>112.8273</v>
+        <v>112.82730000000001</v>
       </c>
     </row>
     <row r="3336">
@@ -26839,7 +26839,7 @@
         <v>44868.0</v>
       </c>
       <c r="B3345" s="2" t="n">
-        <v>112.9842</v>
+        <v>112.98420000000002</v>
       </c>
     </row>
     <row r="3346">
@@ -26887,7 +26887,7 @@
         <v>44876.0</v>
       </c>
       <c r="B3351" s="2" t="n">
-        <v>106.4083</v>
+        <v>106.40830000000001</v>
       </c>
     </row>
     <row r="3352">
@@ -26935,7 +26935,7 @@
         <v>44886.0</v>
       </c>
       <c r="B3357" s="2" t="n">
-        <v>107.8226</v>
+        <v>107.82260000000001</v>
       </c>
     </row>
     <row r="3358">
@@ -26999,7 +26999,7 @@
         <v>44896.0</v>
       </c>
       <c r="B3365" s="2" t="n">
-        <v>104.7036</v>
+        <v>104.70360000000001</v>
       </c>
     </row>
     <row r="3366">
@@ -27023,7 +27023,7 @@
         <v>44901.0</v>
       </c>
       <c r="B3368" s="2" t="n">
-        <v>105.5641</v>
+        <v>105.56410000000001</v>
       </c>
     </row>
     <row r="3369">
@@ -27031,7 +27031,7 @@
         <v>44902.0</v>
       </c>
       <c r="B3369" s="2" t="n">
-        <v>105.1983</v>
+        <v>105.19829999999999</v>
       </c>
     </row>
     <row r="3370">
@@ -27047,7 +27047,7 @@
         <v>44904.0</v>
       </c>
       <c r="B3371" s="2" t="n">
-        <v>104.9257</v>
+        <v>104.92569999999999</v>
       </c>
     </row>
     <row r="3372">
@@ -27087,7 +27087,7 @@
         <v>44911.0</v>
       </c>
       <c r="B3376" s="2" t="n">
-        <v>104.8466</v>
+        <v>104.84660000000001</v>
       </c>
     </row>
     <row r="3377">
@@ -27095,7 +27095,7 @@
         <v>44914.0</v>
       </c>
       <c r="B3377" s="2" t="n">
-        <v>104.6791</v>
+        <v>104.67909999999999</v>
       </c>
     </row>
     <row r="3378">
@@ -27103,7 +27103,7 @@
         <v>44915.0</v>
       </c>
       <c r="B3378" s="2" t="n">
-        <v>103.9665</v>
+        <v>103.96650000000001</v>
       </c>
     </row>
     <row r="3379">
@@ -27135,7 +27135,7 @@
         <v>44921.0</v>
       </c>
       <c r="B3382" s="2" t="n">
-        <v>104.1681</v>
+        <v>104.16810000000001</v>
       </c>
     </row>
     <row r="3383">
@@ -27167,7 +27167,7 @@
         <v>44925.0</v>
       </c>
       <c r="B3386" s="2" t="n">
-        <v>103.4895</v>
+        <v>103.48949999999999</v>
       </c>
     </row>
     <row r="3387">
@@ -27175,7 +27175,7 @@
         <v>44928.0</v>
       </c>
       <c r="B3387" s="2" t="n">
-        <v>103.7683</v>
+        <v>103.76830000000001</v>
       </c>
     </row>
     <row r="3388">
@@ -27191,7 +27191,7 @@
         <v>44930.0</v>
       </c>
       <c r="B3389" s="2" t="n">
-        <v>104.2669</v>
+        <v>104.26689999999999</v>
       </c>
     </row>
     <row r="3390">
@@ -27207,7 +27207,7 @@
         <v>44932.0</v>
       </c>
       <c r="B3391" s="2" t="n">
-        <v>103.9091</v>
+        <v>103.90910000000001</v>
       </c>
     </row>
     <row r="3392">
@@ -27215,7 +27215,7 @@
         <v>44935.0</v>
       </c>
       <c r="B3392" s="2" t="n">
-        <v>103.1892</v>
+        <v>103.18920000000001</v>
       </c>
     </row>
     <row r="3393">
@@ -27247,7 +27247,7 @@
         <v>44939.0</v>
       </c>
       <c r="B3396" s="2" t="n">
-        <v>102.1682</v>
+        <v>102.16820000000001</v>
       </c>
     </row>
     <row r="3397">
@@ -27263,7 +27263,7 @@
         <v>44943.0</v>
       </c>
       <c r="B3398" s="2" t="n">
-        <v>102.3894</v>
+        <v>102.38940000000001</v>
       </c>
     </row>
     <row r="3399">
@@ -27271,7 +27271,7 @@
         <v>44944.0</v>
       </c>
       <c r="B3399" s="2" t="n">
-        <v>102.4052</v>
+        <v>102.40520000000001</v>
       </c>
     </row>
     <row r="3400">
@@ -27279,7 +27279,7 @@
         <v>44945.0</v>
       </c>
       <c r="B3400" s="2" t="n">
-        <v>102.0712</v>
+        <v>102.07119999999999</v>
       </c>
     </row>
     <row r="3401">
@@ -27303,7 +27303,7 @@
         <v>44950.0</v>
       </c>
       <c r="B3403" s="2" t="n">
-        <v>101.9081</v>
+        <v>101.90809999999999</v>
       </c>
     </row>
     <row r="3404">
@@ -27311,7 +27311,7 @@
         <v>44951.0</v>
       </c>
       <c r="B3404" s="2" t="n">
-        <v>101.6427</v>
+        <v>101.64269999999999</v>
       </c>
     </row>
     <row r="3405">
@@ -27319,7 +27319,7 @@
         <v>44952.0</v>
       </c>
       <c r="B3405" s="2" t="n">
-        <v>101.8167</v>
+        <v>101.81670000000001</v>
       </c>
     </row>
     <row r="3406">
@@ -27327,7 +27327,7 @@
         <v>44953.0</v>
       </c>
       <c r="B3406" s="2" t="n">
-        <v>101.922</v>
+        <v>101.92200000000001</v>
       </c>
     </row>
     <row r="3407">
@@ -27343,7 +27343,7 @@
         <v>44957.0</v>
       </c>
       <c r="B3408" s="2" t="n">
-        <v>102.1037</v>
+        <v>102.10369999999999</v>
       </c>
     </row>
     <row r="3409">
@@ -27367,7 +27367,7 @@
         <v>44960.0</v>
       </c>
       <c r="B3411" s="2" t="n">
-        <v>102.9959</v>
+        <v>102.99589999999999</v>
       </c>
     </row>
     <row r="3412">
@@ -27375,7 +27375,7 @@
         <v>44963.0</v>
       </c>
       <c r="B3412" s="2" t="n">
-        <v>103.6333</v>
+        <v>103.63329999999999</v>
       </c>
     </row>
     <row r="3413">
@@ -27431,7 +27431,7 @@
         <v>44972.0</v>
       </c>
       <c r="B3419" s="2" t="n">
-        <v>103.862</v>
+        <v>103.86200000000001</v>
       </c>
     </row>
     <row r="3420">
@@ -27455,7 +27455,7 @@
         <v>44977.0</v>
       </c>
       <c r="B3422" s="2" t="n">
-        <v>103.8903</v>
+        <v>103.89030000000001</v>
       </c>
     </row>
     <row r="3423">
@@ -27495,7 +27495,7 @@
         <v>44984.0</v>
       </c>
       <c r="B3427" s="2" t="n">
-        <v>104.6522</v>
+        <v>104.65220000000001</v>
       </c>
     </row>
     <row r="3428">
@@ -27503,7 +27503,7 @@
         <v>44985.0</v>
       </c>
       <c r="B3428" s="2" t="n">
-        <v>104.9868</v>
+        <v>104.98679999999999</v>
       </c>
     </row>
     <row r="3429">
@@ -27527,7 +27527,7 @@
         <v>44988.0</v>
       </c>
       <c r="B3431" s="2" t="n">
-        <v>104.5288</v>
+        <v>104.52879999999999</v>
       </c>
     </row>
     <row r="3432">
@@ -27535,7 +27535,7 @@
         <v>44991.0</v>
       </c>
       <c r="B3432" s="2" t="n">
-        <v>104.2694</v>
+        <v>104.26939999999999</v>
       </c>
     </row>
     <row r="3433">
@@ -27559,7 +27559,7 @@
         <v>44994.0</v>
       </c>
       <c r="B3435" s="2" t="n">
-        <v>105.2432</v>
+        <v>105.24319999999999</v>
       </c>
     </row>
     <row r="3436">
@@ -27599,7 +27599,7 @@
         <v>45001.0</v>
       </c>
       <c r="B3440" s="2" t="n">
-        <v>104.4472</v>
+        <v>104.44720000000001</v>
       </c>
     </row>
     <row r="3441">
@@ -27647,7 +27647,7 @@
         <v>45009.0</v>
       </c>
       <c r="B3446" s="2" t="n">
-        <v>103.106</v>
+        <v>103.10600000000001</v>
       </c>
     </row>
     <row r="3447">
@@ -27655,7 +27655,7 @@
         <v>45012.0</v>
       </c>
       <c r="B3447" s="2" t="n">
-        <v>102.8444</v>
+        <v>102.84440000000001</v>
       </c>
     </row>
     <row r="3448">
@@ -27687,7 +27687,7 @@
         <v>45016.0</v>
       </c>
       <c r="B3451" s="2" t="n">
-        <v>102.597</v>
+        <v>102.59700000000001</v>
       </c>
     </row>
     <row r="3452">
@@ -27703,7 +27703,7 @@
         <v>45020.0</v>
       </c>
       <c r="B3453" s="2" t="n">
-        <v>101.5788</v>
+        <v>101.57879999999999</v>
       </c>
     </row>
     <row r="3454">
@@ -27711,7 +27711,7 @@
         <v>45021.0</v>
       </c>
       <c r="B3454" s="2" t="n">
-        <v>101.8959</v>
+        <v>101.89589999999998</v>
       </c>
     </row>
     <row r="3455">
@@ -27735,7 +27735,7 @@
         <v>45026.0</v>
       </c>
       <c r="B3457" s="2" t="n">
-        <v>102.5529</v>
+        <v>102.55290000000001</v>
       </c>
     </row>
     <row r="3458">
@@ -27743,7 +27743,7 @@
         <v>45027.0</v>
       </c>
       <c r="B3458" s="2" t="n">
-        <v>102.1513</v>
+        <v>102.15129999999999</v>
       </c>
     </row>
     <row r="3459">
@@ -27775,7 +27775,7 @@
         <v>45033.0</v>
       </c>
       <c r="B3462" s="2" t="n">
-        <v>102.1041</v>
+        <v>102.10410000000002</v>
       </c>
     </row>
     <row r="3463">
@@ -27791,7 +27791,7 @@
         <v>45035.0</v>
       </c>
       <c r="B3464" s="2" t="n">
-        <v>101.95</v>
+        <v>101.94999999999999</v>
       </c>
     </row>
     <row r="3465">
@@ -27799,7 +27799,7 @@
         <v>45036.0</v>
       </c>
       <c r="B3465" s="2" t="n">
-        <v>101.7879</v>
+        <v>101.78790000000001</v>
       </c>
     </row>
     <row r="3466">
@@ -27807,7 +27807,7 @@
         <v>45037.0</v>
       </c>
       <c r="B3466" s="2" t="n">
-        <v>101.7201</v>
+        <v>101.72010000000002</v>
       </c>
     </row>
     <row r="3467">
@@ -27823,7 +27823,7 @@
         <v>45041.0</v>
       </c>
       <c r="B3468" s="2" t="n">
-        <v>101.8476</v>
+        <v>101.84759999999999</v>
       </c>
     </row>
     <row r="3469">
@@ -27847,7 +27847,7 @@
         <v>45044.0</v>
       </c>
       <c r="B3471" s="2" t="n">
-        <v>101.6645</v>
+        <v>101.66449999999999</v>
       </c>
     </row>
     <row r="3472">
@@ -27855,7 +27855,7 @@
         <v>45047.0</v>
       </c>
       <c r="B3472" s="2" t="n">
-        <v>102.1007</v>
+        <v>102.10069999999999</v>
       </c>
     </row>
     <row r="3473">
@@ -27863,7 +27863,7 @@
         <v>45048.0</v>
       </c>
       <c r="B3473" s="2" t="n">
-        <v>101.9535</v>
+        <v>101.95349999999999</v>
       </c>
     </row>
     <row r="3474">
@@ -27887,7 +27887,7 @@
         <v>45051.0</v>
       </c>
       <c r="B3476" s="2" t="n">
-        <v>101.2904</v>
+        <v>101.29039999999999</v>
       </c>
     </row>
     <row r="3477">
@@ -27895,7 +27895,7 @@
         <v>45054.0</v>
       </c>
       <c r="B3477" s="2" t="n">
-        <v>101.3908</v>
+        <v>101.39080000000001</v>
       </c>
     </row>
     <row r="3478">
@@ -27967,7 +27967,7 @@
         <v>45065.0</v>
       </c>
       <c r="B3486" s="2" t="n">
-        <v>103.1921</v>
+        <v>103.19210000000001</v>
       </c>
     </row>
     <row r="3487">
@@ -28007,7 +28007,7 @@
         <v>45072.0</v>
       </c>
       <c r="B3491" s="2" t="n">
-        <v>104.2134</v>
+        <v>104.21340000000001</v>
       </c>
     </row>
     <row r="3492">
@@ -28023,7 +28023,7 @@
         <v>45076.0</v>
       </c>
       <c r="B3493" s="2" t="n">
-        <v>104.0494</v>
+        <v>104.04939999999999</v>
       </c>
     </row>
     <row r="3494">
@@ -28047,7 +28047,7 @@
         <v>45079.0</v>
       </c>
       <c r="B3496" s="2" t="n">
-        <v>104.046</v>
+        <v>104.04599999999999</v>
       </c>
     </row>
     <row r="3497">
@@ -28055,7 +28055,7 @@
         <v>45082.0</v>
       </c>
       <c r="B3497" s="2" t="n">
-        <v>104.0115</v>
+        <v>104.01150000000001</v>
       </c>
     </row>
     <row r="3498">
@@ -28087,7 +28087,7 @@
         <v>45086.0</v>
       </c>
       <c r="B3501" s="2" t="n">
-        <v>103.5562</v>
+        <v>103.55619999999999</v>
       </c>
     </row>
     <row r="3502">
@@ -28095,7 +28095,7 @@
         <v>45089.0</v>
       </c>
       <c r="B3502" s="2" t="n">
-        <v>103.6275</v>
+        <v>103.62750000000001</v>
       </c>
     </row>
     <row r="3503">
@@ -28103,7 +28103,7 @@
         <v>45090.0</v>
       </c>
       <c r="B3503" s="2" t="n">
-        <v>103.2885</v>
+        <v>103.28850000000001</v>
       </c>
     </row>
     <row r="3504">
@@ -28127,7 +28127,7 @@
         <v>45093.0</v>
       </c>
       <c r="B3506" s="2" t="n">
-        <v>102.3153</v>
+        <v>102.31530000000001</v>
       </c>
     </row>
     <row r="3507">
@@ -28143,7 +28143,7 @@
         <v>45097.0</v>
       </c>
       <c r="B3508" s="2" t="n">
-        <v>102.5394</v>
+        <v>102.53940000000001</v>
       </c>
     </row>
     <row r="3509">
@@ -28151,7 +28151,7 @@
         <v>45098.0</v>
       </c>
       <c r="B3509" s="2" t="n">
-        <v>102.0859</v>
+        <v>102.08590000000001</v>
       </c>
     </row>
     <row r="3510">
@@ -28167,7 +28167,7 @@
         <v>45100.0</v>
       </c>
       <c r="B3511" s="2" t="n">
-        <v>102.8817</v>
+        <v>102.88170000000001</v>
       </c>
     </row>
     <row r="3512">
@@ -28183,7 +28183,7 @@
         <v>45104.0</v>
       </c>
       <c r="B3513" s="2" t="n">
-        <v>102.508</v>
+        <v>102.50800000000001</v>
       </c>
     </row>
     <row r="3514">
@@ -28266,8 +28266,144 @@
         <v>101.65090000000001</v>
       </c>
     </row>
+    <row r="3524">
+      <c r="A3524" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B3524" s="2" t="n">
+        <v>100.5948</v>
+      </c>
+    </row>
     <row r="3525">
-      <c r="A3525" s="3" t="inlineStr">
+      <c r="A3525" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B3525" s="2" t="n">
+        <v>99.7569</v>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B3526" s="2" t="n">
+        <v>99.9633</v>
+      </c>
+    </row>
+    <row r="3527">
+      <c r="A3527" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B3527" s="2" t="n">
+        <v>99.8982</v>
+      </c>
+    </row>
+    <row r="3528">
+      <c r="A3528" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B3528" s="2" t="n">
+        <v>99.94470000000001</v>
+      </c>
+    </row>
+    <row r="3529">
+      <c r="A3529" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B3529" s="2" t="n">
+        <v>100.28909999999999</v>
+      </c>
+    </row>
+    <row r="3530">
+      <c r="A3530" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B3530" s="2" t="n">
+        <v>100.82740000000001</v>
+      </c>
+    </row>
+    <row r="3531">
+      <c r="A3531" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B3531" s="2" t="n">
+        <v>101.08569999999999</v>
+      </c>
+    </row>
+    <row r="3532">
+      <c r="A3532" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B3532" s="2" t="n">
+        <v>101.3905</v>
+      </c>
+    </row>
+    <row r="3533">
+      <c r="A3533" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B3533" s="2" t="n">
+        <v>101.2675</v>
+      </c>
+    </row>
+    <row r="3534">
+      <c r="A3534" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3534" s="2" t="n">
+        <v>101.02759999999999</v>
+      </c>
+    </row>
+    <row r="3535">
+      <c r="A3535" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3535" s="2" t="n">
+        <v>101.76</v>
+      </c>
+    </row>
+    <row r="3536">
+      <c r="A3536" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3536" s="2" t="n">
+        <v>101.713</v>
+      </c>
+    </row>
+    <row r="3537">
+      <c r="A3537" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3537" s="2" t="n">
+        <v>101.8784</v>
+      </c>
+    </row>
+    <row r="3538">
+      <c r="A3538" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3538" s="2" t="n">
+        <v>102.21249999999999</v>
+      </c>
+    </row>
+    <row r="3539">
+      <c r="A3539" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3539" s="2" t="n">
+        <v>102.6348</v>
+      </c>
+    </row>
+    <row r="3540">
+      <c r="A3540" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3540" s="2" t="n">
+        <v>102.47890000000001</v>
+      </c>
+    </row>
+    <row r="3542">
+      <c r="A3542" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
